--- a/source/PADS/pad_positions_bottom.xlsx
+++ b/source/PADS/pad_positions_bottom.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C128" workbookViewId="0">
-      <selection activeCell="L152" sqref="L2:L152"/>
+    <sheetView tabSelected="1" topLeftCell="C80" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" ref="V35:V66" si="6">CONCATENATE(O35,P35,Q35,R35,S35,T35,U35)</f>
+        <f t="shared" ref="V35:V65" si="6">CONCATENATE(O35,P35,Q35,R35,S35,T35,U35)</f>
         <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3971.9 0.0 R0</v>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G114">
         <v>39</v>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[39].INST_PAD_DVSS 13471.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[39].INST_PAD_DVSS 13471.9 0.0 R0</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>54</v>
@@ -9833,7 +9833,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I153" si="20">I130+120</f>
+        <f t="shared" ref="I131:I152" si="20">I130+120</f>
         <v>15511.9</v>
       </c>
       <c r="J131" s="2" t="s">
@@ -10977,7 +10977,7 @@
         <v>3</v>
       </c>
       <c r="L147" t="str">
-        <f t="shared" ref="L147:L178" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
+        <f t="shared" ref="L147:L152" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
         <v>placeInstance DIGITAL_P[53].INST_PAD_DVDD 17431.9 0.0 R0</v>
       </c>
       <c r="M147" s="7" t="s">

--- a/source/PADS/pad_positions_bottom.xlsx
+++ b/source/PADS/pad_positions_bottom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="59">
   <si>
     <t xml:space="preserve">].INST_PAD_DVDD </t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C80" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V2:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,16 +670,38 @@
         <f t="shared" ref="L2:L50" si="0">CONCATENATE(E2,F2,G2,H2,I2,J2,K2)</f>
         <v>placeInstance DIGITAL_P[0].INST_PAD_DVDD 31.9 0.0 R0</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="M2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2">
+        <f>S3-120</f>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:V34" si="1">CONCATENATE(O2,P2,Q2,R2,S2,T2,U2)</f>
+        <v>placeInstance FILLER[0].INST_decoupling_cap_filler 11.9 0.0 R0</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -707,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="1">I2+120</f>
+        <f t="shared" ref="I3:I66" si="2">I2+120</f>
         <v>151.9</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -723,8 +745,8 @@
       <c r="M3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N3">
-        <v>1</v>
+      <c r="N3" s="8">
+        <v>2</v>
       </c>
       <c r="O3" t="s">
         <v>1</v>
@@ -732,14 +754,14 @@
       <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
+      <c r="Q3" s="8">
+        <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>56</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="2">I2+100</f>
+        <f t="shared" ref="S2:S66" si="3">I2+100</f>
         <v>131.9</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -749,8 +771,8 @@
         <v>3</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V34" si="3">CONCATENATE(O3,P3,Q3,R3,S3,T3,U3)</f>
-        <v>placeInstance FILLER[0].INST_decoupling_cap_filler 131.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[1].INST_decoupling_cap_filler 131.9 0.0 R0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -781,7 +803,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>271.89999999999998</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -797,8 +819,8 @@
       <c r="M4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N4">
-        <v>2</v>
+      <c r="N4" s="8">
+        <v>3</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
@@ -806,14 +828,14 @@
       <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
+      <c r="Q4" s="8">
+        <v>2</v>
       </c>
       <c r="R4" t="s">
         <v>56</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>251.9</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -823,8 +845,8 @@
         <v>3</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[1].INST_decoupling_cap_filler 251.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[2].INST_decoupling_cap_filler 251.9 0.0 R0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -855,7 +877,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>391.9</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -871,8 +893,8 @@
       <c r="M5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N5">
-        <v>3</v>
+      <c r="N5" s="8">
+        <v>4</v>
       </c>
       <c r="O5" t="s">
         <v>1</v>
@@ -880,14 +902,14 @@
       <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5">
-        <v>2</v>
+      <c r="Q5" s="8">
+        <v>3</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>371.9</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -897,8 +919,8 @@
         <v>3</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[2].INST_decoupling_cap_filler 371.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[3].INST_decoupling_cap_filler 371.9 0.0 R0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -929,7 +951,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>511.9</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -945,23 +967,23 @@
       <c r="M6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="8">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
       <c r="R6" t="s">
         <v>56</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>491.9</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -971,8 +993,8 @@
         <v>3</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[3].INST_decoupling_cap_filler 491.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[4].INST_decoupling_cap_filler 491.9 0.0 R0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1003,7 +1025,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>631.9</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1019,23 +1041,23 @@
       <c r="M7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="8">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
       <c r="R7" t="s">
         <v>56</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>611.9</v>
       </c>
       <c r="T7" s="2" t="s">
@@ -1045,8 +1067,8 @@
         <v>3</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[4].INST_decoupling_cap_filler 611.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[5].INST_decoupling_cap_filler 611.9 0.0 R0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1077,7 +1099,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>751.9</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1093,23 +1115,23 @@
       <c r="M8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="8">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
       <c r="R8" t="s">
         <v>56</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>731.9</v>
       </c>
       <c r="T8" s="2" t="s">
@@ -1119,8 +1141,8 @@
         <v>3</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[5].INST_decoupling_cap_filler 731.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[6].INST_decoupling_cap_filler 731.9 0.0 R0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1151,7 +1173,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>871.9</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1167,23 +1189,23 @@
       <c r="M9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="8">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
       <c r="R9" t="s">
         <v>56</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>851.9</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -1193,8 +1215,8 @@
         <v>3</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[6].INST_decoupling_cap_filler 851.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[7].INST_decoupling_cap_filler 851.9 0.0 R0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1225,7 +1247,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>991.9</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1241,23 +1263,23 @@
       <c r="M10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="8">
         <v>8</v>
       </c>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
       <c r="R10" t="s">
         <v>56</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>971.9</v>
       </c>
       <c r="T10" s="2" t="s">
@@ -1267,8 +1289,8 @@
         <v>3</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[7].INST_decoupling_cap_filler 971.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[8].INST_decoupling_cap_filler 971.9 0.0 R0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1299,7 +1321,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1111.9000000000001</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1315,23 +1337,23 @@
       <c r="M11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="8">
         <v>9</v>
       </c>
-      <c r="O11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
       <c r="R11" t="s">
         <v>56</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1091.9000000000001</v>
       </c>
       <c r="T11" s="2" t="s">
@@ -1341,8 +1363,8 @@
         <v>3</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[8].INST_decoupling_cap_filler 1091.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[9].INST_decoupling_cap_filler 1091.9 0.0 R0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1373,7 +1395,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1231.9000000000001</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1389,23 +1411,23 @@
       <c r="M12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="8">
         <v>10</v>
       </c>
-      <c r="O12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
       <c r="R12" t="s">
         <v>56</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1211.9000000000001</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -1415,8 +1437,8 @@
         <v>3</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[9].INST_decoupling_cap_filler 1211.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[10].INST_decoupling_cap_filler 1211.9 0.0 R0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1447,7 +1469,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1351.9</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1463,23 +1485,23 @@
       <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="8">
         <v>11</v>
       </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
       <c r="R13" t="s">
         <v>56</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1331.9</v>
       </c>
       <c r="T13" s="2" t="s">
@@ -1489,8 +1511,8 @@
         <v>3</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[10].INST_decoupling_cap_filler 1331.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[11].INST_decoupling_cap_filler 1331.9 0.0 R0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1521,7 +1543,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1471.9</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1537,23 +1559,23 @@
       <c r="M14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="8">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="8">
         <v>12</v>
       </c>
-      <c r="O14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
       <c r="R14" t="s">
         <v>56</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1451.9</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -1563,8 +1585,8 @@
         <v>3</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[11].INST_decoupling_cap_filler 1451.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[12].INST_decoupling_cap_filler 1451.9 0.0 R0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1595,7 +1617,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1591.9</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1611,23 +1633,23 @@
       <c r="M15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="8">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="8">
         <v>13</v>
       </c>
-      <c r="O15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
       <c r="R15" t="s">
         <v>56</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1571.9</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -1637,8 +1659,8 @@
         <v>3</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[12].INST_decoupling_cap_filler 1571.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[13].INST_decoupling_cap_filler 1571.9 0.0 R0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1669,7 +1691,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1711.9</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1685,23 +1707,23 @@
       <c r="M16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="8">
         <v>14</v>
       </c>
-      <c r="O16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
-      </c>
       <c r="R16" t="s">
         <v>56</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1691.9</v>
       </c>
       <c r="T16" s="2" t="s">
@@ -1711,8 +1733,8 @@
         <v>3</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[13].INST_decoupling_cap_filler 1691.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[14].INST_decoupling_cap_filler 1691.9 0.0 R0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1743,7 +1765,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1831.9</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1759,23 +1781,23 @@
       <c r="M17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="8">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="8">
         <v>15</v>
       </c>
-      <c r="O17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17">
-        <v>14</v>
-      </c>
       <c r="R17" t="s">
         <v>56</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1811.9</v>
       </c>
       <c r="T17" s="2" t="s">
@@ -1785,8 +1807,8 @@
         <v>3</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[14].INST_decoupling_cap_filler 1811.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[15].INST_decoupling_cap_filler 1811.9 0.0 R0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1817,7 +1839,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1951.9</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1833,23 +1855,23 @@
       <c r="M18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="8">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="8">
         <v>16</v>
       </c>
-      <c r="O18" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18">
-        <v>15</v>
-      </c>
       <c r="R18" t="s">
         <v>56</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1931.9</v>
       </c>
       <c r="T18" s="2" t="s">
@@ -1859,8 +1881,8 @@
         <v>3</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[15].INST_decoupling_cap_filler 1931.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[16].INST_decoupling_cap_filler 1931.9 0.0 R0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1891,7 +1913,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2071.9</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1907,23 +1929,23 @@
       <c r="M19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="8">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="8">
         <v>17</v>
       </c>
-      <c r="O19" t="s">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19">
-        <v>16</v>
-      </c>
       <c r="R19" t="s">
         <v>56</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2051.9</v>
       </c>
       <c r="T19" s="2" t="s">
@@ -1933,8 +1955,8 @@
         <v>3</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[16].INST_decoupling_cap_filler 2051.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[17].INST_decoupling_cap_filler 2051.9 0.0 R0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1965,7 +1987,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2191.9</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1981,23 +2003,23 @@
       <c r="M20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="8">
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="8">
         <v>18</v>
       </c>
-      <c r="O20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20">
-        <v>17</v>
-      </c>
       <c r="R20" t="s">
         <v>56</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2171.9</v>
       </c>
       <c r="T20" s="2" t="s">
@@ -2007,8 +2029,8 @@
         <v>3</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[17].INST_decoupling_cap_filler 2171.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[18].INST_decoupling_cap_filler 2171.9 0.0 R0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2039,7 +2061,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2311.9</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -2055,23 +2077,23 @@
       <c r="M21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="8">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="8">
         <v>19</v>
       </c>
-      <c r="O21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21">
-        <v>18</v>
-      </c>
       <c r="R21" t="s">
         <v>56</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2291.9</v>
       </c>
       <c r="T21" s="2" t="s">
@@ -2081,8 +2103,8 @@
         <v>3</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[18].INST_decoupling_cap_filler 2291.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[19].INST_decoupling_cap_filler 2291.9 0.0 R0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2113,7 +2135,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2431.9</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -2129,23 +2151,23 @@
       <c r="M22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="8">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="8">
         <v>20</v>
       </c>
-      <c r="O22" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22">
-        <v>19</v>
-      </c>
       <c r="R22" t="s">
         <v>56</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2411.9</v>
       </c>
       <c r="T22" s="2" t="s">
@@ -2155,8 +2177,8 @@
         <v>3</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[19].INST_decoupling_cap_filler 2411.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[20].INST_decoupling_cap_filler 2411.9 0.0 R0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2187,7 +2209,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2551.9</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -2203,23 +2225,23 @@
       <c r="M23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="8">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="8">
         <v>21</v>
       </c>
-      <c r="O23" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
       <c r="R23" t="s">
         <v>56</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2531.9</v>
       </c>
       <c r="T23" s="2" t="s">
@@ -2229,8 +2251,8 @@
         <v>3</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[20].INST_decoupling_cap_filler 2531.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[21].INST_decoupling_cap_filler 2531.9 0.0 R0</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2261,7 +2283,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2671.9</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -2277,23 +2299,23 @@
       <c r="M24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="8">
+        <v>23</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="8">
         <v>22</v>
       </c>
-      <c r="O24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24">
-        <v>21</v>
-      </c>
       <c r="R24" t="s">
         <v>56</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2651.9</v>
       </c>
       <c r="T24" s="2" t="s">
@@ -2303,8 +2325,8 @@
         <v>3</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[21].INST_decoupling_cap_filler 2651.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[22].INST_decoupling_cap_filler 2651.9 0.0 R0</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2327,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2791.9</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -2343,23 +2365,23 @@
       <c r="M25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="8">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="8">
         <v>23</v>
       </c>
-      <c r="O25" t="s">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25">
-        <v>22</v>
-      </c>
       <c r="R25" t="s">
         <v>56</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2771.9</v>
       </c>
       <c r="T25" s="2" t="s">
@@ -2369,8 +2391,8 @@
         <v>3</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[22].INST_decoupling_cap_filler 2771.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[23].INST_decoupling_cap_filler 2771.9 0.0 R0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2399,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2911.9</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2415,23 +2437,23 @@
       <c r="M26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="8">
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="8">
         <v>24</v>
       </c>
-      <c r="O26" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26">
-        <v>23</v>
-      </c>
       <c r="R26" t="s">
         <v>56</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2891.9</v>
       </c>
       <c r="T26" s="2" t="s">
@@ -2441,8 +2463,8 @@
         <v>3</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[23].INST_decoupling_cap_filler 2891.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[24].INST_decoupling_cap_filler 2891.9 0.0 R0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2465,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3031.9</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -2481,23 +2503,23 @@
       <c r="M27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="8">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="8">
         <v>25</v>
       </c>
-      <c r="O27" t="s">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27">
-        <v>24</v>
-      </c>
       <c r="R27" t="s">
         <v>56</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3011.9</v>
       </c>
       <c r="T27" s="2" t="s">
@@ -2507,8 +2529,8 @@
         <v>3</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[24].INST_decoupling_cap_filler 3011.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[25].INST_decoupling_cap_filler 3011.9 0.0 R0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2537,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3151.9</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -2553,23 +2575,23 @@
       <c r="M28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="8">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="8">
         <v>26</v>
       </c>
-      <c r="O28" t="s">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28">
-        <v>25</v>
-      </c>
       <c r="R28" t="s">
         <v>56</v>
       </c>
       <c r="S28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3131.9</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -2579,8 +2601,8 @@
         <v>3</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[25].INST_decoupling_cap_filler 3131.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[26].INST_decoupling_cap_filler 3131.9 0.0 R0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2603,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3271.9</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -2619,23 +2641,23 @@
       <c r="M29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="8">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="8">
         <v>27</v>
       </c>
-      <c r="O29" t="s">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29">
-        <v>26</v>
-      </c>
       <c r="R29" t="s">
         <v>56</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3251.9</v>
       </c>
       <c r="T29" s="2" t="s">
@@ -2645,8 +2667,8 @@
         <v>3</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[26].INST_decoupling_cap_filler 3251.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[27].INST_decoupling_cap_filler 3251.9 0.0 R0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2675,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3391.9</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -2691,23 +2713,23 @@
       <c r="M30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="8">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="8">
         <v>28</v>
       </c>
-      <c r="O30" t="s">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30">
-        <v>27</v>
-      </c>
       <c r="R30" t="s">
         <v>56</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3371.9</v>
       </c>
       <c r="T30" s="2" t="s">
@@ -2717,8 +2739,8 @@
         <v>3</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[27].INST_decoupling_cap_filler 3371.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[28].INST_decoupling_cap_filler 3371.9 0.0 R0</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2741,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3511.9</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -2757,23 +2779,23 @@
       <c r="M31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="8">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="8">
         <v>29</v>
       </c>
-      <c r="O31" t="s">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31">
-        <v>28</v>
-      </c>
       <c r="R31" t="s">
         <v>56</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3491.9</v>
       </c>
       <c r="T31" s="2" t="s">
@@ -2783,8 +2805,8 @@
         <v>3</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[28].INST_decoupling_cap_filler 3491.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[29].INST_decoupling_cap_filler 3491.9 0.0 R0</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2813,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3631.9</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -2829,23 +2851,23 @@
       <c r="M32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="8">
+        <v>31</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="8">
         <v>30</v>
       </c>
-      <c r="O32" t="s">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32">
-        <v>29</v>
-      </c>
       <c r="R32" t="s">
         <v>56</v>
       </c>
       <c r="S32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3611.9</v>
       </c>
       <c r="T32" s="2" t="s">
@@ -2855,8 +2877,8 @@
         <v>3</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[29].INST_decoupling_cap_filler 3611.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[30].INST_decoupling_cap_filler 3611.9 0.0 R0</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -2879,7 +2901,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3751.9</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -2895,23 +2917,23 @@
       <c r="M33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="8">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="8">
         <v>31</v>
       </c>
-      <c r="O33" t="s">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q33">
-        <v>30</v>
-      </c>
       <c r="R33" t="s">
         <v>56</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3731.9</v>
       </c>
       <c r="T33" s="2" t="s">
@@ -2921,8 +2943,8 @@
         <v>3</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[30].INST_decoupling_cap_filler 3731.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[31].INST_decoupling_cap_filler 3731.9 0.0 R0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2951,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3871.9</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2967,23 +2989,23 @@
       <c r="M34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="8">
+        <v>33</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="8">
         <v>32</v>
       </c>
-      <c r="O34" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q34">
-        <v>31</v>
-      </c>
       <c r="R34" t="s">
         <v>56</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3851.9</v>
       </c>
       <c r="T34" s="2" t="s">
@@ -2993,8 +3015,8 @@
         <v>3</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="3"/>
-        <v>placeInstance FILLER[31].INST_decoupling_cap_filler 3851.9 0.0 R0</v>
+        <f t="shared" si="1"/>
+        <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3851.9 0.0 R0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -3017,7 +3039,7 @@
         <v>16</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3991.9</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -3033,23 +3055,23 @@
       <c r="M35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="8">
+        <v>34</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="8">
         <v>33</v>
       </c>
-      <c r="O35" t="s">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q35">
-        <v>32</v>
-      </c>
       <c r="R35" t="s">
         <v>56</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3971.9</v>
       </c>
       <c r="T35" s="2" t="s">
@@ -3060,7 +3082,7 @@
       </c>
       <c r="V35" t="str">
         <f t="shared" ref="V35:V65" si="6">CONCATENATE(O35,P35,Q35,R35,S35,T35,U35)</f>
-        <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3971.9 0.0 R0</v>
+        <v>placeInstance FILLER[33].INST_decoupling_cap_filler 3971.9 0.0 R0</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -3089,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4111.8999999999996</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -3105,23 +3127,23 @@
       <c r="M36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="8">
+        <v>35</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="8">
         <v>34</v>
       </c>
-      <c r="O36" t="s">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q36">
-        <v>33</v>
-      </c>
       <c r="R36" t="s">
         <v>56</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4091.9</v>
       </c>
       <c r="T36" s="2" t="s">
@@ -3132,7 +3154,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[33].INST_decoupling_cap_filler 4091.9 0.0 R0</v>
+        <v>placeInstance FILLER[34].INST_decoupling_cap_filler 4091.9 0.0 R0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3155,7 +3177,7 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4231.8999999999996</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -3171,23 +3193,23 @@
       <c r="M37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="8">
+        <v>36</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="8">
         <v>35</v>
       </c>
-      <c r="O37" t="s">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37">
-        <v>34</v>
-      </c>
       <c r="R37" t="s">
         <v>56</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4211.8999999999996</v>
       </c>
       <c r="T37" s="2" t="s">
@@ -3198,7 +3220,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[34].INST_decoupling_cap_filler 4211.9 0.0 R0</v>
+        <v>placeInstance FILLER[35].INST_decoupling_cap_filler 4211.9 0.0 R0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -3227,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4351.8999999999996</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -3243,23 +3265,23 @@
       <c r="M38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="8">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" s="8">
         <v>36</v>
       </c>
-      <c r="O38" t="s">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q38">
-        <v>35</v>
-      </c>
       <c r="R38" t="s">
         <v>56</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4331.8999999999996</v>
       </c>
       <c r="T38" s="2" t="s">
@@ -3270,7 +3292,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[35].INST_decoupling_cap_filler 4331.9 0.0 R0</v>
+        <v>placeInstance FILLER[36].INST_decoupling_cap_filler 4331.9 0.0 R0</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -3293,7 +3315,7 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4471.8999999999996</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -3309,23 +3331,23 @@
       <c r="M39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="8">
+        <v>38</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39" s="8">
         <v>37</v>
       </c>
-      <c r="O39" t="s">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q39">
-        <v>36</v>
-      </c>
       <c r="R39" t="s">
         <v>56</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4451.8999999999996</v>
       </c>
       <c r="T39" s="2" t="s">
@@ -3336,7 +3358,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[36].INST_decoupling_cap_filler 4451.9 0.0 R0</v>
+        <v>placeInstance FILLER[37].INST_decoupling_cap_filler 4451.9 0.0 R0</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -3365,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4591.8999999999996</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -3381,23 +3403,23 @@
       <c r="M40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="8">
+        <v>39</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q40" s="8">
         <v>38</v>
       </c>
-      <c r="O40" t="s">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q40">
-        <v>37</v>
-      </c>
       <c r="R40" t="s">
         <v>56</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4571.8999999999996</v>
       </c>
       <c r="T40" s="2" t="s">
@@ -3408,7 +3430,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[37].INST_decoupling_cap_filler 4571.9 0.0 R0</v>
+        <v>placeInstance FILLER[38].INST_decoupling_cap_filler 4571.9 0.0 R0</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -3437,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4711.8999999999996</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -3453,23 +3475,23 @@
       <c r="M41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="8">
+        <v>40</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="8">
         <v>39</v>
       </c>
-      <c r="O41" t="s">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q41">
-        <v>38</v>
-      </c>
       <c r="R41" t="s">
         <v>56</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4691.8999999999996</v>
       </c>
       <c r="T41" s="2" t="s">
@@ -3480,7 +3502,7 @@
       </c>
       <c r="V41" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[38].INST_decoupling_cap_filler 4691.9 0.0 R0</v>
+        <v>placeInstance FILLER[39].INST_decoupling_cap_filler 4691.9 0.0 R0</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3511,7 +3533,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4831.8999999999996</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -3527,23 +3549,23 @@
       <c r="M42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="8">
+        <v>41</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="8">
         <v>40</v>
       </c>
-      <c r="O42" t="s">
-        <v>1</v>
-      </c>
-      <c r="P42" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q42">
-        <v>39</v>
-      </c>
       <c r="R42" t="s">
         <v>56</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4811.8999999999996</v>
       </c>
       <c r="T42" s="2" t="s">
@@ -3554,7 +3576,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[39].INST_decoupling_cap_filler 4811.9 0.0 R0</v>
+        <v>placeInstance FILLER[40].INST_decoupling_cap_filler 4811.9 0.0 R0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3585,7 +3607,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4951.8999999999996</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -3601,23 +3623,23 @@
       <c r="M43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="8">
+        <v>42</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="8">
         <v>41</v>
       </c>
-      <c r="O43" t="s">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q43">
-        <v>40</v>
-      </c>
       <c r="R43" t="s">
         <v>56</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4931.8999999999996</v>
       </c>
       <c r="T43" s="2" t="s">
@@ -3628,7 +3650,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[40].INST_decoupling_cap_filler 4931.9 0.0 R0</v>
+        <v>placeInstance FILLER[41].INST_decoupling_cap_filler 4931.9 0.0 R0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3659,7 +3681,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5071.8999999999996</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -3675,23 +3697,23 @@
       <c r="M44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="8">
+        <v>43</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="8">
         <v>42</v>
       </c>
-      <c r="O44" t="s">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q44">
-        <v>41</v>
-      </c>
       <c r="R44" t="s">
         <v>56</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5051.8999999999996</v>
       </c>
       <c r="T44" s="2" t="s">
@@ -3702,7 +3724,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[41].INST_decoupling_cap_filler 5051.9 0.0 R0</v>
+        <v>placeInstance FILLER[42].INST_decoupling_cap_filler 5051.9 0.0 R0</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3733,7 +3755,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5191.8999999999996</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -3749,23 +3771,23 @@
       <c r="M45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="8">
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="8">
         <v>43</v>
       </c>
-      <c r="O45" t="s">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q45">
-        <v>42</v>
-      </c>
       <c r="R45" t="s">
         <v>56</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5171.8999999999996</v>
       </c>
       <c r="T45" s="2" t="s">
@@ -3776,7 +3798,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[42].INST_decoupling_cap_filler 5171.9 0.0 R0</v>
+        <v>placeInstance FILLER[43].INST_decoupling_cap_filler 5171.9 0.0 R0</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3807,7 +3829,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5311.9</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -3823,23 +3845,23 @@
       <c r="M46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="8">
+        <v>45</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="8">
         <v>44</v>
       </c>
-      <c r="O46" t="s">
-        <v>1</v>
-      </c>
-      <c r="P46" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46">
-        <v>43</v>
-      </c>
       <c r="R46" t="s">
         <v>56</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5291.9</v>
       </c>
       <c r="T46" s="2" t="s">
@@ -3850,7 +3872,7 @@
       </c>
       <c r="V46" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[43].INST_decoupling_cap_filler 5291.9 0.0 R0</v>
+        <v>placeInstance FILLER[44].INST_decoupling_cap_filler 5291.9 0.0 R0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3881,7 +3903,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5431.9</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -3897,23 +3919,23 @@
       <c r="M47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="8">
+        <v>46</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" s="8">
         <v>45</v>
       </c>
-      <c r="O47" t="s">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q47">
-        <v>44</v>
-      </c>
       <c r="R47" t="s">
         <v>56</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5411.9</v>
       </c>
       <c r="T47" s="2" t="s">
@@ -3924,7 +3946,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[44].INST_decoupling_cap_filler 5411.9 0.0 R0</v>
+        <v>placeInstance FILLER[45].INST_decoupling_cap_filler 5411.9 0.0 R0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -3955,7 +3977,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5551.9</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -3971,23 +3993,23 @@
       <c r="M48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="8">
+        <v>47</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="8">
         <v>46</v>
       </c>
-      <c r="O48" t="s">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q48">
-        <v>45</v>
-      </c>
       <c r="R48" t="s">
         <v>56</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5531.9</v>
       </c>
       <c r="T48" s="2" t="s">
@@ -3998,7 +4020,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[45].INST_decoupling_cap_filler 5531.9 0.0 R0</v>
+        <v>placeInstance FILLER[46].INST_decoupling_cap_filler 5531.9 0.0 R0</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -4029,7 +4051,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5671.9</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -4045,23 +4067,23 @@
       <c r="M49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="8">
+        <v>48</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" s="8">
         <v>47</v>
       </c>
-      <c r="O49" t="s">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q49">
-        <v>46</v>
-      </c>
       <c r="R49" t="s">
         <v>56</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5651.9</v>
       </c>
       <c r="T49" s="2" t="s">
@@ -4072,7 +4094,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[46].INST_decoupling_cap_filler 5651.9 0.0 R0</v>
+        <v>placeInstance FILLER[47].INST_decoupling_cap_filler 5651.9 0.0 R0</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -4103,7 +4125,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5791.9</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -4119,23 +4141,23 @@
       <c r="M50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="8">
+        <v>49</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="8">
         <v>48</v>
       </c>
-      <c r="O50" t="s">
-        <v>1</v>
-      </c>
-      <c r="P50" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q50">
-        <v>47</v>
-      </c>
       <c r="R50" t="s">
         <v>56</v>
       </c>
       <c r="S50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5771.9</v>
       </c>
       <c r="T50" s="2" t="s">
@@ -4146,7 +4168,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[47].INST_decoupling_cap_filler 5771.9 0.0 R0</v>
+        <v>placeInstance FILLER[48].INST_decoupling_cap_filler 5771.9 0.0 R0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4177,7 +4199,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5911.9</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -4193,23 +4215,23 @@
       <c r="M51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="8">
+        <v>50</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q51" s="8">
         <v>49</v>
       </c>
-      <c r="O51" t="s">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q51">
-        <v>48</v>
-      </c>
       <c r="R51" t="s">
         <v>56</v>
       </c>
       <c r="S51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5891.9</v>
       </c>
       <c r="T51" s="2" t="s">
@@ -4220,7 +4242,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[48].INST_decoupling_cap_filler 5891.9 0.0 R0</v>
+        <v>placeInstance FILLER[49].INST_decoupling_cap_filler 5891.9 0.0 R0</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4251,7 +4273,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6031.9</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -4267,23 +4289,23 @@
       <c r="M52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="8">
+        <v>51</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="8">
         <v>50</v>
       </c>
-      <c r="O52" t="s">
-        <v>1</v>
-      </c>
-      <c r="P52" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q52">
-        <v>49</v>
-      </c>
       <c r="R52" t="s">
         <v>56</v>
       </c>
       <c r="S52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6011.9</v>
       </c>
       <c r="T52" s="2" t="s">
@@ -4294,7 +4316,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[49].INST_decoupling_cap_filler 6011.9 0.0 R0</v>
+        <v>placeInstance FILLER[50].INST_decoupling_cap_filler 6011.9 0.0 R0</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -4317,7 +4339,7 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6151.9</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -4333,23 +4355,23 @@
       <c r="M53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="8">
+        <v>52</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="8">
         <v>51</v>
       </c>
-      <c r="O53" t="s">
-        <v>1</v>
-      </c>
-      <c r="P53" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q53">
-        <v>50</v>
-      </c>
       <c r="R53" t="s">
         <v>56</v>
       </c>
       <c r="S53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6131.9</v>
       </c>
       <c r="T53" s="2" t="s">
@@ -4360,7 +4382,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[50].INST_decoupling_cap_filler 6131.9 0.0 R0</v>
+        <v>placeInstance FILLER[51].INST_decoupling_cap_filler 6131.9 0.0 R0</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4389,7 +4411,7 @@
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6271.9</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -4405,23 +4427,23 @@
       <c r="M54" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="8">
+        <v>53</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="8">
         <v>52</v>
       </c>
-      <c r="O54" t="s">
-        <v>1</v>
-      </c>
-      <c r="P54" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q54">
-        <v>51</v>
-      </c>
       <c r="R54" t="s">
         <v>56</v>
       </c>
       <c r="S54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6251.9</v>
       </c>
       <c r="T54" s="2" t="s">
@@ -4432,7 +4454,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[51].INST_decoupling_cap_filler 6251.9 0.0 R0</v>
+        <v>placeInstance FILLER[52].INST_decoupling_cap_filler 6251.9 0.0 R0</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -4455,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6391.9</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -4471,23 +4493,23 @@
       <c r="M55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="8">
+        <v>54</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="8">
         <v>53</v>
       </c>
-      <c r="O55" t="s">
-        <v>1</v>
-      </c>
-      <c r="P55" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q55">
-        <v>52</v>
-      </c>
       <c r="R55" t="s">
         <v>56</v>
       </c>
       <c r="S55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6371.9</v>
       </c>
       <c r="T55" s="2" t="s">
@@ -4498,7 +4520,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[52].INST_decoupling_cap_filler 6371.9 0.0 R0</v>
+        <v>placeInstance FILLER[53].INST_decoupling_cap_filler 6371.9 0.0 R0</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4527,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6511.9</v>
       </c>
       <c r="J56" s="2" t="s">
@@ -4543,8 +4565,8 @@
       <c r="M56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N56">
-        <v>54</v>
+      <c r="N56" s="8">
+        <v>55</v>
       </c>
       <c r="O56" t="s">
         <v>1</v>
@@ -4552,14 +4574,14 @@
       <c r="P56" t="s">
         <v>55</v>
       </c>
-      <c r="Q56">
-        <v>53</v>
+      <c r="Q56" s="8">
+        <v>54</v>
       </c>
       <c r="R56" t="s">
         <v>56</v>
       </c>
       <c r="S56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6491.9</v>
       </c>
       <c r="T56" s="2" t="s">
@@ -4570,7 +4592,7 @@
       </c>
       <c r="V56" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[53].INST_decoupling_cap_filler 6491.9 0.0 R0</v>
+        <v>placeInstance FILLER[54].INST_decoupling_cap_filler 6491.9 0.0 R0</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -4593,7 +4615,7 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6631.9</v>
       </c>
       <c r="J57" s="2" t="s">
@@ -4609,8 +4631,8 @@
       <c r="M57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N57">
-        <v>55</v>
+      <c r="N57" s="8">
+        <v>56</v>
       </c>
       <c r="O57" t="s">
         <v>1</v>
@@ -4618,14 +4640,14 @@
       <c r="P57" t="s">
         <v>55</v>
       </c>
-      <c r="Q57">
-        <v>54</v>
+      <c r="Q57" s="8">
+        <v>55</v>
       </c>
       <c r="R57" t="s">
         <v>56</v>
       </c>
       <c r="S57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6611.9</v>
       </c>
       <c r="T57" s="2" t="s">
@@ -4636,7 +4658,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[54].INST_decoupling_cap_filler 6611.9 0.0 R0</v>
+        <v>placeInstance FILLER[55].INST_decoupling_cap_filler 6611.9 0.0 R0</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -4665,7 +4687,7 @@
         <v>4</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6751.9</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -4681,8 +4703,8 @@
       <c r="M58" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N58">
-        <v>56</v>
+      <c r="N58" s="8">
+        <v>57</v>
       </c>
       <c r="O58" t="s">
         <v>1</v>
@@ -4690,14 +4712,14 @@
       <c r="P58" t="s">
         <v>55</v>
       </c>
-      <c r="Q58">
-        <v>55</v>
+      <c r="Q58" s="8">
+        <v>56</v>
       </c>
       <c r="R58" t="s">
         <v>56</v>
       </c>
       <c r="S58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6731.9</v>
       </c>
       <c r="T58" s="2" t="s">
@@ -4708,7 +4730,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[55].INST_decoupling_cap_filler 6731.9 0.0 R0</v>
+        <v>placeInstance FILLER[56].INST_decoupling_cap_filler 6731.9 0.0 R0</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4731,7 +4753,7 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6871.9</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -4747,23 +4769,23 @@
       <c r="M59" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="8">
+        <v>58</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="8">
         <v>57</v>
       </c>
-      <c r="O59" t="s">
-        <v>1</v>
-      </c>
-      <c r="P59" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q59">
-        <v>56</v>
-      </c>
       <c r="R59" t="s">
         <v>56</v>
       </c>
       <c r="S59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6851.9</v>
       </c>
       <c r="T59" s="2" t="s">
@@ -4774,7 +4796,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[56].INST_decoupling_cap_filler 6851.9 0.0 R0</v>
+        <v>placeInstance FILLER[57].INST_decoupling_cap_filler 6851.9 0.0 R0</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4803,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6991.9</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -4819,23 +4841,23 @@
       <c r="M60" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="8">
+        <v>59</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q60" s="8">
         <v>58</v>
       </c>
-      <c r="O60" t="s">
-        <v>1</v>
-      </c>
-      <c r="P60" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q60">
-        <v>57</v>
-      </c>
       <c r="R60" t="s">
         <v>56</v>
       </c>
       <c r="S60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6971.9</v>
       </c>
       <c r="T60" s="2" t="s">
@@ -4846,7 +4868,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[57].INST_decoupling_cap_filler 6971.9 0.0 R0</v>
+        <v>placeInstance FILLER[58].INST_decoupling_cap_filler 6971.9 0.0 R0</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -4869,7 +4891,7 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7111.9</v>
       </c>
       <c r="J61" s="2" t="s">
@@ -4885,23 +4907,23 @@
       <c r="M61" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="8">
+        <v>60</v>
+      </c>
+      <c r="O61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P61" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" s="8">
         <v>59</v>
       </c>
-      <c r="O61" t="s">
-        <v>1</v>
-      </c>
-      <c r="P61" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q61">
-        <v>58</v>
-      </c>
       <c r="R61" t="s">
         <v>56</v>
       </c>
       <c r="S61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7091.9</v>
       </c>
       <c r="T61" s="2" t="s">
@@ -4912,7 +4934,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[58].INST_decoupling_cap_filler 7091.9 0.0 R0</v>
+        <v>placeInstance FILLER[59].INST_decoupling_cap_filler 7091.9 0.0 R0</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4941,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7231.9</v>
       </c>
       <c r="J62" s="2" t="s">
@@ -4957,23 +4979,23 @@
       <c r="M62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="8">
+        <v>61</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q62" s="8">
         <v>60</v>
       </c>
-      <c r="O62" t="s">
-        <v>1</v>
-      </c>
-      <c r="P62" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q62">
-        <v>59</v>
-      </c>
       <c r="R62" t="s">
         <v>56</v>
       </c>
       <c r="S62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7211.9</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -4984,7 +5006,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[59].INST_decoupling_cap_filler 7211.9 0.0 R0</v>
+        <v>placeInstance FILLER[60].INST_decoupling_cap_filler 7211.9 0.0 R0</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -5007,7 +5029,7 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7351.9</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -5023,23 +5045,23 @@
       <c r="M63" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="8">
+        <v>62</v>
+      </c>
+      <c r="O63" t="s">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q63" s="8">
         <v>61</v>
       </c>
-      <c r="O63" t="s">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q63">
-        <v>60</v>
-      </c>
       <c r="R63" t="s">
         <v>56</v>
       </c>
       <c r="S63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7331.9</v>
       </c>
       <c r="T63" s="2" t="s">
@@ -5050,7 +5072,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[60].INST_decoupling_cap_filler 7331.9 0.0 R0</v>
+        <v>placeInstance FILLER[61].INST_decoupling_cap_filler 7331.9 0.0 R0</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -5079,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7471.9</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -5095,23 +5117,23 @@
       <c r="M64" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="8">
+        <v>63</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q64" s="8">
         <v>62</v>
       </c>
-      <c r="O64" t="s">
-        <v>1</v>
-      </c>
-      <c r="P64" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q64">
-        <v>61</v>
-      </c>
       <c r="R64" t="s">
         <v>56</v>
       </c>
       <c r="S64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7451.9</v>
       </c>
       <c r="T64" s="2" t="s">
@@ -5122,7 +5144,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[61].INST_decoupling_cap_filler 7451.9 0.0 R0</v>
+        <v>placeInstance FILLER[62].INST_decoupling_cap_filler 7451.9 0.0 R0</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -5145,7 +5167,7 @@
         <v>22</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7591.9</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -5161,23 +5183,23 @@
       <c r="M65" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="8">
+        <v>64</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q65" s="8">
         <v>63</v>
       </c>
-      <c r="O65" t="s">
-        <v>1</v>
-      </c>
-      <c r="P65" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q65">
-        <v>62</v>
-      </c>
       <c r="R65" t="s">
         <v>56</v>
       </c>
       <c r="S65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7571.9</v>
       </c>
       <c r="T65" s="2" t="s">
@@ -5188,7 +5210,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[62].INST_decoupling_cap_filler 7571.9 0.0 R0</v>
+        <v>placeInstance FILLER[63].INST_decoupling_cap_filler 7571.9 0.0 R0</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -5217,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7711.9</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -5233,23 +5255,23 @@
       <c r="M66" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="8">
+        <v>65</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q66" s="8">
         <v>64</v>
       </c>
-      <c r="O66" t="s">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q66">
-        <v>63</v>
-      </c>
       <c r="R66" t="s">
         <v>56</v>
       </c>
       <c r="S66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7691.9</v>
       </c>
       <c r="T66" s="2" t="s">
@@ -5260,7 +5282,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" ref="V66:V129" si="10">CONCATENATE(O66,P66,Q66,R66,S66,T66,U66)</f>
-        <v>placeInstance FILLER[63].INST_decoupling_cap_filler 7691.9 0.0 R0</v>
+        <v>placeInstance FILLER[64].INST_decoupling_cap_filler 7691.9 0.0 R0</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -5299,17 +5321,17 @@
       <c r="M67" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="8">
+        <v>66</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="8">
         <v>65</v>
-      </c>
-      <c r="O67" t="s">
-        <v>1</v>
-      </c>
-      <c r="P67" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q67">
-        <v>64</v>
       </c>
       <c r="R67" t="s">
         <v>56</v>
@@ -5326,7 +5348,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[64].INST_decoupling_cap_filler 7811.9 0.0 R0</v>
+        <v>placeInstance FILLER[65].INST_decoupling_cap_filler 7811.9 0.0 R0</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -5371,17 +5393,17 @@
       <c r="M68" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="8">
+        <v>67</v>
+      </c>
+      <c r="O68" t="s">
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q68" s="8">
         <v>66</v>
-      </c>
-      <c r="O68" t="s">
-        <v>1</v>
-      </c>
-      <c r="P68" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q68">
-        <v>65</v>
       </c>
       <c r="R68" t="s">
         <v>56</v>
@@ -5398,7 +5420,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[65].INST_decoupling_cap_filler 7931.9 0.0 R0</v>
+        <v>placeInstance FILLER[66].INST_decoupling_cap_filler 7931.9 0.0 R0</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -5437,17 +5459,17 @@
       <c r="M69" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="8">
+        <v>68</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="8">
         <v>67</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1</v>
-      </c>
-      <c r="P69" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q69">
-        <v>66</v>
       </c>
       <c r="R69" t="s">
         <v>56</v>
@@ -5464,7 +5486,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[66].INST_decoupling_cap_filler 8051.9 0.0 R0</v>
+        <v>placeInstance FILLER[67].INST_decoupling_cap_filler 8051.9 0.0 R0</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -5509,17 +5531,17 @@
       <c r="M70" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="8">
+        <v>69</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q70" s="8">
         <v>68</v>
-      </c>
-      <c r="O70" t="s">
-        <v>1</v>
-      </c>
-      <c r="P70" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q70">
-        <v>67</v>
       </c>
       <c r="R70" t="s">
         <v>56</v>
@@ -5536,7 +5558,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[67].INST_decoupling_cap_filler 8171.9 0.0 R0</v>
+        <v>placeInstance FILLER[68].INST_decoupling_cap_filler 8171.9 0.0 R0</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -5575,17 +5597,17 @@
       <c r="M71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="8">
+        <v>70</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q71" s="8">
         <v>69</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P71" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q71">
-        <v>68</v>
       </c>
       <c r="R71" t="s">
         <v>56</v>
@@ -5602,7 +5624,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[68].INST_decoupling_cap_filler 8291.9 0.0 R0</v>
+        <v>placeInstance FILLER[69].INST_decoupling_cap_filler 8291.9 0.0 R0</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -5647,17 +5669,17 @@
       <c r="M72" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="8">
+        <v>71</v>
+      </c>
+      <c r="O72" t="s">
+        <v>1</v>
+      </c>
+      <c r="P72" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q72" s="8">
         <v>70</v>
-      </c>
-      <c r="O72" t="s">
-        <v>1</v>
-      </c>
-      <c r="P72" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q72">
-        <v>69</v>
       </c>
       <c r="R72" t="s">
         <v>56</v>
@@ -5674,7 +5696,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[69].INST_decoupling_cap_filler 8411.9 0.0 R0</v>
+        <v>placeInstance FILLER[70].INST_decoupling_cap_filler 8411.9 0.0 R0</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -5713,17 +5735,17 @@
       <c r="M73" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="8">
+        <v>72</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q73" s="8">
         <v>71</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1</v>
-      </c>
-      <c r="P73" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q73">
-        <v>70</v>
       </c>
       <c r="R73" t="s">
         <v>56</v>
@@ -5740,7 +5762,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[70].INST_decoupling_cap_filler 8531.9 0.0 R0</v>
+        <v>placeInstance FILLER[71].INST_decoupling_cap_filler 8531.9 0.0 R0</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -5785,17 +5807,17 @@
       <c r="M74" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="8">
+        <v>73</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q74" s="8">
         <v>72</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1</v>
-      </c>
-      <c r="P74" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q74">
-        <v>71</v>
       </c>
       <c r="R74" t="s">
         <v>56</v>
@@ -5812,7 +5834,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[71].INST_decoupling_cap_filler 8651.9 0.0 R0</v>
+        <v>placeInstance FILLER[72].INST_decoupling_cap_filler 8651.9 0.0 R0</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -5851,17 +5873,17 @@
       <c r="M75" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="8">
+        <v>74</v>
+      </c>
+      <c r="O75" t="s">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q75" s="8">
         <v>73</v>
-      </c>
-      <c r="O75" t="s">
-        <v>1</v>
-      </c>
-      <c r="P75" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q75">
-        <v>72</v>
       </c>
       <c r="R75" t="s">
         <v>56</v>
@@ -5878,7 +5900,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[72].INST_decoupling_cap_filler 8771.9 0.0 R0</v>
+        <v>placeInstance FILLER[73].INST_decoupling_cap_filler 8771.9 0.0 R0</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -5923,17 +5945,17 @@
       <c r="M76" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="8">
+        <v>75</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q76" s="8">
         <v>74</v>
-      </c>
-      <c r="O76" t="s">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q76">
-        <v>73</v>
       </c>
       <c r="R76" t="s">
         <v>56</v>
@@ -5950,7 +5972,7 @@
       </c>
       <c r="V76" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[73].INST_decoupling_cap_filler 8891.9 0.0 R0</v>
+        <v>placeInstance FILLER[74].INST_decoupling_cap_filler 8891.9 0.0 R0</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -5989,17 +6011,17 @@
       <c r="M77" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="8">
+        <v>76</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q77" s="8">
         <v>75</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q77">
-        <v>74</v>
       </c>
       <c r="R77" t="s">
         <v>56</v>
@@ -6016,7 +6038,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[74].INST_decoupling_cap_filler 9011.9 0.0 R0</v>
+        <v>placeInstance FILLER[75].INST_decoupling_cap_filler 9011.9 0.0 R0</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -6061,17 +6083,17 @@
       <c r="M78" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="8">
+        <v>77</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1</v>
+      </c>
+      <c r="P78" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q78" s="8">
         <v>76</v>
-      </c>
-      <c r="O78" t="s">
-        <v>1</v>
-      </c>
-      <c r="P78" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q78">
-        <v>75</v>
       </c>
       <c r="R78" t="s">
         <v>56</v>
@@ -6088,7 +6110,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[75].INST_decoupling_cap_filler 9131.9 0.0 R0</v>
+        <v>placeInstance FILLER[76].INST_decoupling_cap_filler 9131.9 0.0 R0</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -6127,17 +6149,17 @@
       <c r="M79" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="8">
+        <v>78</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1</v>
+      </c>
+      <c r="P79" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q79" s="8">
         <v>77</v>
-      </c>
-      <c r="O79" t="s">
-        <v>1</v>
-      </c>
-      <c r="P79" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q79">
-        <v>76</v>
       </c>
       <c r="R79" t="s">
         <v>56</v>
@@ -6154,7 +6176,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[76].INST_decoupling_cap_filler 9251.9 0.0 R0</v>
+        <v>placeInstance FILLER[77].INST_decoupling_cap_filler 9251.9 0.0 R0</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -6199,17 +6221,17 @@
       <c r="M80" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="8">
+        <v>79</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q80" s="8">
         <v>78</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1</v>
-      </c>
-      <c r="P80" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q80">
-        <v>77</v>
       </c>
       <c r="R80" t="s">
         <v>56</v>
@@ -6226,7 +6248,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[77].INST_decoupling_cap_filler 9371.9 0.0 R0</v>
+        <v>placeInstance FILLER[78].INST_decoupling_cap_filler 9371.9 0.0 R0</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -6265,17 +6287,17 @@
       <c r="M81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="8">
+        <v>80</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q81" s="8">
         <v>79</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1</v>
-      </c>
-      <c r="P81" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q81">
-        <v>78</v>
       </c>
       <c r="R81" t="s">
         <v>56</v>
@@ -6292,7 +6314,7 @@
       </c>
       <c r="V81" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[78].INST_decoupling_cap_filler 9491.9 0.0 R0</v>
+        <v>placeInstance FILLER[79].INST_decoupling_cap_filler 9491.9 0.0 R0</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -6337,17 +6359,17 @@
       <c r="M82" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="8">
+        <v>81</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1</v>
+      </c>
+      <c r="P82" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q82" s="8">
         <v>80</v>
-      </c>
-      <c r="O82" t="s">
-        <v>1</v>
-      </c>
-      <c r="P82" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q82">
-        <v>79</v>
       </c>
       <c r="R82" t="s">
         <v>56</v>
@@ -6364,7 +6386,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[79].INST_decoupling_cap_filler 9611.9 0.0 R0</v>
+        <v>placeInstance FILLER[80].INST_decoupling_cap_filler 9611.9 0.0 R0</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -6403,17 +6425,17 @@
       <c r="M83" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="8">
+        <v>82</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q83" s="8">
         <v>81</v>
-      </c>
-      <c r="O83" t="s">
-        <v>1</v>
-      </c>
-      <c r="P83" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q83">
-        <v>80</v>
       </c>
       <c r="R83" t="s">
         <v>56</v>
@@ -6430,7 +6452,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[80].INST_decoupling_cap_filler 9731.9 0.0 R0</v>
+        <v>placeInstance FILLER[81].INST_decoupling_cap_filler 9731.9 0.0 R0</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -6475,17 +6497,17 @@
       <c r="M84" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="8">
+        <v>83</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1</v>
+      </c>
+      <c r="P84" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q84" s="8">
         <v>82</v>
-      </c>
-      <c r="O84" t="s">
-        <v>1</v>
-      </c>
-      <c r="P84" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q84">
-        <v>81</v>
       </c>
       <c r="R84" t="s">
         <v>56</v>
@@ -6502,7 +6524,7 @@
       </c>
       <c r="V84" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[81].INST_decoupling_cap_filler 9851.9 0.0 R0</v>
+        <v>placeInstance FILLER[82].INST_decoupling_cap_filler 9851.9 0.0 R0</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -6541,17 +6563,17 @@
       <c r="M85" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="8">
+        <v>84</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q85" s="8">
         <v>83</v>
-      </c>
-      <c r="O85" t="s">
-        <v>1</v>
-      </c>
-      <c r="P85" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q85">
-        <v>82</v>
       </c>
       <c r="R85" t="s">
         <v>56</v>
@@ -6568,7 +6590,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[82].INST_decoupling_cap_filler 9971.9 0.0 R0</v>
+        <v>placeInstance FILLER[83].INST_decoupling_cap_filler 9971.9 0.0 R0</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -6613,17 +6635,17 @@
       <c r="M86" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="8">
+        <v>85</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q86" s="8">
         <v>84</v>
-      </c>
-      <c r="O86" t="s">
-        <v>1</v>
-      </c>
-      <c r="P86" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q86">
-        <v>83</v>
       </c>
       <c r="R86" t="s">
         <v>56</v>
@@ -6640,7 +6662,7 @@
       </c>
       <c r="V86" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[83].INST_decoupling_cap_filler 10091.9 0.0 R0</v>
+        <v>placeInstance FILLER[84].INST_decoupling_cap_filler 10091.9 0.0 R0</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -6679,17 +6701,17 @@
       <c r="M87" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="8">
+        <v>86</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1</v>
+      </c>
+      <c r="P87" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q87" s="8">
         <v>85</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1</v>
-      </c>
-      <c r="P87" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q87">
-        <v>84</v>
       </c>
       <c r="R87" t="s">
         <v>56</v>
@@ -6706,7 +6728,7 @@
       </c>
       <c r="V87" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[84].INST_decoupling_cap_filler 10211.9 0.0 R0</v>
+        <v>placeInstance FILLER[85].INST_decoupling_cap_filler 10211.9 0.0 R0</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -6751,17 +6773,17 @@
       <c r="M88" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="8">
+        <v>87</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q88" s="8">
         <v>86</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1</v>
-      </c>
-      <c r="P88" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q88">
-        <v>85</v>
       </c>
       <c r="R88" t="s">
         <v>56</v>
@@ -6778,7 +6800,7 @@
       </c>
       <c r="V88" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[85].INST_decoupling_cap_filler 10331.9 0.0 R0</v>
+        <v>placeInstance FILLER[86].INST_decoupling_cap_filler 10331.9 0.0 R0</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -6823,17 +6845,17 @@
       <c r="M89" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="8">
+        <v>88</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q89" s="8">
         <v>87</v>
-      </c>
-      <c r="O89" t="s">
-        <v>1</v>
-      </c>
-      <c r="P89" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q89">
-        <v>86</v>
       </c>
       <c r="R89" t="s">
         <v>56</v>
@@ -6850,7 +6872,7 @@
       </c>
       <c r="V89" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[86].INST_decoupling_cap_filler 10451.9 0.0 R0</v>
+        <v>placeInstance FILLER[87].INST_decoupling_cap_filler 10451.9 0.0 R0</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -6897,17 +6919,17 @@
       <c r="M90" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="8">
+        <v>89</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q90" s="8">
         <v>88</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P90" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q90">
-        <v>87</v>
       </c>
       <c r="R90" t="s">
         <v>56</v>
@@ -6924,7 +6946,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[87].INST_decoupling_cap_filler 10571.9 0.0 R0</v>
+        <v>placeInstance FILLER[88].INST_decoupling_cap_filler 10571.9 0.0 R0</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -6971,17 +6993,17 @@
       <c r="M91" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="8">
+        <v>90</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1</v>
+      </c>
+      <c r="P91" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q91" s="8">
         <v>89</v>
-      </c>
-      <c r="O91" t="s">
-        <v>1</v>
-      </c>
-      <c r="P91" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q91">
-        <v>88</v>
       </c>
       <c r="R91" t="s">
         <v>56</v>
@@ -6998,7 +7020,7 @@
       </c>
       <c r="V91" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[88].INST_decoupling_cap_filler 10691.9 0.0 R0</v>
+        <v>placeInstance FILLER[89].INST_decoupling_cap_filler 10691.9 0.0 R0</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -7045,17 +7067,17 @@
       <c r="M92" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="8">
+        <v>91</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q92" s="8">
         <v>90</v>
-      </c>
-      <c r="O92" t="s">
-        <v>1</v>
-      </c>
-      <c r="P92" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q92">
-        <v>89</v>
       </c>
       <c r="R92" t="s">
         <v>56</v>
@@ -7072,7 +7094,7 @@
       </c>
       <c r="V92" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[89].INST_decoupling_cap_filler 10811.9 0.0 R0</v>
+        <v>placeInstance FILLER[90].INST_decoupling_cap_filler 10811.9 0.0 R0</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -7119,17 +7141,17 @@
       <c r="M93" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="8">
+        <v>92</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1</v>
+      </c>
+      <c r="P93" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q93" s="8">
         <v>91</v>
-      </c>
-      <c r="O93" t="s">
-        <v>1</v>
-      </c>
-      <c r="P93" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q93">
-        <v>90</v>
       </c>
       <c r="R93" t="s">
         <v>56</v>
@@ -7146,7 +7168,7 @@
       </c>
       <c r="V93" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[90].INST_decoupling_cap_filler 10931.9 0.0 R0</v>
+        <v>placeInstance FILLER[91].INST_decoupling_cap_filler 10931.9 0.0 R0</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -7193,17 +7215,17 @@
       <c r="M94" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="8">
+        <v>93</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1</v>
+      </c>
+      <c r="P94" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q94" s="8">
         <v>92</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1</v>
-      </c>
-      <c r="P94" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q94">
-        <v>91</v>
       </c>
       <c r="R94" t="s">
         <v>56</v>
@@ -7220,7 +7242,7 @@
       </c>
       <c r="V94" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[91].INST_decoupling_cap_filler 11051.9 0.0 R0</v>
+        <v>placeInstance FILLER[92].INST_decoupling_cap_filler 11051.9 0.0 R0</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -7267,17 +7289,17 @@
       <c r="M95" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="8">
+        <v>94</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1</v>
+      </c>
+      <c r="P95" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q95" s="8">
         <v>93</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1</v>
-      </c>
-      <c r="P95" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q95">
-        <v>92</v>
       </c>
       <c r="R95" t="s">
         <v>56</v>
@@ -7294,7 +7316,7 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[92].INST_decoupling_cap_filler 11171.9 0.0 R0</v>
+        <v>placeInstance FILLER[93].INST_decoupling_cap_filler 11171.9 0.0 R0</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -7341,17 +7363,17 @@
       <c r="M96" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="8">
+        <v>95</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1</v>
+      </c>
+      <c r="P96" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q96" s="8">
         <v>94</v>
-      </c>
-      <c r="O96" t="s">
-        <v>1</v>
-      </c>
-      <c r="P96" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q96">
-        <v>93</v>
       </c>
       <c r="R96" t="s">
         <v>56</v>
@@ -7368,7 +7390,7 @@
       </c>
       <c r="V96" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[93].INST_decoupling_cap_filler 11291.9 0.0 R0</v>
+        <v>placeInstance FILLER[94].INST_decoupling_cap_filler 11291.9 0.0 R0</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -7415,17 +7437,17 @@
       <c r="M97" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="8">
+        <v>96</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1</v>
+      </c>
+      <c r="P97" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q97" s="8">
         <v>95</v>
-      </c>
-      <c r="O97" t="s">
-        <v>1</v>
-      </c>
-      <c r="P97" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q97">
-        <v>94</v>
       </c>
       <c r="R97" t="s">
         <v>56</v>
@@ -7442,7 +7464,7 @@
       </c>
       <c r="V97" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[94].INST_decoupling_cap_filler 11411.9 0.0 R0</v>
+        <v>placeInstance FILLER[95].INST_decoupling_cap_filler 11411.9 0.0 R0</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -7489,17 +7511,17 @@
       <c r="M98" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="8">
+        <v>97</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1</v>
+      </c>
+      <c r="P98" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q98" s="8">
         <v>96</v>
-      </c>
-      <c r="O98" t="s">
-        <v>1</v>
-      </c>
-      <c r="P98" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q98">
-        <v>95</v>
       </c>
       <c r="R98" t="s">
         <v>56</v>
@@ -7516,7 +7538,7 @@
       </c>
       <c r="V98" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[95].INST_decoupling_cap_filler 11531.9 0.0 R0</v>
+        <v>placeInstance FILLER[96].INST_decoupling_cap_filler 11531.9 0.0 R0</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -7563,17 +7585,17 @@
       <c r="M99" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="8">
+        <v>98</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1</v>
+      </c>
+      <c r="P99" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q99" s="8">
         <v>97</v>
-      </c>
-      <c r="O99" t="s">
-        <v>1</v>
-      </c>
-      <c r="P99" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q99">
-        <v>96</v>
       </c>
       <c r="R99" t="s">
         <v>56</v>
@@ -7590,7 +7612,7 @@
       </c>
       <c r="V99" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[96].INST_decoupling_cap_filler 11651.9 0.0 R0</v>
+        <v>placeInstance FILLER[97].INST_decoupling_cap_filler 11651.9 0.0 R0</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -7637,17 +7659,17 @@
       <c r="M100" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="8">
+        <v>99</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1</v>
+      </c>
+      <c r="P100" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q100" s="8">
         <v>98</v>
-      </c>
-      <c r="O100" t="s">
-        <v>1</v>
-      </c>
-      <c r="P100" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q100">
-        <v>97</v>
       </c>
       <c r="R100" t="s">
         <v>56</v>
@@ -7664,7 +7686,7 @@
       </c>
       <c r="V100" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[97].INST_decoupling_cap_filler 11771.9 0.0 R0</v>
+        <v>placeInstance FILLER[98].INST_decoupling_cap_filler 11771.9 0.0 R0</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -7703,17 +7725,17 @@
       <c r="M101" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="8">
+        <v>100</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1</v>
+      </c>
+      <c r="P101" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q101" s="8">
         <v>99</v>
-      </c>
-      <c r="O101" t="s">
-        <v>1</v>
-      </c>
-      <c r="P101" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q101">
-        <v>98</v>
       </c>
       <c r="R101" t="s">
         <v>56</v>
@@ -7730,7 +7752,7 @@
       </c>
       <c r="V101" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[98].INST_decoupling_cap_filler 11891.9 0.0 R0</v>
+        <v>placeInstance FILLER[99].INST_decoupling_cap_filler 11891.9 0.0 R0</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -7775,17 +7797,17 @@
       <c r="M102" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="8">
+        <v>101</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1</v>
+      </c>
+      <c r="P102" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q102" s="8">
         <v>100</v>
-      </c>
-      <c r="O102" t="s">
-        <v>1</v>
-      </c>
-      <c r="P102" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q102">
-        <v>99</v>
       </c>
       <c r="R102" t="s">
         <v>56</v>
@@ -7802,7 +7824,7 @@
       </c>
       <c r="V102" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[99].INST_decoupling_cap_filler 12011.9 0.0 R0</v>
+        <v>placeInstance FILLER[100].INST_decoupling_cap_filler 12011.9 0.0 R0</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -7841,17 +7863,17 @@
       <c r="M103" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="8">
+        <v>102</v>
+      </c>
+      <c r="O103" t="s">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q103" s="8">
         <v>101</v>
-      </c>
-      <c r="O103" t="s">
-        <v>1</v>
-      </c>
-      <c r="P103" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q103">
-        <v>100</v>
       </c>
       <c r="R103" t="s">
         <v>56</v>
@@ -7868,7 +7890,7 @@
       </c>
       <c r="V103" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[100].INST_decoupling_cap_filler 12131.9 0.0 R0</v>
+        <v>placeInstance FILLER[101].INST_decoupling_cap_filler 12131.9 0.0 R0</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -7913,17 +7935,17 @@
       <c r="M104" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="8">
+        <v>103</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P104" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q104" s="8">
         <v>102</v>
-      </c>
-      <c r="O104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P104" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q104">
-        <v>101</v>
       </c>
       <c r="R104" t="s">
         <v>56</v>
@@ -7940,7 +7962,7 @@
       </c>
       <c r="V104" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[101].INST_decoupling_cap_filler 12251.9 0.0 R0</v>
+        <v>placeInstance FILLER[102].INST_decoupling_cap_filler 12251.9 0.0 R0</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -7979,17 +8001,17 @@
       <c r="M105" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="8">
+        <v>104</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1</v>
+      </c>
+      <c r="P105" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q105" s="8">
         <v>103</v>
-      </c>
-      <c r="O105" t="s">
-        <v>1</v>
-      </c>
-      <c r="P105" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q105">
-        <v>102</v>
       </c>
       <c r="R105" t="s">
         <v>56</v>
@@ -8006,7 +8028,7 @@
       </c>
       <c r="V105" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[102].INST_decoupling_cap_filler 12371.9 0.0 R0</v>
+        <v>placeInstance FILLER[103].INST_decoupling_cap_filler 12371.9 0.0 R0</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -8051,17 +8073,17 @@
       <c r="M106" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="8">
+        <v>105</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P106" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q106" s="8">
         <v>104</v>
-      </c>
-      <c r="O106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P106" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q106">
-        <v>103</v>
       </c>
       <c r="R106" t="s">
         <v>56</v>
@@ -8078,7 +8100,7 @@
       </c>
       <c r="V106" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[103].INST_decoupling_cap_filler 12491.9 0.0 R0</v>
+        <v>placeInstance FILLER[104].INST_decoupling_cap_filler 12491.9 0.0 R0</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -8117,17 +8139,17 @@
       <c r="M107" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="8">
+        <v>106</v>
+      </c>
+      <c r="O107" t="s">
+        <v>1</v>
+      </c>
+      <c r="P107" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q107" s="8">
         <v>105</v>
-      </c>
-      <c r="O107" t="s">
-        <v>1</v>
-      </c>
-      <c r="P107" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q107">
-        <v>104</v>
       </c>
       <c r="R107" t="s">
         <v>56</v>
@@ -8144,7 +8166,7 @@
       </c>
       <c r="V107" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[104].INST_decoupling_cap_filler 12611.9 0.0 R0</v>
+        <v>placeInstance FILLER[105].INST_decoupling_cap_filler 12611.9 0.0 R0</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
@@ -8189,17 +8211,17 @@
       <c r="M108" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="8">
+        <v>107</v>
+      </c>
+      <c r="O108" t="s">
+        <v>1</v>
+      </c>
+      <c r="P108" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q108" s="8">
         <v>106</v>
-      </c>
-      <c r="O108" t="s">
-        <v>1</v>
-      </c>
-      <c r="P108" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q108">
-        <v>105</v>
       </c>
       <c r="R108" t="s">
         <v>56</v>
@@ -8216,7 +8238,7 @@
       </c>
       <c r="V108" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[105].INST_decoupling_cap_filler 12731.9 0.0 R0</v>
+        <v>placeInstance FILLER[106].INST_decoupling_cap_filler 12731.9 0.0 R0</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -8255,17 +8277,17 @@
       <c r="M109" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="8">
+        <v>108</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1</v>
+      </c>
+      <c r="P109" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q109" s="8">
         <v>107</v>
-      </c>
-      <c r="O109" t="s">
-        <v>1</v>
-      </c>
-      <c r="P109" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q109">
-        <v>106</v>
       </c>
       <c r="R109" t="s">
         <v>56</v>
@@ -8282,7 +8304,7 @@
       </c>
       <c r="V109" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[106].INST_decoupling_cap_filler 12851.9 0.0 R0</v>
+        <v>placeInstance FILLER[107].INST_decoupling_cap_filler 12851.9 0.0 R0</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -8327,17 +8349,17 @@
       <c r="M110" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="8">
+        <v>109</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1</v>
+      </c>
+      <c r="P110" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q110" s="8">
         <v>108</v>
-      </c>
-      <c r="O110" t="s">
-        <v>1</v>
-      </c>
-      <c r="P110" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q110">
-        <v>107</v>
       </c>
       <c r="R110" t="s">
         <v>56</v>
@@ -8354,7 +8376,7 @@
       </c>
       <c r="V110" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[107].INST_decoupling_cap_filler 12971.9 0.0 R0</v>
+        <v>placeInstance FILLER[108].INST_decoupling_cap_filler 12971.9 0.0 R0</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -8393,17 +8415,17 @@
       <c r="M111" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="8">
+        <v>110</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q111" s="8">
         <v>109</v>
-      </c>
-      <c r="O111" t="s">
-        <v>1</v>
-      </c>
-      <c r="P111" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q111">
-        <v>108</v>
       </c>
       <c r="R111" t="s">
         <v>56</v>
@@ -8420,7 +8442,7 @@
       </c>
       <c r="V111" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[108].INST_decoupling_cap_filler 13091.9 0.0 R0</v>
+        <v>placeInstance FILLER[109].INST_decoupling_cap_filler 13091.9 0.0 R0</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -8465,17 +8487,17 @@
       <c r="M112" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="8">
+        <v>111</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1</v>
+      </c>
+      <c r="P112" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q112" s="8">
         <v>110</v>
-      </c>
-      <c r="O112" t="s">
-        <v>1</v>
-      </c>
-      <c r="P112" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q112">
-        <v>109</v>
       </c>
       <c r="R112" t="s">
         <v>56</v>
@@ -8492,7 +8514,7 @@
       </c>
       <c r="V112" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[109].INST_decoupling_cap_filler 13211.9 0.0 R0</v>
+        <v>placeInstance FILLER[110].INST_decoupling_cap_filler 13211.9 0.0 R0</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -8531,17 +8553,17 @@
       <c r="M113" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="8">
+        <v>112</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1</v>
+      </c>
+      <c r="P113" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q113" s="8">
         <v>111</v>
-      </c>
-      <c r="O113" t="s">
-        <v>1</v>
-      </c>
-      <c r="P113" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q113">
-        <v>110</v>
       </c>
       <c r="R113" t="s">
         <v>56</v>
@@ -8558,7 +8580,7 @@
       </c>
       <c r="V113" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[110].INST_decoupling_cap_filler 13331.9 0.0 R0</v>
+        <v>placeInstance FILLER[111].INST_decoupling_cap_filler 13331.9 0.0 R0</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -8603,17 +8625,17 @@
       <c r="M114" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="8">
+        <v>113</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1</v>
+      </c>
+      <c r="P114" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q114" s="8">
         <v>112</v>
-      </c>
-      <c r="O114" t="s">
-        <v>1</v>
-      </c>
-      <c r="P114" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q114">
-        <v>111</v>
       </c>
       <c r="R114" t="s">
         <v>56</v>
@@ -8630,7 +8652,7 @@
       </c>
       <c r="V114" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[111].INST_decoupling_cap_filler 13451.9 0.0 R0</v>
+        <v>placeInstance FILLER[112].INST_decoupling_cap_filler 13451.9 0.0 R0</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
@@ -8669,17 +8691,17 @@
       <c r="M115" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="8">
+        <v>114</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1</v>
+      </c>
+      <c r="P115" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q115" s="8">
         <v>113</v>
-      </c>
-      <c r="O115" t="s">
-        <v>1</v>
-      </c>
-      <c r="P115" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q115">
-        <v>112</v>
       </c>
       <c r="R115" t="s">
         <v>56</v>
@@ -8696,7 +8718,7 @@
       </c>
       <c r="V115" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[112].INST_decoupling_cap_filler 13571.9 0.0 R0</v>
+        <v>placeInstance FILLER[113].INST_decoupling_cap_filler 13571.9 0.0 R0</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -8741,17 +8763,17 @@
       <c r="M116" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="8">
+        <v>115</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q116" s="8">
         <v>114</v>
-      </c>
-      <c r="O116" t="s">
-        <v>1</v>
-      </c>
-      <c r="P116" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q116">
-        <v>113</v>
       </c>
       <c r="R116" t="s">
         <v>56</v>
@@ -8768,7 +8790,7 @@
       </c>
       <c r="V116" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[113].INST_decoupling_cap_filler 13691.9 0.0 R0</v>
+        <v>placeInstance FILLER[114].INST_decoupling_cap_filler 13691.9 0.0 R0</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
@@ -8813,17 +8835,17 @@
       <c r="M117" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="8">
+        <v>116</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1</v>
+      </c>
+      <c r="P117" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q117" s="8">
         <v>115</v>
-      </c>
-      <c r="O117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P117" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q117">
-        <v>114</v>
       </c>
       <c r="R117" t="s">
         <v>56</v>
@@ -8840,7 +8862,7 @@
       </c>
       <c r="V117" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[114].INST_decoupling_cap_filler 13811.9 0.0 R0</v>
+        <v>placeInstance FILLER[115].INST_decoupling_cap_filler 13811.9 0.0 R0</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
@@ -8887,17 +8909,17 @@
       <c r="M118" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="8">
+        <v>117</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1</v>
+      </c>
+      <c r="P118" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q118" s="8">
         <v>116</v>
-      </c>
-      <c r="O118" t="s">
-        <v>1</v>
-      </c>
-      <c r="P118" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q118">
-        <v>115</v>
       </c>
       <c r="R118" t="s">
         <v>56</v>
@@ -8914,7 +8936,7 @@
       </c>
       <c r="V118" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[115].INST_decoupling_cap_filler 13931.9 0.0 R0</v>
+        <v>placeInstance FILLER[116].INST_decoupling_cap_filler 13931.9 0.0 R0</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -8961,17 +8983,17 @@
       <c r="M119" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="8">
+        <v>118</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1</v>
+      </c>
+      <c r="P119" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q119" s="8">
         <v>117</v>
-      </c>
-      <c r="O119" t="s">
-        <v>1</v>
-      </c>
-      <c r="P119" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q119">
-        <v>116</v>
       </c>
       <c r="R119" t="s">
         <v>56</v>
@@ -8988,7 +9010,7 @@
       </c>
       <c r="V119" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[116].INST_decoupling_cap_filler 14051.9 0.0 R0</v>
+        <v>placeInstance FILLER[117].INST_decoupling_cap_filler 14051.9 0.0 R0</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
@@ -9035,17 +9057,17 @@
       <c r="M120" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="8">
+        <v>119</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1</v>
+      </c>
+      <c r="P120" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q120" s="8">
         <v>118</v>
-      </c>
-      <c r="O120" t="s">
-        <v>1</v>
-      </c>
-      <c r="P120" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q120">
-        <v>117</v>
       </c>
       <c r="R120" t="s">
         <v>56</v>
@@ -9062,7 +9084,7 @@
       </c>
       <c r="V120" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[117].INST_decoupling_cap_filler 14171.9 0.0 R0</v>
+        <v>placeInstance FILLER[118].INST_decoupling_cap_filler 14171.9 0.0 R0</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
@@ -9109,17 +9131,17 @@
       <c r="M121" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="8">
+        <v>120</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1</v>
+      </c>
+      <c r="P121" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q121" s="8">
         <v>119</v>
-      </c>
-      <c r="O121" t="s">
-        <v>1</v>
-      </c>
-      <c r="P121" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q121">
-        <v>118</v>
       </c>
       <c r="R121" t="s">
         <v>56</v>
@@ -9136,7 +9158,7 @@
       </c>
       <c r="V121" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[118].INST_decoupling_cap_filler 14291.9 0.0 R0</v>
+        <v>placeInstance FILLER[119].INST_decoupling_cap_filler 14291.9 0.0 R0</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
@@ -9183,17 +9205,17 @@
       <c r="M122" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="8">
+        <v>121</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1</v>
+      </c>
+      <c r="P122" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q122" s="8">
         <v>120</v>
-      </c>
-      <c r="O122" t="s">
-        <v>1</v>
-      </c>
-      <c r="P122" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q122">
-        <v>119</v>
       </c>
       <c r="R122" t="s">
         <v>56</v>
@@ -9210,7 +9232,7 @@
       </c>
       <c r="V122" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[119].INST_decoupling_cap_filler 14411.9 0.0 R0</v>
+        <v>placeInstance FILLER[120].INST_decoupling_cap_filler 14411.9 0.0 R0</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
@@ -9257,17 +9279,17 @@
       <c r="M123" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="8">
+        <v>122</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1</v>
+      </c>
+      <c r="P123" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q123" s="8">
         <v>121</v>
-      </c>
-      <c r="O123" t="s">
-        <v>1</v>
-      </c>
-      <c r="P123" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q123">
-        <v>120</v>
       </c>
       <c r="R123" t="s">
         <v>56</v>
@@ -9284,7 +9306,7 @@
       </c>
       <c r="V123" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[120].INST_decoupling_cap_filler 14531.9 0.0 R0</v>
+        <v>placeInstance FILLER[121].INST_decoupling_cap_filler 14531.9 0.0 R0</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
@@ -9331,17 +9353,17 @@
       <c r="M124" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="8">
+        <v>123</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1</v>
+      </c>
+      <c r="P124" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q124" s="8">
         <v>122</v>
-      </c>
-      <c r="O124" t="s">
-        <v>1</v>
-      </c>
-      <c r="P124" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q124">
-        <v>121</v>
       </c>
       <c r="R124" t="s">
         <v>56</v>
@@ -9358,7 +9380,7 @@
       </c>
       <c r="V124" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[121].INST_decoupling_cap_filler 14651.9 0.0 R0</v>
+        <v>placeInstance FILLER[122].INST_decoupling_cap_filler 14651.9 0.0 R0</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
@@ -9405,17 +9427,17 @@
       <c r="M125" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="8">
+        <v>124</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P125" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q125" s="8">
         <v>123</v>
-      </c>
-      <c r="O125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P125" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q125">
-        <v>122</v>
       </c>
       <c r="R125" t="s">
         <v>56</v>
@@ -9432,7 +9454,7 @@
       </c>
       <c r="V125" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[122].INST_decoupling_cap_filler 14771.9 0.0 R0</v>
+        <v>placeInstance FILLER[123].INST_decoupling_cap_filler 14771.9 0.0 R0</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -9479,17 +9501,17 @@
       <c r="M126" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="8">
+        <v>125</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1</v>
+      </c>
+      <c r="P126" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q126" s="8">
         <v>124</v>
-      </c>
-      <c r="O126" t="s">
-        <v>1</v>
-      </c>
-      <c r="P126" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q126">
-        <v>123</v>
       </c>
       <c r="R126" t="s">
         <v>56</v>
@@ -9506,7 +9528,7 @@
       </c>
       <c r="V126" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[123].INST_decoupling_cap_filler 14891.9 0.0 R0</v>
+        <v>placeInstance FILLER[124].INST_decoupling_cap_filler 14891.9 0.0 R0</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -9553,17 +9575,17 @@
       <c r="M127" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="8">
+        <v>126</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1</v>
+      </c>
+      <c r="P127" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q127" s="8">
         <v>125</v>
-      </c>
-      <c r="O127" t="s">
-        <v>1</v>
-      </c>
-      <c r="P127" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q127">
-        <v>124</v>
       </c>
       <c r="R127" t="s">
         <v>56</v>
@@ -9580,7 +9602,7 @@
       </c>
       <c r="V127" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[124].INST_decoupling_cap_filler 15011.9 0.0 R0</v>
+        <v>placeInstance FILLER[125].INST_decoupling_cap_filler 15011.9 0.0 R0</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -9627,17 +9649,17 @@
       <c r="M128" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="8">
+        <v>127</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P128" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q128" s="8">
         <v>126</v>
-      </c>
-      <c r="O128" t="s">
-        <v>1</v>
-      </c>
-      <c r="P128" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q128">
-        <v>125</v>
       </c>
       <c r="R128" t="s">
         <v>56</v>
@@ -9654,7 +9676,7 @@
       </c>
       <c r="V128" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[125].INST_decoupling_cap_filler 15131.9 0.0 R0</v>
+        <v>placeInstance FILLER[126].INST_decoupling_cap_filler 15131.9 0.0 R0</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -9701,17 +9723,17 @@
       <c r="M129" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="8">
+        <v>128</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1</v>
+      </c>
+      <c r="P129" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q129" s="8">
         <v>127</v>
-      </c>
-      <c r="O129" t="s">
-        <v>1</v>
-      </c>
-      <c r="P129" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q129">
-        <v>126</v>
       </c>
       <c r="R129" t="s">
         <v>56</v>
@@ -9728,7 +9750,7 @@
       </c>
       <c r="V129" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[126].INST_decoupling_cap_filler 15251.9 0.0 R0</v>
+        <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15251.9 0.0 R0</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -9775,17 +9797,17 @@
       <c r="M130" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="8">
+        <v>129</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1</v>
+      </c>
+      <c r="P130" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q130" s="8">
         <v>128</v>
-      </c>
-      <c r="O130" t="s">
-        <v>1</v>
-      </c>
-      <c r="P130" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q130">
-        <v>127</v>
       </c>
       <c r="R130" t="s">
         <v>56</v>
@@ -9801,8 +9823,8 @@
         <v>3</v>
       </c>
       <c r="V130" t="str">
-        <f t="shared" ref="V130:V153" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
-        <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15371.9 0.0 R0</v>
+        <f t="shared" ref="V130:V154" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
+        <v>placeInstance FILLER[128].INST_decoupling_cap_filler 15371.9 0.0 R0</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
@@ -9849,23 +9871,23 @@
       <c r="M131" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="8">
+        <v>130</v>
+      </c>
+      <c r="O131" t="s">
+        <v>1</v>
+      </c>
+      <c r="P131" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q131" s="8">
         <v>129</v>
       </c>
-      <c r="O131" t="s">
-        <v>1</v>
-      </c>
-      <c r="P131" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q131">
-        <v>128</v>
-      </c>
       <c r="R131" t="s">
         <v>56</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:S153" si="21">I130+100</f>
+        <f t="shared" ref="S131:S154" si="21">I130+100</f>
         <v>15491.9</v>
       </c>
       <c r="T131" s="2" t="s">
@@ -9876,7 +9898,7 @@
       </c>
       <c r="V131" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[128].INST_decoupling_cap_filler 15491.9 0.0 R0</v>
+        <v>placeInstance FILLER[129].INST_decoupling_cap_filler 15491.9 0.0 R0</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
@@ -9923,17 +9945,17 @@
       <c r="M132" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="8">
+        <v>131</v>
+      </c>
+      <c r="O132" t="s">
+        <v>1</v>
+      </c>
+      <c r="P132" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q132" s="8">
         <v>130</v>
-      </c>
-      <c r="O132" t="s">
-        <v>1</v>
-      </c>
-      <c r="P132" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q132">
-        <v>129</v>
       </c>
       <c r="R132" t="s">
         <v>56</v>
@@ -9950,7 +9972,7 @@
       </c>
       <c r="V132" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[129].INST_decoupling_cap_filler 15611.9 0.0 R0</v>
+        <v>placeInstance FILLER[130].INST_decoupling_cap_filler 15611.9 0.0 R0</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -9997,17 +10019,17 @@
       <c r="M133" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="8">
+        <v>132</v>
+      </c>
+      <c r="O133" t="s">
+        <v>1</v>
+      </c>
+      <c r="P133" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q133" s="8">
         <v>131</v>
-      </c>
-      <c r="O133" t="s">
-        <v>1</v>
-      </c>
-      <c r="P133" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q133">
-        <v>130</v>
       </c>
       <c r="R133" t="s">
         <v>56</v>
@@ -10024,7 +10046,7 @@
       </c>
       <c r="V133" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[130].INST_decoupling_cap_filler 15731.9 0.0 R0</v>
+        <v>placeInstance FILLER[131].INST_decoupling_cap_filler 15731.9 0.0 R0</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -10071,17 +10093,17 @@
       <c r="M134" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="8">
+        <v>133</v>
+      </c>
+      <c r="O134" t="s">
+        <v>1</v>
+      </c>
+      <c r="P134" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q134" s="8">
         <v>132</v>
-      </c>
-      <c r="O134" t="s">
-        <v>1</v>
-      </c>
-      <c r="P134" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q134">
-        <v>131</v>
       </c>
       <c r="R134" t="s">
         <v>56</v>
@@ -10098,7 +10120,7 @@
       </c>
       <c r="V134" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[131].INST_decoupling_cap_filler 15851.9 0.0 R0</v>
+        <v>placeInstance FILLER[132].INST_decoupling_cap_filler 15851.9 0.0 R0</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -10145,17 +10167,17 @@
       <c r="M135" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="8">
+        <v>134</v>
+      </c>
+      <c r="O135" t="s">
+        <v>1</v>
+      </c>
+      <c r="P135" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q135" s="8">
         <v>133</v>
-      </c>
-      <c r="O135" t="s">
-        <v>1</v>
-      </c>
-      <c r="P135" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q135">
-        <v>132</v>
       </c>
       <c r="R135" t="s">
         <v>56</v>
@@ -10172,7 +10194,7 @@
       </c>
       <c r="V135" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[132].INST_decoupling_cap_filler 15971.9 0.0 R0</v>
+        <v>placeInstance FILLER[133].INST_decoupling_cap_filler 15971.9 0.0 R0</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
@@ -10219,17 +10241,17 @@
       <c r="M136" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="8">
+        <v>135</v>
+      </c>
+      <c r="O136" t="s">
+        <v>1</v>
+      </c>
+      <c r="P136" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q136" s="8">
         <v>134</v>
-      </c>
-      <c r="O136" t="s">
-        <v>1</v>
-      </c>
-      <c r="P136" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q136">
-        <v>133</v>
       </c>
       <c r="R136" t="s">
         <v>56</v>
@@ -10246,7 +10268,7 @@
       </c>
       <c r="V136" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[133].INST_decoupling_cap_filler 16091.9 0.0 R0</v>
+        <v>placeInstance FILLER[134].INST_decoupling_cap_filler 16091.9 0.0 R0</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
@@ -10293,17 +10315,17 @@
       <c r="M137" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N137">
+      <c r="N137" s="8">
+        <v>136</v>
+      </c>
+      <c r="O137" t="s">
+        <v>1</v>
+      </c>
+      <c r="P137" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q137" s="8">
         <v>135</v>
-      </c>
-      <c r="O137" t="s">
-        <v>1</v>
-      </c>
-      <c r="P137" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q137">
-        <v>134</v>
       </c>
       <c r="R137" t="s">
         <v>56</v>
@@ -10320,7 +10342,7 @@
       </c>
       <c r="V137" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[134].INST_decoupling_cap_filler 16211.9 0.0 R0</v>
+        <v>placeInstance FILLER[135].INST_decoupling_cap_filler 16211.9 0.0 R0</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
@@ -10359,17 +10381,17 @@
       <c r="M138" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="8">
+        <v>137</v>
+      </c>
+      <c r="O138" t="s">
+        <v>1</v>
+      </c>
+      <c r="P138" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q138" s="8">
         <v>136</v>
-      </c>
-      <c r="O138" t="s">
-        <v>1</v>
-      </c>
-      <c r="P138" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q138">
-        <v>135</v>
       </c>
       <c r="R138" t="s">
         <v>56</v>
@@ -10386,7 +10408,7 @@
       </c>
       <c r="V138" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[135].INST_decoupling_cap_filler 16331.9 0.0 R0</v>
+        <v>placeInstance FILLER[136].INST_decoupling_cap_filler 16331.9 0.0 R0</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
@@ -10431,17 +10453,17 @@
       <c r="M139" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="8">
+        <v>138</v>
+      </c>
+      <c r="O139" t="s">
+        <v>1</v>
+      </c>
+      <c r="P139" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q139" s="8">
         <v>137</v>
-      </c>
-      <c r="O139" t="s">
-        <v>1</v>
-      </c>
-      <c r="P139" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q139">
-        <v>136</v>
       </c>
       <c r="R139" t="s">
         <v>56</v>
@@ -10458,7 +10480,7 @@
       </c>
       <c r="V139" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[136].INST_decoupling_cap_filler 16451.9 0.0 R0</v>
+        <v>placeInstance FILLER[137].INST_decoupling_cap_filler 16451.9 0.0 R0</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
@@ -10497,17 +10519,17 @@
       <c r="M140" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="8">
+        <v>139</v>
+      </c>
+      <c r="O140" t="s">
+        <v>1</v>
+      </c>
+      <c r="P140" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q140" s="8">
         <v>138</v>
-      </c>
-      <c r="O140" t="s">
-        <v>1</v>
-      </c>
-      <c r="P140" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q140">
-        <v>137</v>
       </c>
       <c r="R140" t="s">
         <v>56</v>
@@ -10524,7 +10546,7 @@
       </c>
       <c r="V140" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[137].INST_decoupling_cap_filler 16571.9 0.0 R0</v>
+        <v>placeInstance FILLER[138].INST_decoupling_cap_filler 16571.9 0.0 R0</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
@@ -10569,17 +10591,17 @@
       <c r="M141" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="8">
+        <v>140</v>
+      </c>
+      <c r="O141" t="s">
+        <v>1</v>
+      </c>
+      <c r="P141" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q141" s="8">
         <v>139</v>
-      </c>
-      <c r="O141" t="s">
-        <v>1</v>
-      </c>
-      <c r="P141" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q141">
-        <v>138</v>
       </c>
       <c r="R141" t="s">
         <v>56</v>
@@ -10596,7 +10618,7 @@
       </c>
       <c r="V141" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[138].INST_decoupling_cap_filler 16691.9 0.0 R0</v>
+        <v>placeInstance FILLER[139].INST_decoupling_cap_filler 16691.9 0.0 R0</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -10635,17 +10657,17 @@
       <c r="M142" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="8">
+        <v>141</v>
+      </c>
+      <c r="O142" t="s">
+        <v>1</v>
+      </c>
+      <c r="P142" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q142" s="8">
         <v>140</v>
-      </c>
-      <c r="O142" t="s">
-        <v>1</v>
-      </c>
-      <c r="P142" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q142">
-        <v>139</v>
       </c>
       <c r="R142" t="s">
         <v>56</v>
@@ -10662,7 +10684,7 @@
       </c>
       <c r="V142" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[139].INST_decoupling_cap_filler 16811.9 0.0 R0</v>
+        <v>placeInstance FILLER[140].INST_decoupling_cap_filler 16811.9 0.0 R0</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
@@ -10707,17 +10729,17 @@
       <c r="M143" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="8">
+        <v>142</v>
+      </c>
+      <c r="O143" t="s">
+        <v>1</v>
+      </c>
+      <c r="P143" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q143" s="8">
         <v>141</v>
-      </c>
-      <c r="O143" t="s">
-        <v>1</v>
-      </c>
-      <c r="P143" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q143">
-        <v>140</v>
       </c>
       <c r="R143" t="s">
         <v>56</v>
@@ -10734,7 +10756,7 @@
       </c>
       <c r="V143" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[140].INST_decoupling_cap_filler 16931.9 0.0 R0</v>
+        <v>placeInstance FILLER[141].INST_decoupling_cap_filler 16931.9 0.0 R0</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -10773,17 +10795,17 @@
       <c r="M144" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="8">
+        <v>143</v>
+      </c>
+      <c r="O144" t="s">
+        <v>1</v>
+      </c>
+      <c r="P144" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q144" s="8">
         <v>142</v>
-      </c>
-      <c r="O144" t="s">
-        <v>1</v>
-      </c>
-      <c r="P144" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q144">
-        <v>141</v>
       </c>
       <c r="R144" t="s">
         <v>56</v>
@@ -10800,7 +10822,7 @@
       </c>
       <c r="V144" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[141].INST_decoupling_cap_filler 17051.9 0.0 R0</v>
+        <v>placeInstance FILLER[142].INST_decoupling_cap_filler 17051.9 0.0 R0</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -10845,17 +10867,17 @@
       <c r="M145" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N145">
+      <c r="N145" s="8">
+        <v>144</v>
+      </c>
+      <c r="O145" t="s">
+        <v>1</v>
+      </c>
+      <c r="P145" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q145" s="8">
         <v>143</v>
-      </c>
-      <c r="O145" t="s">
-        <v>1</v>
-      </c>
-      <c r="P145" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q145">
-        <v>142</v>
       </c>
       <c r="R145" t="s">
         <v>56</v>
@@ -10872,7 +10894,7 @@
       </c>
       <c r="V145" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[142].INST_decoupling_cap_filler 17171.9 0.0 R0</v>
+        <v>placeInstance FILLER[143].INST_decoupling_cap_filler 17171.9 0.0 R0</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
@@ -10911,17 +10933,17 @@
       <c r="M146" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="8">
+        <v>145</v>
+      </c>
+      <c r="O146" t="s">
+        <v>1</v>
+      </c>
+      <c r="P146" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q146" s="8">
         <v>144</v>
-      </c>
-      <c r="O146" t="s">
-        <v>1</v>
-      </c>
-      <c r="P146" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q146">
-        <v>143</v>
       </c>
       <c r="R146" t="s">
         <v>56</v>
@@ -10938,7 +10960,7 @@
       </c>
       <c r="V146" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[143].INST_decoupling_cap_filler 17291.9 0.0 R0</v>
+        <v>placeInstance FILLER[144].INST_decoupling_cap_filler 17291.9 0.0 R0</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
@@ -10977,23 +10999,23 @@
         <v>3</v>
       </c>
       <c r="L147" t="str">
-        <f t="shared" ref="L147:L152" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
+        <f t="shared" ref="L147:L153" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
         <v>placeInstance DIGITAL_P[53].INST_PAD_DVDD 17431.9 0.0 R0</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N147">
+      <c r="N147" s="8">
+        <v>146</v>
+      </c>
+      <c r="O147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P147" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q147" s="8">
         <v>145</v>
-      </c>
-      <c r="O147" t="s">
-        <v>1</v>
-      </c>
-      <c r="P147" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q147">
-        <v>144</v>
       </c>
       <c r="R147" t="s">
         <v>56</v>
@@ -11010,7 +11032,7 @@
       </c>
       <c r="V147" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[144].INST_decoupling_cap_filler 17411.9 0.0 R0</v>
+        <v>placeInstance FILLER[145].INST_decoupling_cap_filler 17411.9 0.0 R0</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -11049,17 +11071,17 @@
       <c r="M148" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N148">
+      <c r="N148" s="8">
+        <v>147</v>
+      </c>
+      <c r="O148" t="s">
+        <v>1</v>
+      </c>
+      <c r="P148" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q148" s="8">
         <v>146</v>
-      </c>
-      <c r="O148" t="s">
-        <v>1</v>
-      </c>
-      <c r="P148" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q148">
-        <v>145</v>
       </c>
       <c r="R148" t="s">
         <v>56</v>
@@ -11076,7 +11098,7 @@
       </c>
       <c r="V148" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[145].INST_decoupling_cap_filler 17531.9 0.0 R0</v>
+        <v>placeInstance FILLER[146].INST_decoupling_cap_filler 17531.9 0.0 R0</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
@@ -11121,17 +11143,17 @@
       <c r="M149" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="8">
+        <v>148</v>
+      </c>
+      <c r="O149" t="s">
+        <v>1</v>
+      </c>
+      <c r="P149" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q149" s="8">
         <v>147</v>
-      </c>
-      <c r="O149" t="s">
-        <v>1</v>
-      </c>
-      <c r="P149" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q149">
-        <v>146</v>
       </c>
       <c r="R149" t="s">
         <v>56</v>
@@ -11148,7 +11170,7 @@
       </c>
       <c r="V149" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[146].INST_decoupling_cap_filler 17651.9 0.0 R0</v>
+        <v>placeInstance FILLER[147].INST_decoupling_cap_filler 17651.9 0.0 R0</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
@@ -11187,17 +11209,17 @@
       <c r="M150" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N150">
+      <c r="N150" s="8">
+        <v>149</v>
+      </c>
+      <c r="O150" t="s">
+        <v>1</v>
+      </c>
+      <c r="P150" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q150" s="8">
         <v>148</v>
-      </c>
-      <c r="O150" t="s">
-        <v>1</v>
-      </c>
-      <c r="P150" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q150">
-        <v>147</v>
       </c>
       <c r="R150" t="s">
         <v>56</v>
@@ -11214,7 +11236,7 @@
       </c>
       <c r="V150" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[147].INST_decoupling_cap_filler 17771.9 0.0 R0</v>
+        <v>placeInstance FILLER[148].INST_decoupling_cap_filler 17771.9 0.0 R0</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
@@ -11259,17 +11281,17 @@
       <c r="M151" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N151">
+      <c r="N151" s="8">
+        <v>150</v>
+      </c>
+      <c r="O151" t="s">
+        <v>1</v>
+      </c>
+      <c r="P151" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q151" s="8">
         <v>149</v>
-      </c>
-      <c r="O151" t="s">
-        <v>1</v>
-      </c>
-      <c r="P151" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q151">
-        <v>148</v>
       </c>
       <c r="R151" t="s">
         <v>56</v>
@@ -11286,7 +11308,7 @@
       </c>
       <c r="V151" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[148].INST_decoupling_cap_filler 17891.9 0.0 R0</v>
+        <v>placeInstance FILLER[149].INST_decoupling_cap_filler 17891.9 0.0 R0</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
@@ -11296,7 +11318,7 @@
       <c r="B152" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="10">
         <v>15</v>
       </c>
       <c r="D152" s="1">
@@ -11325,17 +11347,17 @@
       <c r="M152" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N152">
+      <c r="N152" s="8">
+        <v>151</v>
+      </c>
+      <c r="O152" t="s">
+        <v>1</v>
+      </c>
+      <c r="P152" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q152" s="8">
         <v>150</v>
-      </c>
-      <c r="O152" t="s">
-        <v>1</v>
-      </c>
-      <c r="P152" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q152">
-        <v>149</v>
       </c>
       <c r="R152" t="s">
         <v>56</v>
@@ -11352,33 +11374,55 @@
       </c>
       <c r="V152" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[149].INST_decoupling_cap_filler 18011.9 0.0 R0</v>
+        <v>placeInstance FILLER[150].INST_decoupling_cap_filler 18011.9 0.0 R0</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="8"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
+      <c r="C153" s="11">
+        <v>16</v>
+      </c>
+      <c r="D153" s="10">
+        <v>38</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>58</v>
+      </c>
+      <c r="H153" t="s">
+        <v>4</v>
+      </c>
       <c r="I153">
-        <f>I152+100</f>
-        <v>18131.900000000001</v>
-      </c>
-      <c r="J153" s="2"/>
+        <f>I152+120</f>
+        <v>18151.900000000001</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K153" t="s">
+        <v>3</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="22"/>
+        <v>placeInstance DIGITAL_G[].INST_PAD_DVSS 18151.9 0.0 R0</v>
+      </c>
       <c r="M153" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N153">
+      <c r="N153" s="8">
+        <v>152</v>
+      </c>
+      <c r="O153" t="s">
+        <v>1</v>
+      </c>
+      <c r="P153" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q153" s="8">
         <v>151</v>
-      </c>
-      <c r="O153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P153" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q153">
-        <v>150</v>
       </c>
       <c r="R153" t="s">
         <v>56</v>
@@ -11395,14 +11439,50 @@
       </c>
       <c r="V153" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[150].INST_decoupling_cap_filler 18131.9 0.0 R0</v>
+        <v>placeInstance FILLER[151].INST_decoupling_cap_filler 18131.9 0.0 R0</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
+      <c r="I154">
+        <f>I153-20+31.9</f>
+        <v>18163.800000000003</v>
+      </c>
       <c r="J154" s="2"/>
+      <c r="M154" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N154" s="8">
+        <v>153</v>
+      </c>
+      <c r="O154" t="s">
+        <v>1</v>
+      </c>
+      <c r="P154" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q154" s="8">
+        <v>152</v>
+      </c>
+      <c r="R154" t="s">
+        <v>56</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="21"/>
+        <v>18251.900000000001</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U154" t="s">
+        <v>3</v>
+      </c>
+      <c r="V154" t="str">
+        <f t="shared" si="19"/>
+        <v>placeInstance FILLER[152].INST_decoupling_cap_filler 18251.9 0.0 R0</v>
+      </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>

--- a/source/PADS/pad_positions_bottom.xlsx
+++ b/source/PADS/pad_positions_bottom.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V2:V3"/>
+    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
         <v>56</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S2:S66" si="3">I2+100</f>
+        <f t="shared" ref="S3:S66" si="3">I2+100</f>
         <v>131.9</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -11392,6 +11392,9 @@
       <c r="F153" t="s">
         <v>58</v>
       </c>
+      <c r="G153">
+        <v>54</v>
+      </c>
       <c r="H153" t="s">
         <v>4</v>
       </c>
@@ -11407,7 +11410,7 @@
       </c>
       <c r="L153" t="str">
         <f t="shared" si="22"/>
-        <v>placeInstance DIGITAL_G[].INST_PAD_DVSS 18151.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[54].INST_PAD_DVSS 18151.9 0.0 R0</v>
       </c>
       <c r="M153" s="7" t="s">
         <v>54</v>

--- a/source/PADS/pad_positions_bottom.xlsx
+++ b/source/PADS/pad_positions_bottom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="59">
   <si>
     <t xml:space="preserve">].INST_PAD_DVDD </t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,8 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.9</v>
+        <f>31.9+20</f>
+        <v>51.9</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -668,7 +669,7 @@
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L50" si="0">CONCATENATE(E2,F2,G2,H2,I2,J2,K2)</f>
-        <v>placeInstance DIGITAL_P[0].INST_PAD_DVDD 31.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[0].INST_PAD_DVDD 51.9 0.0 R0</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>54</v>
@@ -690,7 +691,7 @@
       </c>
       <c r="S2">
         <f>S3-120</f>
-        <v>11.900000000000006</v>
+        <v>31.900000000000006</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>2</v>
@@ -700,7 +701,7 @@
       </c>
       <c r="V2" t="str">
         <f t="shared" ref="V2:V34" si="1">CONCATENATE(O2,P2,Q2,R2,S2,T2,U2)</f>
-        <v>placeInstance FILLER[0].INST_decoupling_cap_filler 11.9 0.0 R0</v>
+        <v>placeInstance FILLER[0].INST_decoupling_cap_filler 31.9 0.0 R0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -730,7 +731,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="2">I2+120</f>
-        <v>151.9</v>
+        <v>171.9</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
@@ -740,7 +741,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[0].INST_PAD_DVSS 151.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[0].INST_PAD_DVSS 171.9 0.0 R0</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>54</v>
@@ -762,7 +763,7 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="3">I2+100</f>
-        <v>131.9</v>
+        <v>151.9</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>2</v>
@@ -772,7 +773,7 @@
       </c>
       <c r="V3" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[1].INST_decoupling_cap_filler 131.9 0.0 R0</v>
+        <v>placeInstance FILLER[1].INST_decoupling_cap_filler 151.9 0.0 R0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -804,7 +805,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>271.89999999999998</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>2</v>
@@ -814,7 +815,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[1].INST_PAD_DVDD 271.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[1].INST_PAD_DVDD 291.9 0.0 R0</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>54</v>
@@ -836,7 +837,7 @@
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>251.9</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>2</v>
@@ -846,7 +847,7 @@
       </c>
       <c r="V4" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[2].INST_decoupling_cap_filler 251.9 0.0 R0</v>
+        <v>placeInstance FILLER[2].INST_decoupling_cap_filler 271.9 0.0 R0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -878,7 +879,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>391.9</v>
+        <v>411.9</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>2</v>
@@ -888,7 +889,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[1].INST_PAD_DVSS 391.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[1].INST_PAD_DVSS 411.9 0.0 R0</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>54</v>
@@ -910,7 +911,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>371.9</v>
+        <v>391.9</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>2</v>
@@ -920,7 +921,7 @@
       </c>
       <c r="V5" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[3].INST_decoupling_cap_filler 371.9 0.0 R0</v>
+        <v>placeInstance FILLER[3].INST_decoupling_cap_filler 391.9 0.0 R0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -952,7 +953,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>511.9</v>
+        <v>531.9</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>2</v>
@@ -962,7 +963,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[2].INST_PAD_DVDD 511.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[2].INST_PAD_DVDD 531.9 0.0 R0</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>54</v>
@@ -984,7 +985,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>491.9</v>
+        <v>511.9</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>2</v>
@@ -994,7 +995,7 @@
       </c>
       <c r="V6" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[4].INST_decoupling_cap_filler 491.9 0.0 R0</v>
+        <v>placeInstance FILLER[4].INST_decoupling_cap_filler 511.9 0.0 R0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>631.9</v>
+        <v>651.9</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>2</v>
@@ -1036,7 +1037,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[2].INST_PAD_DVSS 631.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[2].INST_PAD_DVSS 651.9 0.0 R0</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>54</v>
@@ -1058,7 +1059,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>611.9</v>
+        <v>631.9</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>2</v>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="V7" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[5].INST_decoupling_cap_filler 611.9 0.0 R0</v>
+        <v>placeInstance FILLER[5].INST_decoupling_cap_filler 631.9 0.0 R0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1100,7 +1101,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>751.9</v>
+        <v>771.9</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>2</v>
@@ -1110,7 +1111,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[3].INST_PAD_DVDD 751.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[3].INST_PAD_DVDD 771.9 0.0 R0</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>54</v>
@@ -1132,7 +1133,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>731.9</v>
+        <v>751.9</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>2</v>
@@ -1142,7 +1143,7 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[6].INST_decoupling_cap_filler 731.9 0.0 R0</v>
+        <v>placeInstance FILLER[6].INST_decoupling_cap_filler 751.9 0.0 R0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1174,7 +1175,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>871.9</v>
+        <v>891.9</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>2</v>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[3].INST_PAD_DVSS 871.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[3].INST_PAD_DVSS 891.9 0.0 R0</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>54</v>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="3"/>
-        <v>851.9</v>
+        <v>871.9</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>2</v>
@@ -1216,7 +1217,7 @@
       </c>
       <c r="V9" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[7].INST_decoupling_cap_filler 851.9 0.0 R0</v>
+        <v>placeInstance FILLER[7].INST_decoupling_cap_filler 871.9 0.0 R0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1248,7 +1249,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>991.9</v>
+        <v>1011.9</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>2</v>
@@ -1258,7 +1259,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[4].INST_PAD_DVDD 991.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[4].INST_PAD_DVDD 1011.9 0.0 R0</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>54</v>
@@ -1280,7 +1281,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
-        <v>971.9</v>
+        <v>991.9</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>2</v>
@@ -1290,7 +1291,7 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[8].INST_decoupling_cap_filler 971.9 0.0 R0</v>
+        <v>placeInstance FILLER[8].INST_decoupling_cap_filler 991.9 0.0 R0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1322,7 +1323,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1111.9000000000001</v>
+        <v>1131.9000000000001</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>2</v>
@@ -1332,7 +1333,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[4].INST_PAD_DVSS 1111.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[4].INST_PAD_DVSS 1131.9 0.0 R0</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>54</v>
@@ -1354,7 +1355,7 @@
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
-        <v>1091.9000000000001</v>
+        <v>1111.9000000000001</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>2</v>
@@ -1364,7 +1365,7 @@
       </c>
       <c r="V11" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[9].INST_decoupling_cap_filler 1091.9 0.0 R0</v>
+        <v>placeInstance FILLER[9].INST_decoupling_cap_filler 1111.9 0.0 R0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1396,7 +1397,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1231.9000000000001</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>2</v>
@@ -1406,7 +1407,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[5].INST_PAD_DVDD 1231.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[5].INST_PAD_DVDD 1251.9 0.0 R0</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>54</v>
@@ -1428,7 +1429,7 @@
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
-        <v>1211.9000000000001</v>
+        <v>1231.9000000000001</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>2</v>
@@ -1438,7 +1439,7 @@
       </c>
       <c r="V12" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[10].INST_decoupling_cap_filler 1211.9 0.0 R0</v>
+        <v>placeInstance FILLER[10].INST_decoupling_cap_filler 1231.9 0.0 R0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1470,7 +1471,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>1351.9</v>
+        <v>1371.9</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>2</v>
@@ -1480,7 +1481,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[5].INST_PAD_DVSS 1351.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[5].INST_PAD_DVSS 1371.9 0.0 R0</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>54</v>
@@ -1502,7 +1503,7 @@
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>1331.9</v>
+        <v>1351.9</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>2</v>
@@ -1512,7 +1513,7 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[11].INST_decoupling_cap_filler 1331.9 0.0 R0</v>
+        <v>placeInstance FILLER[11].INST_decoupling_cap_filler 1351.9 0.0 R0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1544,7 +1545,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>1471.9</v>
+        <v>1491.9</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>2</v>
@@ -1554,7 +1555,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[6].INST_PAD_DVDD 1471.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[6].INST_PAD_DVDD 1491.9 0.0 R0</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>54</v>
@@ -1576,7 +1577,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="3"/>
-        <v>1451.9</v>
+        <v>1471.9</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>2</v>
@@ -1586,7 +1587,7 @@
       </c>
       <c r="V14" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[12].INST_decoupling_cap_filler 1451.9 0.0 R0</v>
+        <v>placeInstance FILLER[12].INST_decoupling_cap_filler 1471.9 0.0 R0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1618,7 +1619,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>1591.9</v>
+        <v>1611.9</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>2</v>
@@ -1628,7 +1629,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[6].INST_PAD_DVSS 1591.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[6].INST_PAD_DVSS 1611.9 0.0 R0</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>54</v>
@@ -1650,7 +1651,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="3"/>
-        <v>1571.9</v>
+        <v>1591.9</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>2</v>
@@ -1660,7 +1661,7 @@
       </c>
       <c r="V15" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[13].INST_decoupling_cap_filler 1571.9 0.0 R0</v>
+        <v>placeInstance FILLER[13].INST_decoupling_cap_filler 1591.9 0.0 R0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1692,7 +1693,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>1711.9</v>
+        <v>1731.9</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>2</v>
@@ -1702,7 +1703,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[7].INST_PAD_DVDD 1711.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[7].INST_PAD_DVDD 1731.9 0.0 R0</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>54</v>
@@ -1724,7 +1725,7 @@
       </c>
       <c r="S16">
         <f t="shared" si="3"/>
-        <v>1691.9</v>
+        <v>1711.9</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>2</v>
@@ -1734,7 +1735,7 @@
       </c>
       <c r="V16" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[14].INST_decoupling_cap_filler 1691.9 0.0 R0</v>
+        <v>placeInstance FILLER[14].INST_decoupling_cap_filler 1711.9 0.0 R0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1766,7 +1767,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>1831.9</v>
+        <v>1851.9</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>2</v>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[7].INST_PAD_DVSS 1831.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[7].INST_PAD_DVSS 1851.9 0.0 R0</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>54</v>
@@ -1798,7 +1799,7 @@
       </c>
       <c r="S17">
         <f t="shared" si="3"/>
-        <v>1811.9</v>
+        <v>1831.9</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>2</v>
@@ -1808,7 +1809,7 @@
       </c>
       <c r="V17" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[15].INST_decoupling_cap_filler 1811.9 0.0 R0</v>
+        <v>placeInstance FILLER[15].INST_decoupling_cap_filler 1831.9 0.0 R0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1840,7 +1841,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>1951.9</v>
+        <v>1971.9</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>2</v>
@@ -1850,7 +1851,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[8].INST_PAD_DVDD 1951.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[8].INST_PAD_DVDD 1971.9 0.0 R0</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>54</v>
@@ -1872,7 +1873,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>1931.9</v>
+        <v>1951.9</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>2</v>
@@ -1882,7 +1883,7 @@
       </c>
       <c r="V18" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[16].INST_decoupling_cap_filler 1931.9 0.0 R0</v>
+        <v>placeInstance FILLER[16].INST_decoupling_cap_filler 1951.9 0.0 R0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1914,7 +1915,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>2071.9</v>
+        <v>2091.9</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>2</v>
@@ -1924,7 +1925,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[8].INST_PAD_DVSS 2071.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[8].INST_PAD_DVSS 2091.9 0.0 R0</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>54</v>
@@ -1946,7 +1947,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
-        <v>2051.9</v>
+        <v>2071.9</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>2</v>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="V19" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[17].INST_decoupling_cap_filler 2051.9 0.0 R0</v>
+        <v>placeInstance FILLER[17].INST_decoupling_cap_filler 2071.9 0.0 R0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1988,7 +1989,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>2191.9</v>
+        <v>2211.9</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>2</v>
@@ -1998,7 +1999,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[9].INST_PAD_DVDD 2191.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[9].INST_PAD_DVDD 2211.9 0.0 R0</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>54</v>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="S20">
         <f t="shared" si="3"/>
-        <v>2171.9</v>
+        <v>2191.9</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>2</v>
@@ -2030,7 +2031,7 @@
       </c>
       <c r="V20" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[18].INST_decoupling_cap_filler 2171.9 0.0 R0</v>
+        <v>placeInstance FILLER[18].INST_decoupling_cap_filler 2191.9 0.0 R0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2062,7 +2063,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>2311.9</v>
+        <v>2331.9</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>2</v>
@@ -2072,7 +2073,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[9].INST_PAD_DVSS 2311.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[9].INST_PAD_DVSS 2331.9 0.0 R0</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>54</v>
@@ -2094,7 +2095,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="3"/>
-        <v>2291.9</v>
+        <v>2311.9</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>2</v>
@@ -2104,7 +2105,7 @@
       </c>
       <c r="V21" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[19].INST_decoupling_cap_filler 2291.9 0.0 R0</v>
+        <v>placeInstance FILLER[19].INST_decoupling_cap_filler 2311.9 0.0 R0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2136,7 +2137,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>2431.9</v>
+        <v>2451.9</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>2</v>
@@ -2146,7 +2147,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[10].INST_PAD_DVDD 2431.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[10].INST_PAD_DVDD 2451.9 0.0 R0</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>54</v>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="S22">
         <f t="shared" si="3"/>
-        <v>2411.9</v>
+        <v>2431.9</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>2</v>
@@ -2178,7 +2179,7 @@
       </c>
       <c r="V22" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[20].INST_decoupling_cap_filler 2411.9 0.0 R0</v>
+        <v>placeInstance FILLER[20].INST_decoupling_cap_filler 2431.9 0.0 R0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2210,7 +2211,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>2551.9</v>
+        <v>2571.9</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>2</v>
@@ -2220,7 +2221,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[10].INST_PAD_DVSS 2551.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[10].INST_PAD_DVSS 2571.9 0.0 R0</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>54</v>
@@ -2242,7 +2243,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="3"/>
-        <v>2531.9</v>
+        <v>2551.9</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>2</v>
@@ -2252,7 +2253,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[21].INST_decoupling_cap_filler 2531.9 0.0 R0</v>
+        <v>placeInstance FILLER[21].INST_decoupling_cap_filler 2551.9 0.0 R0</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2284,7 +2285,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>2671.9</v>
+        <v>2691.9</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>2</v>
@@ -2294,7 +2295,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[11].INST_PAD_DVDD 2671.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[11].INST_PAD_DVDD 2691.9 0.0 R0</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>54</v>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="3"/>
-        <v>2651.9</v>
+        <v>2671.9</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>2</v>
@@ -2326,7 +2327,7 @@
       </c>
       <c r="V24" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[22].INST_decoupling_cap_filler 2651.9 0.0 R0</v>
+        <v>placeInstance FILLER[22].INST_decoupling_cap_filler 2671.9 0.0 R0</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2350,7 +2351,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>2791.9</v>
+        <v>2811.9</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>2</v>
@@ -2360,7 +2361,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_READ_PMOS_NOSF 2791.9 0.0 R0</v>
+        <v>placeInstance PAD_READ_PMOS_NOSF 2811.9 0.0 R0</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>54</v>
@@ -2382,7 +2383,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>2771.9</v>
+        <v>2791.9</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>2</v>
@@ -2392,7 +2393,7 @@
       </c>
       <c r="V25" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[23].INST_decoupling_cap_filler 2771.9 0.0 R0</v>
+        <v>placeInstance FILLER[23].INST_decoupling_cap_filler 2791.9 0.0 R0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2422,7 +2423,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>2911.9</v>
+        <v>2931.9</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>2</v>
@@ -2432,7 +2433,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[11].INST_PAD_DVSS 2911.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[11].INST_PAD_DVSS 2931.9 0.0 R0</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>54</v>
@@ -2454,7 +2455,7 @@
       </c>
       <c r="S26">
         <f t="shared" si="3"/>
-        <v>2891.9</v>
+        <v>2911.9</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>2</v>
@@ -2464,7 +2465,7 @@
       </c>
       <c r="V26" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[24].INST_decoupling_cap_filler 2891.9 0.0 R0</v>
+        <v>placeInstance FILLER[24].INST_decoupling_cap_filler 2911.9 0.0 R0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2488,7 +2489,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>3031.9</v>
+        <v>3051.9</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>2</v>
@@ -2498,7 +2499,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_FREEZE_PMOS_NOSF 3031.9 0.0 R0</v>
+        <v>placeInstance PAD_FREEZE_PMOS_NOSF 3051.9 0.0 R0</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>54</v>
@@ -2520,7 +2521,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="3"/>
-        <v>3011.9</v>
+        <v>3031.9</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>2</v>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="V27" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[25].INST_decoupling_cap_filler 3011.9 0.0 R0</v>
+        <v>placeInstance FILLER[25].INST_decoupling_cap_filler 3031.9 0.0 R0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2560,7 +2561,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>3151.9</v>
+        <v>3171.9</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>2</v>
@@ -2570,7 +2571,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[12].INST_PAD_DVDD 3151.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[12].INST_PAD_DVDD 3171.9 0.0 R0</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>54</v>
@@ -2592,7 +2593,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="3"/>
-        <v>3131.9</v>
+        <v>3151.9</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>2</v>
@@ -2602,7 +2603,7 @@
       </c>
       <c r="V28" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[26].INST_decoupling_cap_filler 3131.9 0.0 R0</v>
+        <v>placeInstance FILLER[26].INST_decoupling_cap_filler 3151.9 0.0 R0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2626,7 +2627,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>3271.9</v>
+        <v>3291.9</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>2</v>
@@ -2636,7 +2637,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_TOKEN_PMOS_NOSF 3271.9 0.0 R0</v>
+        <v>placeInstance PAD_TOKEN_PMOS_NOSF 3291.9 0.0 R0</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>54</v>
@@ -2658,7 +2659,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="3"/>
-        <v>3251.9</v>
+        <v>3271.9</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>2</v>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[27].INST_decoupling_cap_filler 3251.9 0.0 R0</v>
+        <v>placeInstance FILLER[27].INST_decoupling_cap_filler 3271.9 0.0 R0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2698,7 +2699,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>3391.9</v>
+        <v>3411.9</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>2</v>
@@ -2708,7 +2709,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[12].INST_PAD_DVSS 3391.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[12].INST_PAD_DVSS 3411.9 0.0 R0</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>54</v>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="S30">
         <f t="shared" si="3"/>
-        <v>3371.9</v>
+        <v>3391.9</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>2</v>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="V30" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[28].INST_decoupling_cap_filler 3371.9 0.0 R0</v>
+        <v>placeInstance FILLER[28].INST_decoupling_cap_filler 3391.9 0.0 R0</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2764,7 +2765,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>3511.9</v>
+        <v>3531.9</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>2</v>
@@ -2774,7 +2775,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_OUT_PMOS_NOSF 3511.9 0.0 R0</v>
+        <v>placeInstance PAD_OUT_PMOS_NOSF 3531.9 0.0 R0</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>54</v>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="S31">
         <f t="shared" si="3"/>
-        <v>3491.9</v>
+        <v>3511.9</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>2</v>
@@ -2806,7 +2807,7 @@
       </c>
       <c r="V31" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[29].INST_decoupling_cap_filler 3491.9 0.0 R0</v>
+        <v>placeInstance FILLER[29].INST_decoupling_cap_filler 3511.9 0.0 R0</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2836,7 +2837,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>3631.9</v>
+        <v>3651.9</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>2</v>
@@ -2846,7 +2847,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[13].INST_PAD_DVDD 3631.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[13].INST_PAD_DVDD 3651.9 0.0 R0</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>54</v>
@@ -2868,7 +2869,7 @@
       </c>
       <c r="S32">
         <f t="shared" si="3"/>
-        <v>3611.9</v>
+        <v>3631.9</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>2</v>
@@ -2878,7 +2879,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[30].INST_decoupling_cap_filler 3611.9 0.0 R0</v>
+        <v>placeInstance FILLER[30].INST_decoupling_cap_filler 3631.9 0.0 R0</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -2902,7 +2903,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>3751.9</v>
+        <v>3771.9</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>2</v>
@@ -2912,7 +2913,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_nTOKEN_PMOS_NOSF 3751.9 0.0 R0</v>
+        <v>placeInstance PAD_nTOKEN_PMOS_NOSF 3771.9 0.0 R0</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>54</v>
@@ -2934,7 +2935,7 @@
       </c>
       <c r="S33">
         <f t="shared" si="3"/>
-        <v>3731.9</v>
+        <v>3751.9</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>2</v>
@@ -2944,7 +2945,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[31].INST_decoupling_cap_filler 3731.9 0.0 R0</v>
+        <v>placeInstance FILLER[31].INST_decoupling_cap_filler 3751.9 0.0 R0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2974,7 +2975,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>3871.9</v>
+        <v>3891.9</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>2</v>
@@ -2984,7 +2985,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[13].INST_PAD_DVSS 3871.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[13].INST_PAD_DVSS 3891.9 0.0 R0</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>54</v>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="3"/>
-        <v>3851.9</v>
+        <v>3871.9</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>2</v>
@@ -3016,7 +3017,7 @@
       </c>
       <c r="V34" t="str">
         <f t="shared" si="1"/>
-        <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3851.9 0.0 R0</v>
+        <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3871.9 0.0 R0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -3040,7 +3041,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>3991.9</v>
+        <v>4011.9</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>2</v>
@@ -3050,7 +3051,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_nOUT_PMOS_NOSF 3991.9 0.0 R0</v>
+        <v>placeInstance PAD_nOUT_PMOS_NOSF 4011.9 0.0 R0</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>54</v>
@@ -3072,7 +3073,7 @@
       </c>
       <c r="S35">
         <f t="shared" si="3"/>
-        <v>3971.9</v>
+        <v>3991.9</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>2</v>
@@ -3082,7 +3083,7 @@
       </c>
       <c r="V35" t="str">
         <f t="shared" ref="V35:V65" si="6">CONCATENATE(O35,P35,Q35,R35,S35,T35,U35)</f>
-        <v>placeInstance FILLER[33].INST_decoupling_cap_filler 3971.9 0.0 R0</v>
+        <v>placeInstance FILLER[33].INST_decoupling_cap_filler 3991.9 0.0 R0</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -3112,7 +3113,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>4111.8999999999996</v>
+        <v>4131.8999999999996</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>2</v>
@@ -3122,7 +3123,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[14].INST_PAD_DVDD 4111.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[14].INST_PAD_DVDD 4131.9 0.0 R0</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>54</v>
@@ -3144,7 +3145,7 @@
       </c>
       <c r="S36">
         <f t="shared" si="3"/>
-        <v>4091.9</v>
+        <v>4111.8999999999996</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>2</v>
@@ -3154,7 +3155,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[34].INST_decoupling_cap_filler 4091.9 0.0 R0</v>
+        <v>placeInstance FILLER[34].INST_decoupling_cap_filler 4111.9 0.0 R0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3178,7 +3179,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>4231.8999999999996</v>
+        <v>4251.8999999999996</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>2</v>
@@ -3188,7 +3189,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_HIT_OR0 4231.9 0.0 R0</v>
+        <v>placeInstance PAD_HIT_OR0 4251.9 0.0 R0</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>54</v>
@@ -3210,7 +3211,7 @@
       </c>
       <c r="S37">
         <f t="shared" si="3"/>
-        <v>4211.8999999999996</v>
+        <v>4231.8999999999996</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>2</v>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[35].INST_decoupling_cap_filler 4211.9 0.0 R0</v>
+        <v>placeInstance FILLER[35].INST_decoupling_cap_filler 4231.9 0.0 R0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -3250,7 +3251,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>4351.8999999999996</v>
+        <v>4371.8999999999996</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>2</v>
@@ -3260,7 +3261,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[14].INST_PAD_DVSS 4351.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[14].INST_PAD_DVSS 4371.9 0.0 R0</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>54</v>
@@ -3282,7 +3283,7 @@
       </c>
       <c r="S38">
         <f t="shared" si="3"/>
-        <v>4331.8999999999996</v>
+        <v>4351.8999999999996</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>2</v>
@@ -3292,7 +3293,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[36].INST_decoupling_cap_filler 4331.9 0.0 R0</v>
+        <v>placeInstance FILLER[36].INST_decoupling_cap_filler 4351.9 0.0 R0</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -3316,7 +3317,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>4471.8999999999996</v>
+        <v>4491.8999999999996</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>2</v>
@@ -3326,7 +3327,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance PAD_nHIT_OR0 4471.9 0.0 R0</v>
+        <v>placeInstance PAD_nHIT_OR0 4491.9 0.0 R0</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>54</v>
@@ -3348,7 +3349,7 @@
       </c>
       <c r="S39">
         <f t="shared" si="3"/>
-        <v>4451.8999999999996</v>
+        <v>4471.8999999999996</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>2</v>
@@ -3358,7 +3359,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[37].INST_decoupling_cap_filler 4451.9 0.0 R0</v>
+        <v>placeInstance FILLER[37].INST_decoupling_cap_filler 4471.9 0.0 R0</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -3388,7 +3389,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>4591.8999999999996</v>
+        <v>4611.8999999999996</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>2</v>
@@ -3398,7 +3399,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[15].INST_PAD_DVDD 4591.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[15].INST_PAD_DVDD 4611.9 0.0 R0</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>54</v>
@@ -3420,7 +3421,7 @@
       </c>
       <c r="S40">
         <f t="shared" si="3"/>
-        <v>4571.8999999999996</v>
+        <v>4591.8999999999996</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>2</v>
@@ -3430,7 +3431,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[38].INST_decoupling_cap_filler 4571.9 0.0 R0</v>
+        <v>placeInstance FILLER[38].INST_decoupling_cap_filler 4591.9 0.0 R0</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -3460,7 +3461,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>4711.8999999999996</v>
+        <v>4731.8999999999996</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>2</v>
@@ -3470,7 +3471,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[15].INST_PAD_DVSS 4711.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[15].INST_PAD_DVSS 4731.9 0.0 R0</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>54</v>
@@ -3492,7 +3493,7 @@
       </c>
       <c r="S41">
         <f t="shared" si="3"/>
-        <v>4691.8999999999996</v>
+        <v>4711.8999999999996</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>2</v>
@@ -3502,7 +3503,7 @@
       </c>
       <c r="V41" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[39].INST_decoupling_cap_filler 4691.9 0.0 R0</v>
+        <v>placeInstance FILLER[39].INST_decoupling_cap_filler 4711.9 0.0 R0</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3534,7 +3535,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>4831.8999999999996</v>
+        <v>4851.8999999999996</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>2</v>
@@ -3544,7 +3545,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[16].INST_PAD_DVDD 4831.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[16].INST_PAD_DVDD 4851.9 0.0 R0</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>54</v>
@@ -3566,7 +3567,7 @@
       </c>
       <c r="S42">
         <f t="shared" si="3"/>
-        <v>4811.8999999999996</v>
+        <v>4831.8999999999996</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>2</v>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[40].INST_decoupling_cap_filler 4811.9 0.0 R0</v>
+        <v>placeInstance FILLER[40].INST_decoupling_cap_filler 4831.9 0.0 R0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3608,7 +3609,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>4951.8999999999996</v>
+        <v>4971.8999999999996</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>2</v>
@@ -3618,7 +3619,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[16].INST_PAD_DVSS 4951.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[16].INST_PAD_DVSS 4971.9 0.0 R0</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>54</v>
@@ -3640,7 +3641,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="3"/>
-        <v>4931.8999999999996</v>
+        <v>4951.8999999999996</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>2</v>
@@ -3650,7 +3651,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[41].INST_decoupling_cap_filler 4931.9 0.0 R0</v>
+        <v>placeInstance FILLER[41].INST_decoupling_cap_filler 4951.9 0.0 R0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3682,7 +3683,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>5071.8999999999996</v>
+        <v>5091.8999999999996</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>2</v>
@@ -3692,7 +3693,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[17].INST_PAD_DVDD 5071.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[17].INST_PAD_DVDD 5091.9 0.0 R0</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>54</v>
@@ -3714,7 +3715,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="3"/>
-        <v>5051.8999999999996</v>
+        <v>5071.8999999999996</v>
       </c>
       <c r="T44" s="2" t="s">
         <v>2</v>
@@ -3724,7 +3725,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[42].INST_decoupling_cap_filler 5051.9 0.0 R0</v>
+        <v>placeInstance FILLER[42].INST_decoupling_cap_filler 5071.9 0.0 R0</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3756,7 +3757,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>5191.8999999999996</v>
+        <v>5211.8999999999996</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>2</v>
@@ -3766,7 +3767,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[17].INST_PAD_DVSS 5191.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[17].INST_PAD_DVSS 5211.9 0.0 R0</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>54</v>
@@ -3788,7 +3789,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="3"/>
-        <v>5171.8999999999996</v>
+        <v>5191.8999999999996</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>2</v>
@@ -3798,7 +3799,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[43].INST_decoupling_cap_filler 5171.9 0.0 R0</v>
+        <v>placeInstance FILLER[43].INST_decoupling_cap_filler 5191.9 0.0 R0</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3830,7 +3831,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>5311.9</v>
+        <v>5331.9</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>2</v>
@@ -3840,7 +3841,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[18].INST_PAD_DVDD 5311.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[18].INST_PAD_DVDD 5331.9 0.0 R0</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>54</v>
@@ -3862,7 +3863,7 @@
       </c>
       <c r="S46">
         <f t="shared" si="3"/>
-        <v>5291.9</v>
+        <v>5311.9</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>2</v>
@@ -3872,7 +3873,7 @@
       </c>
       <c r="V46" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[44].INST_decoupling_cap_filler 5291.9 0.0 R0</v>
+        <v>placeInstance FILLER[44].INST_decoupling_cap_filler 5311.9 0.0 R0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3904,7 +3905,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>5431.9</v>
+        <v>5451.9</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>2</v>
@@ -3914,7 +3915,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[18].INST_PAD_DVSS 5431.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[18].INST_PAD_DVSS 5451.9 0.0 R0</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>54</v>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="S47">
         <f t="shared" si="3"/>
-        <v>5411.9</v>
+        <v>5431.9</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>2</v>
@@ -3946,7 +3947,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[45].INST_decoupling_cap_filler 5411.9 0.0 R0</v>
+        <v>placeInstance FILLER[45].INST_decoupling_cap_filler 5431.9 0.0 R0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -3978,7 +3979,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>5551.9</v>
+        <v>5571.9</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>2</v>
@@ -3988,7 +3989,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[19].INST_PAD_DVDD 5551.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[19].INST_PAD_DVDD 5571.9 0.0 R0</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>54</v>
@@ -4010,7 +4011,7 @@
       </c>
       <c r="S48">
         <f t="shared" si="3"/>
-        <v>5531.9</v>
+        <v>5551.9</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>2</v>
@@ -4020,7 +4021,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[46].INST_decoupling_cap_filler 5531.9 0.0 R0</v>
+        <v>placeInstance FILLER[46].INST_decoupling_cap_filler 5551.9 0.0 R0</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -4052,7 +4053,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>5671.9</v>
+        <v>5691.9</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>2</v>
@@ -4062,7 +4063,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_G[19].INST_PAD_DVSS 5671.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[19].INST_PAD_DVSS 5691.9 0.0 R0</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>54</v>
@@ -4084,7 +4085,7 @@
       </c>
       <c r="S49">
         <f t="shared" si="3"/>
-        <v>5651.9</v>
+        <v>5671.9</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>2</v>
@@ -4094,7 +4095,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[47].INST_decoupling_cap_filler 5651.9 0.0 R0</v>
+        <v>placeInstance FILLER[47].INST_decoupling_cap_filler 5671.9 0.0 R0</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -4126,7 +4127,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>5791.9</v>
+        <v>5811.9</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>2</v>
@@ -4136,7 +4137,7 @@
       </c>
       <c r="L50" t="str">
         <f t="shared" si="0"/>
-        <v>placeInstance DIGITAL_P[20].INST_PAD_DVDD 5791.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[20].INST_PAD_DVDD 5811.9 0.0 R0</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>54</v>
@@ -4158,7 +4159,7 @@
       </c>
       <c r="S50">
         <f t="shared" si="3"/>
-        <v>5771.9</v>
+        <v>5791.9</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>2</v>
@@ -4168,7 +4169,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[48].INST_decoupling_cap_filler 5771.9 0.0 R0</v>
+        <v>placeInstance FILLER[48].INST_decoupling_cap_filler 5791.9 0.0 R0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4200,7 +4201,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>5911.9</v>
+        <v>5931.9</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>2</v>
@@ -4210,7 +4211,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" ref="L51:L82" si="9">CONCATENATE(E51,F51,G51,H51,I51,J51,K51)</f>
-        <v>placeInstance DIGITAL_G[20].INST_PAD_DVSS 5911.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[20].INST_PAD_DVSS 5931.9 0.0 R0</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>54</v>
@@ -4232,7 +4233,7 @@
       </c>
       <c r="S51">
         <f t="shared" si="3"/>
-        <v>5891.9</v>
+        <v>5911.9</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>2</v>
@@ -4242,7 +4243,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[49].INST_decoupling_cap_filler 5891.9 0.0 R0</v>
+        <v>placeInstance FILLER[49].INST_decoupling_cap_filler 5911.9 0.0 R0</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4274,7 +4275,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>6031.9</v>
+        <v>6051.9</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>2</v>
@@ -4284,7 +4285,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[21].INST_PAD_DVDD 6031.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[21].INST_PAD_DVDD 6051.9 0.0 R0</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>54</v>
@@ -4306,7 +4307,7 @@
       </c>
       <c r="S52">
         <f t="shared" si="3"/>
-        <v>6011.9</v>
+        <v>6031.9</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>2</v>
@@ -4316,7 +4317,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[50].INST_decoupling_cap_filler 6011.9 0.0 R0</v>
+        <v>placeInstance FILLER[50].INST_decoupling_cap_filler 6031.9 0.0 R0</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -4340,7 +4341,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>6151.9</v>
+        <v>6171.9</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>2</v>
@@ -4350,7 +4351,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_READ_PMOS 6151.9 0.0 R0</v>
+        <v>placeInstance PAD_READ_PMOS 6171.9 0.0 R0</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>54</v>
@@ -4372,7 +4373,7 @@
       </c>
       <c r="S53">
         <f t="shared" si="3"/>
-        <v>6131.9</v>
+        <v>6151.9</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>2</v>
@@ -4382,7 +4383,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[51].INST_decoupling_cap_filler 6131.9 0.0 R0</v>
+        <v>placeInstance FILLER[51].INST_decoupling_cap_filler 6151.9 0.0 R0</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4412,7 +4413,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>6271.9</v>
+        <v>6291.9</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>2</v>
@@ -4422,7 +4423,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[21].INST_PAD_DVSS 6271.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[21].INST_PAD_DVSS 6291.9 0.0 R0</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>54</v>
@@ -4444,7 +4445,7 @@
       </c>
       <c r="S54">
         <f t="shared" si="3"/>
-        <v>6251.9</v>
+        <v>6271.9</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>2</v>
@@ -4454,7 +4455,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[52].INST_decoupling_cap_filler 6251.9 0.0 R0</v>
+        <v>placeInstance FILLER[52].INST_decoupling_cap_filler 6271.9 0.0 R0</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -4478,7 +4479,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>6391.9</v>
+        <v>6411.9</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>2</v>
@@ -4488,7 +4489,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_FREEZE_PMOS 6391.9 0.0 R0</v>
+        <v>placeInstance PAD_FREEZE_PMOS 6411.9 0.0 R0</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>54</v>
@@ -4510,7 +4511,7 @@
       </c>
       <c r="S55">
         <f t="shared" si="3"/>
-        <v>6371.9</v>
+        <v>6391.9</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>2</v>
@@ -4520,7 +4521,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[53].INST_decoupling_cap_filler 6371.9 0.0 R0</v>
+        <v>placeInstance FILLER[53].INST_decoupling_cap_filler 6391.9 0.0 R0</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4550,7 +4551,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>6511.9</v>
+        <v>6531.9</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>2</v>
@@ -4560,7 +4561,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[22].INST_PAD_DVDD 6511.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[22].INST_PAD_DVDD 6531.9 0.0 R0</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>54</v>
@@ -4582,7 +4583,7 @@
       </c>
       <c r="S56">
         <f t="shared" si="3"/>
-        <v>6491.9</v>
+        <v>6511.9</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>2</v>
@@ -4592,7 +4593,7 @@
       </c>
       <c r="V56" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[54].INST_decoupling_cap_filler 6491.9 0.0 R0</v>
+        <v>placeInstance FILLER[54].INST_decoupling_cap_filler 6511.9 0.0 R0</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -4616,7 +4617,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>6631.9</v>
+        <v>6651.9</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>2</v>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_TOKEN_PMOS 6631.9 0.0 R0</v>
+        <v>placeInstance PAD_TOKEN_PMOS 6651.9 0.0 R0</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>54</v>
@@ -4648,7 +4649,7 @@
       </c>
       <c r="S57">
         <f t="shared" si="3"/>
-        <v>6611.9</v>
+        <v>6631.9</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>2</v>
@@ -4658,7 +4659,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[55].INST_decoupling_cap_filler 6611.9 0.0 R0</v>
+        <v>placeInstance FILLER[55].INST_decoupling_cap_filler 6631.9 0.0 R0</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -4688,7 +4689,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>6751.9</v>
+        <v>6771.9</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>2</v>
@@ -4698,7 +4699,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[22].INST_PAD_DVSS 6751.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[22].INST_PAD_DVSS 6771.9 0.0 R0</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>54</v>
@@ -4720,7 +4721,7 @@
       </c>
       <c r="S58">
         <f t="shared" si="3"/>
-        <v>6731.9</v>
+        <v>6751.9</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>2</v>
@@ -4730,7 +4731,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[56].INST_decoupling_cap_filler 6731.9 0.0 R0</v>
+        <v>placeInstance FILLER[56].INST_decoupling_cap_filler 6751.9 0.0 R0</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4754,7 +4755,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>6871.9</v>
+        <v>6891.9</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>2</v>
@@ -4764,7 +4765,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_OUT_PMOS 6871.9 0.0 R0</v>
+        <v>placeInstance PAD_OUT_PMOS 6891.9 0.0 R0</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>54</v>
@@ -4786,7 +4787,7 @@
       </c>
       <c r="S59">
         <f t="shared" si="3"/>
-        <v>6851.9</v>
+        <v>6871.9</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>2</v>
@@ -4796,7 +4797,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[57].INST_decoupling_cap_filler 6851.9 0.0 R0</v>
+        <v>placeInstance FILLER[57].INST_decoupling_cap_filler 6871.9 0.0 R0</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4826,7 +4827,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>6991.9</v>
+        <v>7011.9</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>2</v>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[23].INST_PAD_DVDD 6991.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[23].INST_PAD_DVDD 7011.9 0.0 R0</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>54</v>
@@ -4858,7 +4859,7 @@
       </c>
       <c r="S60">
         <f t="shared" si="3"/>
-        <v>6971.9</v>
+        <v>6991.9</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>2</v>
@@ -4868,7 +4869,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[58].INST_decoupling_cap_filler 6971.9 0.0 R0</v>
+        <v>placeInstance FILLER[58].INST_decoupling_cap_filler 6991.9 0.0 R0</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -4892,7 +4893,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>7111.9</v>
+        <v>7131.9</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>2</v>
@@ -4902,7 +4903,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_nTOKEN_PMOS 7111.9 0.0 R0</v>
+        <v>placeInstance PAD_nTOKEN_PMOS 7131.9 0.0 R0</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>54</v>
@@ -4924,7 +4925,7 @@
       </c>
       <c r="S61">
         <f t="shared" si="3"/>
-        <v>7091.9</v>
+        <v>7111.9</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>2</v>
@@ -4934,7 +4935,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[59].INST_decoupling_cap_filler 7091.9 0.0 R0</v>
+        <v>placeInstance FILLER[59].INST_decoupling_cap_filler 7111.9 0.0 R0</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4964,7 +4965,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>7231.9</v>
+        <v>7251.9</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>2</v>
@@ -4974,7 +4975,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[23].INST_PAD_DVSS 7231.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[23].INST_PAD_DVSS 7251.9 0.0 R0</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>54</v>
@@ -4996,7 +4997,7 @@
       </c>
       <c r="S62">
         <f t="shared" si="3"/>
-        <v>7211.9</v>
+        <v>7231.9</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>2</v>
@@ -5006,7 +5007,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[60].INST_decoupling_cap_filler 7211.9 0.0 R0</v>
+        <v>placeInstance FILLER[60].INST_decoupling_cap_filler 7231.9 0.0 R0</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -5030,7 +5031,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>7351.9</v>
+        <v>7371.9</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>2</v>
@@ -5040,7 +5041,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_nOUT_PMOS 7351.9 0.0 R0</v>
+        <v>placeInstance PAD_nOUT_PMOS 7371.9 0.0 R0</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>54</v>
@@ -5062,7 +5063,7 @@
       </c>
       <c r="S63">
         <f t="shared" si="3"/>
-        <v>7331.9</v>
+        <v>7351.9</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>2</v>
@@ -5072,7 +5073,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[61].INST_decoupling_cap_filler 7331.9 0.0 R0</v>
+        <v>placeInstance FILLER[61].INST_decoupling_cap_filler 7351.9 0.0 R0</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -5102,7 +5103,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>7471.9</v>
+        <v>7491.9</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>2</v>
@@ -5112,7 +5113,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[24].INST_PAD_DVDD 7471.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[24].INST_PAD_DVDD 7491.9 0.0 R0</v>
       </c>
       <c r="M64" s="7" t="s">
         <v>54</v>
@@ -5134,7 +5135,7 @@
       </c>
       <c r="S64">
         <f t="shared" si="3"/>
-        <v>7451.9</v>
+        <v>7471.9</v>
       </c>
       <c r="T64" s="2" t="s">
         <v>2</v>
@@ -5144,7 +5145,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[62].INST_decoupling_cap_filler 7451.9 0.0 R0</v>
+        <v>placeInstance FILLER[62].INST_decoupling_cap_filler 7471.9 0.0 R0</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -5168,7 +5169,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>7591.9</v>
+        <v>7611.9</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>2</v>
@@ -5178,7 +5179,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_HIT_OR1 7591.9 0.0 R0</v>
+        <v>placeInstance PAD_HIT_OR1 7611.9 0.0 R0</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>54</v>
@@ -5200,7 +5201,7 @@
       </c>
       <c r="S65">
         <f t="shared" si="3"/>
-        <v>7571.9</v>
+        <v>7591.9</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>2</v>
@@ -5210,7 +5211,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[63].INST_decoupling_cap_filler 7571.9 0.0 R0</v>
+        <v>placeInstance FILLER[63].INST_decoupling_cap_filler 7591.9 0.0 R0</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -5240,7 +5241,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>7711.9</v>
+        <v>7731.9</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>2</v>
@@ -5250,7 +5251,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[24].INST_PAD_DVSS 7711.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[24].INST_PAD_DVSS 7731.9 0.0 R0</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>54</v>
@@ -5272,7 +5273,7 @@
       </c>
       <c r="S66">
         <f t="shared" si="3"/>
-        <v>7691.9</v>
+        <v>7711.9</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>2</v>
@@ -5282,7 +5283,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" ref="V66:V129" si="10">CONCATENATE(O66,P66,Q66,R66,S66,T66,U66)</f>
-        <v>placeInstance FILLER[64].INST_decoupling_cap_filler 7691.9 0.0 R0</v>
+        <v>placeInstance FILLER[64].INST_decoupling_cap_filler 7711.9 0.0 R0</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -5306,7 +5307,7 @@
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="11">I66+120</f>
-        <v>7831.9</v>
+        <v>7851.9</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>2</v>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_nHIT_OR1 7831.9 0.0 R0</v>
+        <v>placeInstance PAD_nHIT_OR1 7851.9 0.0 R0</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>54</v>
@@ -5338,7 +5339,7 @@
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S130" si="12">I66+100</f>
-        <v>7811.9</v>
+        <v>7831.9</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>2</v>
@@ -5348,7 +5349,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[65].INST_decoupling_cap_filler 7811.9 0.0 R0</v>
+        <v>placeInstance FILLER[65].INST_decoupling_cap_filler 7831.9 0.0 R0</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -5378,7 +5379,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="11"/>
-        <v>7951.9</v>
+        <v>7971.9</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>2</v>
@@ -5388,7 +5389,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[25].INST_PAD_DVDD 7951.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[25].INST_PAD_DVDD 7971.9 0.0 R0</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>54</v>
@@ -5410,7 +5411,7 @@
       </c>
       <c r="S68">
         <f t="shared" si="12"/>
-        <v>7931.9</v>
+        <v>7951.9</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>2</v>
@@ -5420,7 +5421,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[66].INST_decoupling_cap_filler 7931.9 0.0 R0</v>
+        <v>placeInstance FILLER[66].INST_decoupling_cap_filler 7951.9 0.0 R0</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -5444,7 +5445,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="11"/>
-        <v>8071.9</v>
+        <v>8091.9</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>2</v>
@@ -5454,7 +5455,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_DEF_CONF 8071.9 0.0 R0</v>
+        <v>placeInstance PAD_DEF_CONF 8091.9 0.0 R0</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>54</v>
@@ -5476,7 +5477,7 @@
       </c>
       <c r="S69">
         <f t="shared" si="12"/>
-        <v>8051.9</v>
+        <v>8071.9</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>2</v>
@@ -5486,7 +5487,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[67].INST_decoupling_cap_filler 8051.9 0.0 R0</v>
+        <v>placeInstance FILLER[67].INST_decoupling_cap_filler 8071.9 0.0 R0</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -5516,7 +5517,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="11"/>
-        <v>8191.9</v>
+        <v>8211.9</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>2</v>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[25].INST_PAD_DVSS 8191.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[25].INST_PAD_DVSS 8211.9 0.0 R0</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>54</v>
@@ -5548,7 +5549,7 @@
       </c>
       <c r="S70">
         <f t="shared" si="12"/>
-        <v>8171.9</v>
+        <v>8191.9</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>2</v>
@@ -5558,7 +5559,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[68].INST_decoupling_cap_filler 8171.9 0.0 R0</v>
+        <v>placeInstance FILLER[68].INST_decoupling_cap_filler 8191.9 0.0 R0</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -5582,7 +5583,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="11"/>
-        <v>8311.9</v>
+        <v>8331.9</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>2</v>
@@ -5592,7 +5593,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_CLK_CONF 8311.9 0.0 R0</v>
+        <v>placeInstance PAD_CLK_CONF 8331.9 0.0 R0</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>54</v>
@@ -5614,7 +5615,7 @@
       </c>
       <c r="S71">
         <f t="shared" si="12"/>
-        <v>8291.9</v>
+        <v>8311.9</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>2</v>
@@ -5624,7 +5625,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[69].INST_decoupling_cap_filler 8291.9 0.0 R0</v>
+        <v>placeInstance FILLER[69].INST_decoupling_cap_filler 8311.9 0.0 R0</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -5654,7 +5655,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="11"/>
-        <v>8431.9</v>
+        <v>8451.9</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>2</v>
@@ -5664,7 +5665,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[26].INST_PAD_DVDD 8431.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[26].INST_PAD_DVDD 8451.9 0.0 R0</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>54</v>
@@ -5686,7 +5687,7 @@
       </c>
       <c r="S72">
         <f t="shared" si="12"/>
-        <v>8411.9</v>
+        <v>8431.9</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>2</v>
@@ -5696,7 +5697,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[70].INST_decoupling_cap_filler 8411.9 0.0 R0</v>
+        <v>placeInstance FILLER[70].INST_decoupling_cap_filler 8431.9 0.0 R0</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -5720,7 +5721,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="11"/>
-        <v>8551.9</v>
+        <v>8571.9</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>2</v>
@@ -5730,7 +5731,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_LD_CONF 8551.9 0.0 R0</v>
+        <v>placeInstance PAD_LD_CONF 8571.9 0.0 R0</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>54</v>
@@ -5752,7 +5753,7 @@
       </c>
       <c r="S73">
         <f t="shared" si="12"/>
-        <v>8531.9</v>
+        <v>8551.9</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>2</v>
@@ -5762,7 +5763,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[71].INST_decoupling_cap_filler 8531.9 0.0 R0</v>
+        <v>placeInstance FILLER[71].INST_decoupling_cap_filler 8551.9 0.0 R0</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -5792,7 +5793,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="11"/>
-        <v>8671.9</v>
+        <v>8691.9</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>2</v>
@@ -5802,7 +5803,7 @@
       </c>
       <c r="L74" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[26].INST_PAD_DVSS 8671.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[26].INST_PAD_DVSS 8691.9 0.0 R0</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>54</v>
@@ -5824,7 +5825,7 @@
       </c>
       <c r="S74">
         <f t="shared" si="12"/>
-        <v>8651.9</v>
+        <v>8671.9</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>2</v>
@@ -5834,7 +5835,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[72].INST_decoupling_cap_filler 8651.9 0.0 R0</v>
+        <v>placeInstance FILLER[72].INST_decoupling_cap_filler 8671.9 0.0 R0</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -5858,7 +5859,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="11"/>
-        <v>8791.9</v>
+        <v>8811.9</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>2</v>
@@ -5868,7 +5869,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_SI_CONF 8791.9 0.0 R0</v>
+        <v>placeInstance PAD_SI_CONF 8811.9 0.0 R0</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>54</v>
@@ -5890,7 +5891,7 @@
       </c>
       <c r="S75">
         <f t="shared" si="12"/>
-        <v>8771.9</v>
+        <v>8791.9</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>2</v>
@@ -5900,7 +5901,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[73].INST_decoupling_cap_filler 8771.9 0.0 R0</v>
+        <v>placeInstance FILLER[73].INST_decoupling_cap_filler 8791.9 0.0 R0</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -5930,7 +5931,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="11"/>
-        <v>8911.9</v>
+        <v>8931.9</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>2</v>
@@ -5940,7 +5941,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[27].INST_PAD_DVDD 8911.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[27].INST_PAD_DVDD 8931.9 0.0 R0</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>54</v>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="S76">
         <f t="shared" si="12"/>
-        <v>8891.9</v>
+        <v>8911.9</v>
       </c>
       <c r="T76" s="2" t="s">
         <v>2</v>
@@ -5972,7 +5973,7 @@
       </c>
       <c r="V76" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[74].INST_decoupling_cap_filler 8891.9 0.0 R0</v>
+        <v>placeInstance FILLER[74].INST_decoupling_cap_filler 8911.9 0.0 R0</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -5996,7 +5997,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="11"/>
-        <v>9031.9</v>
+        <v>9051.9</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>2</v>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="L77" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_SO_CONF 9031.9 0.0 R0</v>
+        <v>placeInstance PAD_SO_CONF 9051.9 0.0 R0</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>54</v>
@@ -6028,7 +6029,7 @@
       </c>
       <c r="S77">
         <f t="shared" si="12"/>
-        <v>9011.9</v>
+        <v>9031.9</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>2</v>
@@ -6038,7 +6039,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[75].INST_decoupling_cap_filler 9011.9 0.0 R0</v>
+        <v>placeInstance FILLER[75].INST_decoupling_cap_filler 9031.9 0.0 R0</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -6068,7 +6069,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="11"/>
-        <v>9151.9</v>
+        <v>9171.9</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>2</v>
@@ -6078,7 +6079,7 @@
       </c>
       <c r="L78" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[27].INST_PAD_DVSS 9151.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[27].INST_PAD_DVSS 9171.9 0.0 R0</v>
       </c>
       <c r="M78" s="7" t="s">
         <v>54</v>
@@ -6100,7 +6101,7 @@
       </c>
       <c r="S78">
         <f t="shared" si="12"/>
-        <v>9131.9</v>
+        <v>9151.9</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>2</v>
@@ -6110,7 +6111,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[76].INST_decoupling_cap_filler 9131.9 0.0 R0</v>
+        <v>placeInstance FILLER[76].INST_decoupling_cap_filler 9151.9 0.0 R0</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -6134,7 +6135,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="11"/>
-        <v>9271.9</v>
+        <v>9291.9</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>2</v>
@@ -6144,7 +6145,7 @@
       </c>
       <c r="L79" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_RST_N 9271.9 0.0 R0</v>
+        <v>placeInstance PAD_RST_N 9291.9 0.0 R0</v>
       </c>
       <c r="M79" s="7" t="s">
         <v>54</v>
@@ -6166,7 +6167,7 @@
       </c>
       <c r="S79">
         <f t="shared" si="12"/>
-        <v>9251.9</v>
+        <v>9271.9</v>
       </c>
       <c r="T79" s="2" t="s">
         <v>2</v>
@@ -6176,7 +6177,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[77].INST_decoupling_cap_filler 9251.9 0.0 R0</v>
+        <v>placeInstance FILLER[77].INST_decoupling_cap_filler 9271.9 0.0 R0</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -6206,7 +6207,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="11"/>
-        <v>9391.9</v>
+        <v>9411.9</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>2</v>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="L80" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_P[28].INST_PAD_DVDD 9391.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[28].INST_PAD_DVDD 9411.9 0.0 R0</v>
       </c>
       <c r="M80" s="7" t="s">
         <v>54</v>
@@ -6238,7 +6239,7 @@
       </c>
       <c r="S80">
         <f t="shared" si="12"/>
-        <v>9371.9</v>
+        <v>9391.9</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>2</v>
@@ -6248,7 +6249,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[78].INST_decoupling_cap_filler 9371.9 0.0 R0</v>
+        <v>placeInstance FILLER[78].INST_decoupling_cap_filler 9391.9 0.0 R0</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -6272,7 +6273,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="11"/>
-        <v>9511.9</v>
+        <v>9531.9</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>2</v>
@@ -6282,7 +6283,7 @@
       </c>
       <c r="L81" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance PAD_CLK_BX 9511.9 0.0 R0</v>
+        <v>placeInstance PAD_CLK_BX 9531.9 0.0 R0</v>
       </c>
       <c r="M81" s="7" t="s">
         <v>54</v>
@@ -6304,7 +6305,7 @@
       </c>
       <c r="S81">
         <f t="shared" si="12"/>
-        <v>9491.9</v>
+        <v>9511.9</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>2</v>
@@ -6314,7 +6315,7 @@
       </c>
       <c r="V81" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[79].INST_decoupling_cap_filler 9491.9 0.0 R0</v>
+        <v>placeInstance FILLER[79].INST_decoupling_cap_filler 9511.9 0.0 R0</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -6344,7 +6345,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="11"/>
-        <v>9631.9</v>
+        <v>9651.9</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>2</v>
@@ -6354,7 +6355,7 @@
       </c>
       <c r="L82" t="str">
         <f t="shared" si="9"/>
-        <v>placeInstance DIGITAL_G[28].INST_PAD_DVSS 9631.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[28].INST_PAD_DVSS 9651.9 0.0 R0</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>54</v>
@@ -6376,7 +6377,7 @@
       </c>
       <c r="S82">
         <f t="shared" si="12"/>
-        <v>9611.9</v>
+        <v>9631.9</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>2</v>
@@ -6386,7 +6387,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[80].INST_decoupling_cap_filler 9611.9 0.0 R0</v>
+        <v>placeInstance FILLER[80].INST_decoupling_cap_filler 9631.9 0.0 R0</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -6410,7 +6411,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="11"/>
-        <v>9751.9</v>
+        <v>9771.9</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>2</v>
@@ -6420,7 +6421,7 @@
       </c>
       <c r="L83" t="str">
         <f t="shared" ref="L83:L114" si="13">CONCATENATE(E83,F83,G83,H83,I83,J83,K83)</f>
-        <v>placeInstance PAD_CLK_OUT 9751.9 0.0 R0</v>
+        <v>placeInstance PAD_CLK_OUT 9771.9 0.0 R0</v>
       </c>
       <c r="M83" s="7" t="s">
         <v>54</v>
@@ -6442,7 +6443,7 @@
       </c>
       <c r="S83">
         <f t="shared" si="12"/>
-        <v>9731.9</v>
+        <v>9751.9</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>2</v>
@@ -6452,7 +6453,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[81].INST_decoupling_cap_filler 9731.9 0.0 R0</v>
+        <v>placeInstance FILLER[81].INST_decoupling_cap_filler 9751.9 0.0 R0</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -6482,7 +6483,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="11"/>
-        <v>9871.9</v>
+        <v>9891.9</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>2</v>
@@ -6492,7 +6493,7 @@
       </c>
       <c r="L84" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[29].INST_PAD_DVDD 9871.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[29].INST_PAD_DVDD 9891.9 0.0 R0</v>
       </c>
       <c r="M84" s="7" t="s">
         <v>54</v>
@@ -6514,7 +6515,7 @@
       </c>
       <c r="S84">
         <f t="shared" si="12"/>
-        <v>9851.9</v>
+        <v>9871.9</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>2</v>
@@ -6524,7 +6525,7 @@
       </c>
       <c r="V84" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[82].INST_decoupling_cap_filler 9851.9 0.0 R0</v>
+        <v>placeInstance FILLER[82].INST_decoupling_cap_filler 9871.9 0.0 R0</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -6548,7 +6549,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="11"/>
-        <v>9991.9</v>
+        <v>10011.9</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>2</v>
@@ -6558,7 +6559,7 @@
       </c>
       <c r="L85" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_RESET_BCID 9991.9 0.0 R0</v>
+        <v>placeInstance PAD_RESET_BCID 10011.9 0.0 R0</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>54</v>
@@ -6580,7 +6581,7 @@
       </c>
       <c r="S85">
         <f t="shared" si="12"/>
-        <v>9971.9</v>
+        <v>9991.9</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>2</v>
@@ -6590,7 +6591,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[83].INST_decoupling_cap_filler 9971.9 0.0 R0</v>
+        <v>placeInstance FILLER[83].INST_decoupling_cap_filler 9991.9 0.0 R0</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -6620,7 +6621,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="11"/>
-        <v>10111.9</v>
+        <v>10131.9</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>2</v>
@@ -6630,7 +6631,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[29].INST_PAD_DVSS 10111.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[29].INST_PAD_DVSS 10131.9 0.0 R0</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>54</v>
@@ -6652,7 +6653,7 @@
       </c>
       <c r="S86">
         <f t="shared" si="12"/>
-        <v>10091.9</v>
+        <v>10111.9</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>2</v>
@@ -6662,7 +6663,7 @@
       </c>
       <c r="V86" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[84].INST_decoupling_cap_filler 10091.9 0.0 R0</v>
+        <v>placeInstance FILLER[84].INST_decoupling_cap_filler 10111.9 0.0 R0</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -6686,7 +6687,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="11"/>
-        <v>10231.9</v>
+        <v>10251.9</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>2</v>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="L87" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_PULSE 10231.9 0.0 R0</v>
+        <v>placeInstance PAD_PULSE 10251.9 0.0 R0</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>54</v>
@@ -6718,7 +6719,7 @@
       </c>
       <c r="S87">
         <f t="shared" si="12"/>
-        <v>10211.9</v>
+        <v>10231.9</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>2</v>
@@ -6728,7 +6729,7 @@
       </c>
       <c r="V87" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[85].INST_decoupling_cap_filler 10211.9 0.0 R0</v>
+        <v>placeInstance FILLER[85].INST_decoupling_cap_filler 10231.9 0.0 R0</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -6758,7 +6759,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="11"/>
-        <v>10351.9</v>
+        <v>10371.9</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>2</v>
@@ -6768,7 +6769,7 @@
       </c>
       <c r="L88" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[30].INST_PAD_DVDD 10351.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[30].INST_PAD_DVDD 10371.9 0.0 R0</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>54</v>
@@ -6790,7 +6791,7 @@
       </c>
       <c r="S88">
         <f t="shared" si="12"/>
-        <v>10331.9</v>
+        <v>10351.9</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>2</v>
@@ -6800,7 +6801,7 @@
       </c>
       <c r="V88" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[86].INST_decoupling_cap_filler 10331.9 0.0 R0</v>
+        <v>placeInstance FILLER[86].INST_decoupling_cap_filler 10351.9 0.0 R0</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -6830,7 +6831,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="11"/>
-        <v>10471.9</v>
+        <v>10491.9</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>2</v>
@@ -6840,7 +6841,7 @@
       </c>
       <c r="L89" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[30].INST_PAD_DVSS 10471.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[30].INST_PAD_DVSS 10491.9 0.0 R0</v>
       </c>
       <c r="M89" s="7" t="s">
         <v>54</v>
@@ -6862,7 +6863,7 @@
       </c>
       <c r="S89">
         <f t="shared" si="12"/>
-        <v>10451.9</v>
+        <v>10471.9</v>
       </c>
       <c r="T89" s="2" t="s">
         <v>2</v>
@@ -6872,7 +6873,7 @@
       </c>
       <c r="V89" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[87].INST_decoupling_cap_filler 10451.9 0.0 R0</v>
+        <v>placeInstance FILLER[87].INST_decoupling_cap_filler 10471.9 0.0 R0</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -6904,7 +6905,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="11"/>
-        <v>10591.9</v>
+        <v>10611.9</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>2</v>
@@ -6914,7 +6915,7 @@
       </c>
       <c r="L90" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[31].INST_PAD_DVDD 10591.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[31].INST_PAD_DVDD 10611.9 0.0 R0</v>
       </c>
       <c r="M90" s="7" t="s">
         <v>54</v>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="S90">
         <f t="shared" si="12"/>
-        <v>10571.9</v>
+        <v>10591.9</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>2</v>
@@ -6946,7 +6947,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[88].INST_decoupling_cap_filler 10571.9 0.0 R0</v>
+        <v>placeInstance FILLER[88].INST_decoupling_cap_filler 10591.9 0.0 R0</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -6978,7 +6979,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="11"/>
-        <v>10711.9</v>
+        <v>10731.9</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>2</v>
@@ -6988,7 +6989,7 @@
       </c>
       <c r="L91" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[31].INST_PAD_DVSS 10711.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[31].INST_PAD_DVSS 10731.9 0.0 R0</v>
       </c>
       <c r="M91" s="7" t="s">
         <v>54</v>
@@ -7010,7 +7011,7 @@
       </c>
       <c r="S91">
         <f t="shared" si="12"/>
-        <v>10691.9</v>
+        <v>10711.9</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>2</v>
@@ -7020,7 +7021,7 @@
       </c>
       <c r="V91" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[89].INST_decoupling_cap_filler 10691.9 0.0 R0</v>
+        <v>placeInstance FILLER[89].INST_decoupling_cap_filler 10711.9 0.0 R0</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -7052,7 +7053,7 @@
       </c>
       <c r="I92">
         <f t="shared" si="11"/>
-        <v>10831.9</v>
+        <v>10851.9</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>2</v>
@@ -7062,7 +7063,7 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[32].INST_PAD_DVDD 10831.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[32].INST_PAD_DVDD 10851.9 0.0 R0</v>
       </c>
       <c r="M92" s="7" t="s">
         <v>54</v>
@@ -7084,7 +7085,7 @@
       </c>
       <c r="S92">
         <f t="shared" si="12"/>
-        <v>10811.9</v>
+        <v>10831.9</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>2</v>
@@ -7094,7 +7095,7 @@
       </c>
       <c r="V92" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[90].INST_decoupling_cap_filler 10811.9 0.0 R0</v>
+        <v>placeInstance FILLER[90].INST_decoupling_cap_filler 10831.9 0.0 R0</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -7126,7 +7127,7 @@
       </c>
       <c r="I93">
         <f t="shared" si="11"/>
-        <v>10951.9</v>
+        <v>10971.9</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>2</v>
@@ -7136,7 +7137,7 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[32].INST_PAD_DVSS 10951.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[32].INST_PAD_DVSS 10971.9 0.0 R0</v>
       </c>
       <c r="M93" s="7" t="s">
         <v>54</v>
@@ -7158,7 +7159,7 @@
       </c>
       <c r="S93">
         <f t="shared" si="12"/>
-        <v>10931.9</v>
+        <v>10951.9</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>2</v>
@@ -7168,7 +7169,7 @@
       </c>
       <c r="V93" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[91].INST_decoupling_cap_filler 10931.9 0.0 R0</v>
+        <v>placeInstance FILLER[91].INST_decoupling_cap_filler 10951.9 0.0 R0</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -7200,7 +7201,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="11"/>
-        <v>11071.9</v>
+        <v>11091.9</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>2</v>
@@ -7210,7 +7211,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[33].INST_PAD_DVDD 11071.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[33].INST_PAD_DVDD 11091.9 0.0 R0</v>
       </c>
       <c r="M94" s="7" t="s">
         <v>54</v>
@@ -7232,7 +7233,7 @@
       </c>
       <c r="S94">
         <f t="shared" si="12"/>
-        <v>11051.9</v>
+        <v>11071.9</v>
       </c>
       <c r="T94" s="2" t="s">
         <v>2</v>
@@ -7242,7 +7243,7 @@
       </c>
       <c r="V94" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[92].INST_decoupling_cap_filler 11051.9 0.0 R0</v>
+        <v>placeInstance FILLER[92].INST_decoupling_cap_filler 11071.9 0.0 R0</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -7274,7 +7275,7 @@
       </c>
       <c r="I95">
         <f t="shared" si="11"/>
-        <v>11191.9</v>
+        <v>11211.9</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>2</v>
@@ -7284,7 +7285,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[33].INST_PAD_DVSS 11191.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[33].INST_PAD_DVSS 11211.9 0.0 R0</v>
       </c>
       <c r="M95" s="7" t="s">
         <v>54</v>
@@ -7306,7 +7307,7 @@
       </c>
       <c r="S95">
         <f t="shared" si="12"/>
-        <v>11171.9</v>
+        <v>11191.9</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>2</v>
@@ -7316,7 +7317,7 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[93].INST_decoupling_cap_filler 11171.9 0.0 R0</v>
+        <v>placeInstance FILLER[93].INST_decoupling_cap_filler 11191.9 0.0 R0</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -7348,7 +7349,7 @@
       </c>
       <c r="I96">
         <f t="shared" si="11"/>
-        <v>11311.9</v>
+        <v>11331.9</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>2</v>
@@ -7358,7 +7359,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[34].INST_PAD_DVDD 11311.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[34].INST_PAD_DVDD 11331.9 0.0 R0</v>
       </c>
       <c r="M96" s="7" t="s">
         <v>54</v>
@@ -7380,7 +7381,7 @@
       </c>
       <c r="S96">
         <f t="shared" si="12"/>
-        <v>11291.9</v>
+        <v>11311.9</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>2</v>
@@ -7390,7 +7391,7 @@
       </c>
       <c r="V96" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[94].INST_decoupling_cap_filler 11291.9 0.0 R0</v>
+        <v>placeInstance FILLER[94].INST_decoupling_cap_filler 11311.9 0.0 R0</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -7422,7 +7423,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="11"/>
-        <v>11431.9</v>
+        <v>11451.9</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>2</v>
@@ -7432,7 +7433,7 @@
       </c>
       <c r="L97" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[34].INST_PAD_DVSS 11431.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[34].INST_PAD_DVSS 11451.9 0.0 R0</v>
       </c>
       <c r="M97" s="7" t="s">
         <v>54</v>
@@ -7454,7 +7455,7 @@
       </c>
       <c r="S97">
         <f t="shared" si="12"/>
-        <v>11411.9</v>
+        <v>11431.9</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>2</v>
@@ -7464,7 +7465,7 @@
       </c>
       <c r="V97" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[95].INST_decoupling_cap_filler 11411.9 0.0 R0</v>
+        <v>placeInstance FILLER[95].INST_decoupling_cap_filler 11431.9 0.0 R0</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -7496,7 +7497,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="11"/>
-        <v>11551.9</v>
+        <v>11571.9</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>2</v>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[35].INST_PAD_DVDD 11551.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[35].INST_PAD_DVDD 11571.9 0.0 R0</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>54</v>
@@ -7528,7 +7529,7 @@
       </c>
       <c r="S98">
         <f t="shared" si="12"/>
-        <v>11531.9</v>
+        <v>11551.9</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>2</v>
@@ -7538,7 +7539,7 @@
       </c>
       <c r="V98" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[96].INST_decoupling_cap_filler 11531.9 0.0 R0</v>
+        <v>placeInstance FILLER[96].INST_decoupling_cap_filler 11551.9 0.0 R0</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -7570,7 +7571,7 @@
       </c>
       <c r="I99">
         <f t="shared" si="11"/>
-        <v>11671.9</v>
+        <v>11691.9</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>2</v>
@@ -7580,7 +7581,7 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[35].INST_PAD_DVSS 11671.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[35].INST_PAD_DVSS 11691.9 0.0 R0</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>54</v>
@@ -7602,7 +7603,7 @@
       </c>
       <c r="S99">
         <f t="shared" si="12"/>
-        <v>11651.9</v>
+        <v>11671.9</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>2</v>
@@ -7612,7 +7613,7 @@
       </c>
       <c r="V99" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[97].INST_decoupling_cap_filler 11651.9 0.0 R0</v>
+        <v>placeInstance FILLER[97].INST_decoupling_cap_filler 11671.9 0.0 R0</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -7644,7 +7645,7 @@
       </c>
       <c r="I100">
         <f t="shared" si="11"/>
-        <v>11791.9</v>
+        <v>11811.9</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>2</v>
@@ -7654,7 +7655,7 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[36].INST_PAD_DVDD 11791.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[36].INST_PAD_DVDD 11811.9 0.0 R0</v>
       </c>
       <c r="M100" s="7" t="s">
         <v>54</v>
@@ -7676,7 +7677,7 @@
       </c>
       <c r="S100">
         <f t="shared" si="12"/>
-        <v>11771.9</v>
+        <v>11791.9</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>2</v>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="V100" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[98].INST_decoupling_cap_filler 11771.9 0.0 R0</v>
+        <v>placeInstance FILLER[98].INST_decoupling_cap_filler 11791.9 0.0 R0</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -7710,7 +7711,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="11"/>
-        <v>11911.9</v>
+        <v>11931.9</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>2</v>
@@ -7720,7 +7721,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_READ_COMP 11911.9 0.0 R0</v>
+        <v>placeInstance PAD_READ_COMP 11931.9 0.0 R0</v>
       </c>
       <c r="M101" s="7" t="s">
         <v>54</v>
@@ -7742,7 +7743,7 @@
       </c>
       <c r="S101">
         <f t="shared" si="12"/>
-        <v>11891.9</v>
+        <v>11911.9</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>2</v>
@@ -7752,7 +7753,7 @@
       </c>
       <c r="V101" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[99].INST_decoupling_cap_filler 11891.9 0.0 R0</v>
+        <v>placeInstance FILLER[99].INST_decoupling_cap_filler 11911.9 0.0 R0</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -7782,7 +7783,7 @@
       </c>
       <c r="I102">
         <f t="shared" si="11"/>
-        <v>12031.9</v>
+        <v>12051.9</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>2</v>
@@ -7792,7 +7793,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[36].INST_PAD_DVSS 12031.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[36].INST_PAD_DVSS 12051.9 0.0 R0</v>
       </c>
       <c r="M102" s="7" t="s">
         <v>54</v>
@@ -7814,7 +7815,7 @@
       </c>
       <c r="S102">
         <f t="shared" si="12"/>
-        <v>12011.9</v>
+        <v>12031.9</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>2</v>
@@ -7824,7 +7825,7 @@
       </c>
       <c r="V102" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[100].INST_decoupling_cap_filler 12011.9 0.0 R0</v>
+        <v>placeInstance FILLER[100].INST_decoupling_cap_filler 12031.9 0.0 R0</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -7848,7 +7849,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="11"/>
-        <v>12151.9</v>
+        <v>12171.9</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>2</v>
@@ -7858,7 +7859,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_FREEZE_COMP 12151.9 0.0 R0</v>
+        <v>placeInstance PAD_FREEZE_COMP 12171.9 0.0 R0</v>
       </c>
       <c r="M103" s="7" t="s">
         <v>54</v>
@@ -7880,7 +7881,7 @@
       </c>
       <c r="S103">
         <f t="shared" si="12"/>
-        <v>12131.9</v>
+        <v>12151.9</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>2</v>
@@ -7890,7 +7891,7 @@
       </c>
       <c r="V103" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[101].INST_decoupling_cap_filler 12131.9 0.0 R0</v>
+        <v>placeInstance FILLER[101].INST_decoupling_cap_filler 12151.9 0.0 R0</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -7920,7 +7921,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="11"/>
-        <v>12271.9</v>
+        <v>12291.9</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>2</v>
@@ -7930,7 +7931,7 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[37].INST_PAD_DVDD 12271.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[37].INST_PAD_DVDD 12291.9 0.0 R0</v>
       </c>
       <c r="M104" s="7" t="s">
         <v>54</v>
@@ -7952,7 +7953,7 @@
       </c>
       <c r="S104">
         <f t="shared" si="12"/>
-        <v>12251.9</v>
+        <v>12271.9</v>
       </c>
       <c r="T104" s="2" t="s">
         <v>2</v>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="V104" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[102].INST_decoupling_cap_filler 12251.9 0.0 R0</v>
+        <v>placeInstance FILLER[102].INST_decoupling_cap_filler 12271.9 0.0 R0</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -7986,7 +7987,7 @@
       </c>
       <c r="I105">
         <f t="shared" si="11"/>
-        <v>12391.9</v>
+        <v>12411.9</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>2</v>
@@ -7996,7 +7997,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_TOKEN_COMP 12391.9 0.0 R0</v>
+        <v>placeInstance PAD_TOKEN_COMP 12411.9 0.0 R0</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>54</v>
@@ -8018,7 +8019,7 @@
       </c>
       <c r="S105">
         <f t="shared" si="12"/>
-        <v>12371.9</v>
+        <v>12391.9</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>2</v>
@@ -8028,7 +8029,7 @@
       </c>
       <c r="V105" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[103].INST_decoupling_cap_filler 12371.9 0.0 R0</v>
+        <v>placeInstance FILLER[103].INST_decoupling_cap_filler 12391.9 0.0 R0</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -8058,7 +8059,7 @@
       </c>
       <c r="I106">
         <f t="shared" si="11"/>
-        <v>12511.9</v>
+        <v>12531.9</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>2</v>
@@ -8068,7 +8069,7 @@
       </c>
       <c r="L106" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[37].INST_PAD_DVSS 12511.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[37].INST_PAD_DVSS 12531.9 0.0 R0</v>
       </c>
       <c r="M106" s="7" t="s">
         <v>54</v>
@@ -8090,7 +8091,7 @@
       </c>
       <c r="S106">
         <f t="shared" si="12"/>
-        <v>12491.9</v>
+        <v>12511.9</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>2</v>
@@ -8100,7 +8101,7 @@
       </c>
       <c r="V106" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[104].INST_decoupling_cap_filler 12491.9 0.0 R0</v>
+        <v>placeInstance FILLER[104].INST_decoupling_cap_filler 12511.9 0.0 R0</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -8124,7 +8125,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="11"/>
-        <v>12631.9</v>
+        <v>12651.9</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>2</v>
@@ -8134,7 +8135,7 @@
       </c>
       <c r="L107" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_OUT_COMP 12631.9 0.0 R0</v>
+        <v>placeInstance PAD_OUT_COMP 12651.9 0.0 R0</v>
       </c>
       <c r="M107" s="7" t="s">
         <v>54</v>
@@ -8156,7 +8157,7 @@
       </c>
       <c r="S107">
         <f t="shared" si="12"/>
-        <v>12611.9</v>
+        <v>12631.9</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>2</v>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="V107" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[105].INST_decoupling_cap_filler 12611.9 0.0 R0</v>
+        <v>placeInstance FILLER[105].INST_decoupling_cap_filler 12631.9 0.0 R0</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
@@ -8196,7 +8197,7 @@
       </c>
       <c r="I108">
         <f t="shared" si="11"/>
-        <v>12751.9</v>
+        <v>12771.9</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>2</v>
@@ -8206,7 +8207,7 @@
       </c>
       <c r="L108" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[38].INST_PAD_DVDD 12751.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[38].INST_PAD_DVDD 12771.9 0.0 R0</v>
       </c>
       <c r="M108" s="7" t="s">
         <v>54</v>
@@ -8228,7 +8229,7 @@
       </c>
       <c r="S108">
         <f t="shared" si="12"/>
-        <v>12731.9</v>
+        <v>12751.9</v>
       </c>
       <c r="T108" s="2" t="s">
         <v>2</v>
@@ -8238,7 +8239,7 @@
       </c>
       <c r="V108" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[106].INST_decoupling_cap_filler 12731.9 0.0 R0</v>
+        <v>placeInstance FILLER[106].INST_decoupling_cap_filler 12751.9 0.0 R0</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -8262,7 +8263,7 @@
       </c>
       <c r="I109">
         <f t="shared" si="11"/>
-        <v>12871.9</v>
+        <v>12891.9</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>2</v>
@@ -8272,7 +8273,7 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_nTOKEN_COMP 12871.9 0.0 R0</v>
+        <v>placeInstance PAD_nTOKEN_COMP 12891.9 0.0 R0</v>
       </c>
       <c r="M109" s="7" t="s">
         <v>54</v>
@@ -8294,7 +8295,7 @@
       </c>
       <c r="S109">
         <f t="shared" si="12"/>
-        <v>12851.9</v>
+        <v>12871.9</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>2</v>
@@ -8304,7 +8305,7 @@
       </c>
       <c r="V109" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[107].INST_decoupling_cap_filler 12851.9 0.0 R0</v>
+        <v>placeInstance FILLER[107].INST_decoupling_cap_filler 12871.9 0.0 R0</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -8334,7 +8335,7 @@
       </c>
       <c r="I110">
         <f t="shared" si="11"/>
-        <v>12991.9</v>
+        <v>13011.9</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>2</v>
@@ -8344,7 +8345,7 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[38].INST_PAD_DVSS 12991.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[38].INST_PAD_DVSS 13011.9 0.0 R0</v>
       </c>
       <c r="M110" s="7" t="s">
         <v>54</v>
@@ -8366,7 +8367,7 @@
       </c>
       <c r="S110">
         <f t="shared" si="12"/>
-        <v>12971.9</v>
+        <v>12991.9</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>2</v>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="V110" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[108].INST_decoupling_cap_filler 12971.9 0.0 R0</v>
+        <v>placeInstance FILLER[108].INST_decoupling_cap_filler 12991.9 0.0 R0</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -8400,7 +8401,7 @@
       </c>
       <c r="I111">
         <f t="shared" si="11"/>
-        <v>13111.9</v>
+        <v>13131.9</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>2</v>
@@ -8410,7 +8411,7 @@
       </c>
       <c r="L111" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_nOUT_COMP 13111.9 0.0 R0</v>
+        <v>placeInstance PAD_nOUT_COMP 13131.9 0.0 R0</v>
       </c>
       <c r="M111" s="7" t="s">
         <v>54</v>
@@ -8432,7 +8433,7 @@
       </c>
       <c r="S111">
         <f t="shared" si="12"/>
-        <v>13091.9</v>
+        <v>13111.9</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>2</v>
@@ -8442,7 +8443,7 @@
       </c>
       <c r="V111" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[109].INST_decoupling_cap_filler 13091.9 0.0 R0</v>
+        <v>placeInstance FILLER[109].INST_decoupling_cap_filler 13111.9 0.0 R0</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -8472,7 +8473,7 @@
       </c>
       <c r="I112">
         <f t="shared" si="11"/>
-        <v>13231.9</v>
+        <v>13251.9</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>2</v>
@@ -8482,7 +8483,7 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_P[39].INST_PAD_DVDD 13231.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[39].INST_PAD_DVDD 13251.9 0.0 R0</v>
       </c>
       <c r="M112" s="7" t="s">
         <v>54</v>
@@ -8504,7 +8505,7 @@
       </c>
       <c r="S112">
         <f t="shared" si="12"/>
-        <v>13211.9</v>
+        <v>13231.9</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>2</v>
@@ -8514,7 +8515,7 @@
       </c>
       <c r="V112" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[110].INST_decoupling_cap_filler 13211.9 0.0 R0</v>
+        <v>placeInstance FILLER[110].INST_decoupling_cap_filler 13231.9 0.0 R0</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -8538,7 +8539,7 @@
       </c>
       <c r="I113">
         <f t="shared" si="11"/>
-        <v>13351.9</v>
+        <v>13371.9</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>2</v>
@@ -8548,7 +8549,7 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance PAD_HIT_OR2 13351.9 0.0 R0</v>
+        <v>placeInstance PAD_HIT_OR2 13371.9 0.0 R0</v>
       </c>
       <c r="M113" s="7" t="s">
         <v>54</v>
@@ -8570,7 +8571,7 @@
       </c>
       <c r="S113">
         <f t="shared" si="12"/>
-        <v>13331.9</v>
+        <v>13351.9</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>2</v>
@@ -8580,7 +8581,7 @@
       </c>
       <c r="V113" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[111].INST_decoupling_cap_filler 13331.9 0.0 R0</v>
+        <v>placeInstance FILLER[111].INST_decoupling_cap_filler 13351.9 0.0 R0</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -8610,7 +8611,7 @@
       </c>
       <c r="I114">
         <f t="shared" si="11"/>
-        <v>13471.9</v>
+        <v>13491.9</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>2</v>
@@ -8620,7 +8621,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" si="13"/>
-        <v>placeInstance DIGITAL_G[39].INST_PAD_DVSS 13471.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[39].INST_PAD_DVSS 13491.9 0.0 R0</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>54</v>
@@ -8642,7 +8643,7 @@
       </c>
       <c r="S114">
         <f t="shared" si="12"/>
-        <v>13451.9</v>
+        <v>13471.9</v>
       </c>
       <c r="T114" s="2" t="s">
         <v>2</v>
@@ -8652,7 +8653,7 @@
       </c>
       <c r="V114" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[112].INST_decoupling_cap_filler 13451.9 0.0 R0</v>
+        <v>placeInstance FILLER[112].INST_decoupling_cap_filler 13471.9 0.0 R0</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
@@ -8676,7 +8677,7 @@
       </c>
       <c r="I115">
         <f t="shared" si="11"/>
-        <v>13591.9</v>
+        <v>13611.9</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>2</v>
@@ -8686,7 +8687,7 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" ref="L115:L146" si="16">CONCATENATE(E115,F115,G115,H115,I115,J115,K115)</f>
-        <v>placeInstance PAD_nHIT_OR2 13591.9 0.0 R0</v>
+        <v>placeInstance PAD_nHIT_OR2 13611.9 0.0 R0</v>
       </c>
       <c r="M115" s="7" t="s">
         <v>54</v>
@@ -8708,7 +8709,7 @@
       </c>
       <c r="S115">
         <f t="shared" si="12"/>
-        <v>13571.9</v>
+        <v>13591.9</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>2</v>
@@ -8718,7 +8719,7 @@
       </c>
       <c r="V115" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[113].INST_decoupling_cap_filler 13571.9 0.0 R0</v>
+        <v>placeInstance FILLER[113].INST_decoupling_cap_filler 13591.9 0.0 R0</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -8748,7 +8749,7 @@
       </c>
       <c r="I116">
         <f t="shared" si="11"/>
-        <v>13711.9</v>
+        <v>13731.9</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>2</v>
@@ -8758,7 +8759,7 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[40].INST_PAD_DVDD 13711.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[40].INST_PAD_DVDD 13731.9 0.0 R0</v>
       </c>
       <c r="M116" s="7" t="s">
         <v>54</v>
@@ -8780,7 +8781,7 @@
       </c>
       <c r="S116">
         <f t="shared" si="12"/>
-        <v>13691.9</v>
+        <v>13711.9</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>2</v>
@@ -8790,7 +8791,7 @@
       </c>
       <c r="V116" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[114].INST_decoupling_cap_filler 13691.9 0.0 R0</v>
+        <v>placeInstance FILLER[114].INST_decoupling_cap_filler 13711.9 0.0 R0</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
@@ -8820,7 +8821,7 @@
       </c>
       <c r="I117">
         <f t="shared" si="11"/>
-        <v>13831.9</v>
+        <v>13851.9</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>2</v>
@@ -8830,7 +8831,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[40].INST_PAD_DVSS 13831.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[40].INST_PAD_DVSS 13851.9 0.0 R0</v>
       </c>
       <c r="M117" s="7" t="s">
         <v>54</v>
@@ -8852,7 +8853,7 @@
       </c>
       <c r="S117">
         <f t="shared" si="12"/>
-        <v>13811.9</v>
+        <v>13831.9</v>
       </c>
       <c r="T117" s="2" t="s">
         <v>2</v>
@@ -8862,7 +8863,7 @@
       </c>
       <c r="V117" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[115].INST_decoupling_cap_filler 13811.9 0.0 R0</v>
+        <v>placeInstance FILLER[115].INST_decoupling_cap_filler 13831.9 0.0 R0</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
@@ -8894,7 +8895,7 @@
       </c>
       <c r="I118">
         <f t="shared" si="11"/>
-        <v>13951.9</v>
+        <v>13971.9</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>2</v>
@@ -8904,7 +8905,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[41].INST_PAD_DVDD 13951.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[41].INST_PAD_DVDD 13971.9 0.0 R0</v>
       </c>
       <c r="M118" s="7" t="s">
         <v>54</v>
@@ -8926,7 +8927,7 @@
       </c>
       <c r="S118">
         <f t="shared" si="12"/>
-        <v>13931.9</v>
+        <v>13951.9</v>
       </c>
       <c r="T118" s="2" t="s">
         <v>2</v>
@@ -8936,7 +8937,7 @@
       </c>
       <c r="V118" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[116].INST_decoupling_cap_filler 13931.9 0.0 R0</v>
+        <v>placeInstance FILLER[116].INST_decoupling_cap_filler 13951.9 0.0 R0</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -8968,7 +8969,7 @@
       </c>
       <c r="I119">
         <f t="shared" si="11"/>
-        <v>14071.9</v>
+        <v>14091.9</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>2</v>
@@ -8978,7 +8979,7 @@
       </c>
       <c r="L119" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[41].INST_PAD_DVSS 14071.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[41].INST_PAD_DVSS 14091.9 0.0 R0</v>
       </c>
       <c r="M119" s="7" t="s">
         <v>54</v>
@@ -9000,7 +9001,7 @@
       </c>
       <c r="S119">
         <f t="shared" si="12"/>
-        <v>14051.9</v>
+        <v>14071.9</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>2</v>
@@ -9010,7 +9011,7 @@
       </c>
       <c r="V119" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[117].INST_decoupling_cap_filler 14051.9 0.0 R0</v>
+        <v>placeInstance FILLER[117].INST_decoupling_cap_filler 14071.9 0.0 R0</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
@@ -9042,7 +9043,7 @@
       </c>
       <c r="I120">
         <f t="shared" si="11"/>
-        <v>14191.9</v>
+        <v>14211.9</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>2</v>
@@ -9052,7 +9053,7 @@
       </c>
       <c r="L120" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[42].INST_PAD_DVDD 14191.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[42].INST_PAD_DVDD 14211.9 0.0 R0</v>
       </c>
       <c r="M120" s="7" t="s">
         <v>54</v>
@@ -9074,7 +9075,7 @@
       </c>
       <c r="S120">
         <f t="shared" si="12"/>
-        <v>14171.9</v>
+        <v>14191.9</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>2</v>
@@ -9084,7 +9085,7 @@
       </c>
       <c r="V120" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[118].INST_decoupling_cap_filler 14171.9 0.0 R0</v>
+        <v>placeInstance FILLER[118].INST_decoupling_cap_filler 14191.9 0.0 R0</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
@@ -9116,7 +9117,7 @@
       </c>
       <c r="I121">
         <f t="shared" si="11"/>
-        <v>14311.9</v>
+        <v>14331.9</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>2</v>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[42].INST_PAD_DVSS 14311.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[42].INST_PAD_DVSS 14331.9 0.0 R0</v>
       </c>
       <c r="M121" s="7" t="s">
         <v>54</v>
@@ -9148,7 +9149,7 @@
       </c>
       <c r="S121">
         <f t="shared" si="12"/>
-        <v>14291.9</v>
+        <v>14311.9</v>
       </c>
       <c r="T121" s="2" t="s">
         <v>2</v>
@@ -9158,7 +9159,7 @@
       </c>
       <c r="V121" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[119].INST_decoupling_cap_filler 14291.9 0.0 R0</v>
+        <v>placeInstance FILLER[119].INST_decoupling_cap_filler 14311.9 0.0 R0</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
@@ -9190,7 +9191,7 @@
       </c>
       <c r="I122">
         <f t="shared" si="11"/>
-        <v>14431.9</v>
+        <v>14451.9</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>2</v>
@@ -9200,7 +9201,7 @@
       </c>
       <c r="L122" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[43].INST_PAD_DVDD 14431.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[43].INST_PAD_DVDD 14451.9 0.0 R0</v>
       </c>
       <c r="M122" s="7" t="s">
         <v>54</v>
@@ -9222,7 +9223,7 @@
       </c>
       <c r="S122">
         <f t="shared" si="12"/>
-        <v>14411.9</v>
+        <v>14431.9</v>
       </c>
       <c r="T122" s="2" t="s">
         <v>2</v>
@@ -9232,7 +9233,7 @@
       </c>
       <c r="V122" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[120].INST_decoupling_cap_filler 14411.9 0.0 R0</v>
+        <v>placeInstance FILLER[120].INST_decoupling_cap_filler 14431.9 0.0 R0</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
@@ -9264,7 +9265,7 @@
       </c>
       <c r="I123">
         <f t="shared" si="11"/>
-        <v>14551.9</v>
+        <v>14571.9</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>2</v>
@@ -9274,7 +9275,7 @@
       </c>
       <c r="L123" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[43].INST_PAD_DVSS 14551.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[43].INST_PAD_DVSS 14571.9 0.0 R0</v>
       </c>
       <c r="M123" s="7" t="s">
         <v>54</v>
@@ -9296,7 +9297,7 @@
       </c>
       <c r="S123">
         <f t="shared" si="12"/>
-        <v>14531.9</v>
+        <v>14551.9</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>2</v>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="V123" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[121].INST_decoupling_cap_filler 14531.9 0.0 R0</v>
+        <v>placeInstance FILLER[121].INST_decoupling_cap_filler 14551.9 0.0 R0</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
@@ -9338,7 +9339,7 @@
       </c>
       <c r="I124">
         <f t="shared" si="11"/>
-        <v>14671.9</v>
+        <v>14691.9</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>2</v>
@@ -9348,7 +9349,7 @@
       </c>
       <c r="L124" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[44].INST_PAD_DVDD 14671.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[44].INST_PAD_DVDD 14691.9 0.0 R0</v>
       </c>
       <c r="M124" s="7" t="s">
         <v>54</v>
@@ -9370,7 +9371,7 @@
       </c>
       <c r="S124">
         <f t="shared" si="12"/>
-        <v>14651.9</v>
+        <v>14671.9</v>
       </c>
       <c r="T124" s="2" t="s">
         <v>2</v>
@@ -9380,7 +9381,7 @@
       </c>
       <c r="V124" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[122].INST_decoupling_cap_filler 14651.9 0.0 R0</v>
+        <v>placeInstance FILLER[122].INST_decoupling_cap_filler 14671.9 0.0 R0</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
@@ -9412,7 +9413,7 @@
       </c>
       <c r="I125">
         <f t="shared" si="11"/>
-        <v>14791.9</v>
+        <v>14811.9</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>2</v>
@@ -9422,7 +9423,7 @@
       </c>
       <c r="L125" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[44].INST_PAD_DVSS 14791.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[44].INST_PAD_DVSS 14811.9 0.0 R0</v>
       </c>
       <c r="M125" s="7" t="s">
         <v>54</v>
@@ -9444,7 +9445,7 @@
       </c>
       <c r="S125">
         <f t="shared" si="12"/>
-        <v>14771.9</v>
+        <v>14791.9</v>
       </c>
       <c r="T125" s="2" t="s">
         <v>2</v>
@@ -9454,7 +9455,7 @@
       </c>
       <c r="V125" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[123].INST_decoupling_cap_filler 14771.9 0.0 R0</v>
+        <v>placeInstance FILLER[123].INST_decoupling_cap_filler 14791.9 0.0 R0</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -9486,7 +9487,7 @@
       </c>
       <c r="I126">
         <f t="shared" si="11"/>
-        <v>14911.9</v>
+        <v>14931.9</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>2</v>
@@ -9496,7 +9497,7 @@
       </c>
       <c r="L126" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[45].INST_PAD_DVDD 14911.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[45].INST_PAD_DVDD 14931.9 0.0 R0</v>
       </c>
       <c r="M126" s="7" t="s">
         <v>54</v>
@@ -9518,7 +9519,7 @@
       </c>
       <c r="S126">
         <f t="shared" si="12"/>
-        <v>14891.9</v>
+        <v>14911.9</v>
       </c>
       <c r="T126" s="2" t="s">
         <v>2</v>
@@ -9528,7 +9529,7 @@
       </c>
       <c r="V126" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[124].INST_decoupling_cap_filler 14891.9 0.0 R0</v>
+        <v>placeInstance FILLER[124].INST_decoupling_cap_filler 14911.9 0.0 R0</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -9560,7 +9561,7 @@
       </c>
       <c r="I127">
         <f t="shared" si="11"/>
-        <v>15031.9</v>
+        <v>15051.9</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>2</v>
@@ -9570,7 +9571,7 @@
       </c>
       <c r="L127" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[45].INST_PAD_DVSS 15031.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[45].INST_PAD_DVSS 15051.9 0.0 R0</v>
       </c>
       <c r="M127" s="7" t="s">
         <v>54</v>
@@ -9592,7 +9593,7 @@
       </c>
       <c r="S127">
         <f t="shared" si="12"/>
-        <v>15011.9</v>
+        <v>15031.9</v>
       </c>
       <c r="T127" s="2" t="s">
         <v>2</v>
@@ -9602,7 +9603,7 @@
       </c>
       <c r="V127" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[125].INST_decoupling_cap_filler 15011.9 0.0 R0</v>
+        <v>placeInstance FILLER[125].INST_decoupling_cap_filler 15031.9 0.0 R0</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -9634,7 +9635,7 @@
       </c>
       <c r="I128">
         <f t="shared" si="11"/>
-        <v>15151.9</v>
+        <v>15171.9</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>2</v>
@@ -9644,7 +9645,7 @@
       </c>
       <c r="L128" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[46].INST_PAD_DVDD 15151.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[46].INST_PAD_DVDD 15171.9 0.0 R0</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>54</v>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="S128">
         <f t="shared" si="12"/>
-        <v>15131.9</v>
+        <v>15151.9</v>
       </c>
       <c r="T128" s="2" t="s">
         <v>2</v>
@@ -9676,7 +9677,7 @@
       </c>
       <c r="V128" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[126].INST_decoupling_cap_filler 15131.9 0.0 R0</v>
+        <v>placeInstance FILLER[126].INST_decoupling_cap_filler 15151.9 0.0 R0</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -9708,7 +9709,7 @@
       </c>
       <c r="I129">
         <f t="shared" si="11"/>
-        <v>15271.9</v>
+        <v>15291.9</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>2</v>
@@ -9718,7 +9719,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[46].INST_PAD_DVSS 15271.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[46].INST_PAD_DVSS 15291.9 0.0 R0</v>
       </c>
       <c r="M129" s="7" t="s">
         <v>54</v>
@@ -9740,7 +9741,7 @@
       </c>
       <c r="S129">
         <f t="shared" si="12"/>
-        <v>15251.9</v>
+        <v>15271.9</v>
       </c>
       <c r="T129" s="2" t="s">
         <v>2</v>
@@ -9750,7 +9751,7 @@
       </c>
       <c r="V129" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15251.9 0.0 R0</v>
+        <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15271.9 0.0 R0</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -9782,7 +9783,7 @@
       </c>
       <c r="I130">
         <f t="shared" si="11"/>
-        <v>15391.9</v>
+        <v>15411.9</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>2</v>
@@ -9792,7 +9793,7 @@
       </c>
       <c r="L130" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[47].INST_PAD_DVDD 15391.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[47].INST_PAD_DVDD 15411.9 0.0 R0</v>
       </c>
       <c r="M130" s="7" t="s">
         <v>54</v>
@@ -9814,7 +9815,7 @@
       </c>
       <c r="S130">
         <f t="shared" si="12"/>
-        <v>15371.9</v>
+        <v>15391.9</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>2</v>
@@ -9824,7 +9825,7 @@
       </c>
       <c r="V130" t="str">
         <f t="shared" ref="V130:V154" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
-        <v>placeInstance FILLER[128].INST_decoupling_cap_filler 15371.9 0.0 R0</v>
+        <v>placeInstance FILLER[128].INST_decoupling_cap_filler 15391.9 0.0 R0</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
@@ -9856,7 +9857,7 @@
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I152" si="20">I130+120</f>
-        <v>15511.9</v>
+        <v>15531.9</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>2</v>
@@ -9866,7 +9867,7 @@
       </c>
       <c r="L131" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[47].INST_PAD_DVSS 15511.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[47].INST_PAD_DVSS 15531.9 0.0 R0</v>
       </c>
       <c r="M131" s="7" t="s">
         <v>54</v>
@@ -9888,7 +9889,7 @@
       </c>
       <c r="S131">
         <f t="shared" ref="S131:S154" si="21">I130+100</f>
-        <v>15491.9</v>
+        <v>15511.9</v>
       </c>
       <c r="T131" s="2" t="s">
         <v>2</v>
@@ -9898,7 +9899,7 @@
       </c>
       <c r="V131" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[129].INST_decoupling_cap_filler 15491.9 0.0 R0</v>
+        <v>placeInstance FILLER[129].INST_decoupling_cap_filler 15511.9 0.0 R0</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
@@ -9930,7 +9931,7 @@
       </c>
       <c r="I132">
         <f t="shared" si="20"/>
-        <v>15631.9</v>
+        <v>15651.9</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>2</v>
@@ -9940,7 +9941,7 @@
       </c>
       <c r="L132" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[48].INST_PAD_DVDD 15631.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[48].INST_PAD_DVDD 15651.9 0.0 R0</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>54</v>
@@ -9962,7 +9963,7 @@
       </c>
       <c r="S132">
         <f t="shared" si="21"/>
-        <v>15611.9</v>
+        <v>15631.9</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>2</v>
@@ -9972,7 +9973,7 @@
       </c>
       <c r="V132" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[130].INST_decoupling_cap_filler 15611.9 0.0 R0</v>
+        <v>placeInstance FILLER[130].INST_decoupling_cap_filler 15631.9 0.0 R0</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -10004,7 +10005,7 @@
       </c>
       <c r="I133">
         <f t="shared" si="20"/>
-        <v>15751.9</v>
+        <v>15771.9</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>2</v>
@@ -10014,7 +10015,7 @@
       </c>
       <c r="L133" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[48].INST_PAD_DVSS 15751.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[48].INST_PAD_DVSS 15771.9 0.0 R0</v>
       </c>
       <c r="M133" s="7" t="s">
         <v>54</v>
@@ -10036,7 +10037,7 @@
       </c>
       <c r="S133">
         <f t="shared" si="21"/>
-        <v>15731.9</v>
+        <v>15751.9</v>
       </c>
       <c r="T133" s="2" t="s">
         <v>2</v>
@@ -10046,7 +10047,7 @@
       </c>
       <c r="V133" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[131].INST_decoupling_cap_filler 15731.9 0.0 R0</v>
+        <v>placeInstance FILLER[131].INST_decoupling_cap_filler 15751.9 0.0 R0</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -10078,7 +10079,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="20"/>
-        <v>15871.9</v>
+        <v>15891.9</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>2</v>
@@ -10088,7 +10089,7 @@
       </c>
       <c r="L134" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[49].INST_PAD_DVDD 15871.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[49].INST_PAD_DVDD 15891.9 0.0 R0</v>
       </c>
       <c r="M134" s="7" t="s">
         <v>54</v>
@@ -10110,7 +10111,7 @@
       </c>
       <c r="S134">
         <f t="shared" si="21"/>
-        <v>15851.9</v>
+        <v>15871.9</v>
       </c>
       <c r="T134" s="2" t="s">
         <v>2</v>
@@ -10120,7 +10121,7 @@
       </c>
       <c r="V134" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[132].INST_decoupling_cap_filler 15851.9 0.0 R0</v>
+        <v>placeInstance FILLER[132].INST_decoupling_cap_filler 15871.9 0.0 R0</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -10152,7 +10153,7 @@
       </c>
       <c r="I135">
         <f t="shared" si="20"/>
-        <v>15991.9</v>
+        <v>16011.9</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>2</v>
@@ -10162,7 +10163,7 @@
       </c>
       <c r="L135" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[49].INST_PAD_DVSS 15991.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[49].INST_PAD_DVSS 16011.9 0.0 R0</v>
       </c>
       <c r="M135" s="7" t="s">
         <v>54</v>
@@ -10184,7 +10185,7 @@
       </c>
       <c r="S135">
         <f t="shared" si="21"/>
-        <v>15971.9</v>
+        <v>15991.9</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>2</v>
@@ -10194,7 +10195,7 @@
       </c>
       <c r="V135" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[133].INST_decoupling_cap_filler 15971.9 0.0 R0</v>
+        <v>placeInstance FILLER[133].INST_decoupling_cap_filler 15991.9 0.0 R0</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
@@ -10226,7 +10227,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="20"/>
-        <v>16111.9</v>
+        <v>16131.9</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>2</v>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="L136" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[50].INST_PAD_DVDD 16111.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[50].INST_PAD_DVDD 16131.9 0.0 R0</v>
       </c>
       <c r="M136" s="7" t="s">
         <v>54</v>
@@ -10258,7 +10259,7 @@
       </c>
       <c r="S136">
         <f t="shared" si="21"/>
-        <v>16091.9</v>
+        <v>16111.9</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>2</v>
@@ -10268,7 +10269,7 @@
       </c>
       <c r="V136" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[134].INST_decoupling_cap_filler 16091.9 0.0 R0</v>
+        <v>placeInstance FILLER[134].INST_decoupling_cap_filler 16111.9 0.0 R0</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
@@ -10300,7 +10301,7 @@
       </c>
       <c r="I137">
         <f t="shared" si="20"/>
-        <v>16231.9</v>
+        <v>16251.9</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>2</v>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="L137" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[50].INST_PAD_DVSS 16231.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[50].INST_PAD_DVSS 16251.9 0.0 R0</v>
       </c>
       <c r="M137" s="7" t="s">
         <v>54</v>
@@ -10332,7 +10333,7 @@
       </c>
       <c r="S137">
         <f t="shared" si="21"/>
-        <v>16211.9</v>
+        <v>16231.9</v>
       </c>
       <c r="T137" s="2" t="s">
         <v>2</v>
@@ -10342,7 +10343,7 @@
       </c>
       <c r="V137" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[135].INST_decoupling_cap_filler 16211.9 0.0 R0</v>
+        <v>placeInstance FILLER[135].INST_decoupling_cap_filler 16231.9 0.0 R0</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
@@ -10366,7 +10367,7 @@
       </c>
       <c r="I138">
         <f t="shared" si="20"/>
-        <v>16351.9</v>
+        <v>16371.9</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>2</v>
@@ -10376,7 +10377,7 @@
       </c>
       <c r="L138" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance PAD_READ_HV 16351.9 0.0 R0</v>
+        <v>placeInstance PAD_READ_HV 16371.9 0.0 R0</v>
       </c>
       <c r="M138" s="7" t="s">
         <v>54</v>
@@ -10398,7 +10399,7 @@
       </c>
       <c r="S138">
         <f t="shared" si="21"/>
-        <v>16331.9</v>
+        <v>16351.9</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>2</v>
@@ -10408,7 +10409,7 @@
       </c>
       <c r="V138" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[136].INST_decoupling_cap_filler 16331.9 0.0 R0</v>
+        <v>placeInstance FILLER[136].INST_decoupling_cap_filler 16351.9 0.0 R0</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
@@ -10438,7 +10439,7 @@
       </c>
       <c r="I139">
         <f t="shared" si="20"/>
-        <v>16471.900000000001</v>
+        <v>16491.900000000001</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>2</v>
@@ -10448,7 +10449,7 @@
       </c>
       <c r="L139" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[51].INST_PAD_DVDD 16471.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[51].INST_PAD_DVDD 16491.9 0.0 R0</v>
       </c>
       <c r="M139" s="7" t="s">
         <v>54</v>
@@ -10470,7 +10471,7 @@
       </c>
       <c r="S139">
         <f t="shared" si="21"/>
-        <v>16451.900000000001</v>
+        <v>16471.900000000001</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>2</v>
@@ -10480,7 +10481,7 @@
       </c>
       <c r="V139" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[137].INST_decoupling_cap_filler 16451.9 0.0 R0</v>
+        <v>placeInstance FILLER[137].INST_decoupling_cap_filler 16471.9 0.0 R0</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
@@ -10504,7 +10505,7 @@
       </c>
       <c r="I140">
         <f t="shared" si="20"/>
-        <v>16591.900000000001</v>
+        <v>16611.900000000001</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>2</v>
@@ -10514,7 +10515,7 @@
       </c>
       <c r="L140" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance PAD_FREEZE_HV 16591.9 0.0 R0</v>
+        <v>placeInstance PAD_FREEZE_HV 16611.9 0.0 R0</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>54</v>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="S140">
         <f t="shared" si="21"/>
-        <v>16571.900000000001</v>
+        <v>16591.900000000001</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>2</v>
@@ -10546,7 +10547,7 @@
       </c>
       <c r="V140" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[138].INST_decoupling_cap_filler 16571.9 0.0 R0</v>
+        <v>placeInstance FILLER[138].INST_decoupling_cap_filler 16591.9 0.0 R0</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
@@ -10576,7 +10577,7 @@
       </c>
       <c r="I141">
         <f t="shared" si="20"/>
-        <v>16711.900000000001</v>
+        <v>16731.900000000001</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>2</v>
@@ -10586,7 +10587,7 @@
       </c>
       <c r="L141" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[51].INST_PAD_DVSS 16711.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[51].INST_PAD_DVSS 16731.9 0.0 R0</v>
       </c>
       <c r="M141" s="7" t="s">
         <v>54</v>
@@ -10608,7 +10609,7 @@
       </c>
       <c r="S141">
         <f t="shared" si="21"/>
-        <v>16691.900000000001</v>
+        <v>16711.900000000001</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>2</v>
@@ -10618,7 +10619,7 @@
       </c>
       <c r="V141" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[139].INST_decoupling_cap_filler 16691.9 0.0 R0</v>
+        <v>placeInstance FILLER[139].INST_decoupling_cap_filler 16711.9 0.0 R0</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -10642,7 +10643,7 @@
       </c>
       <c r="I142">
         <f t="shared" si="20"/>
-        <v>16831.900000000001</v>
+        <v>16851.900000000001</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>2</v>
@@ -10652,7 +10653,7 @@
       </c>
       <c r="L142" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance PAD_TOKEN_HV 16831.9 0.0 R0</v>
+        <v>placeInstance PAD_TOKEN_HV 16851.9 0.0 R0</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>54</v>
@@ -10674,7 +10675,7 @@
       </c>
       <c r="S142">
         <f t="shared" si="21"/>
-        <v>16811.900000000001</v>
+        <v>16831.900000000001</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>2</v>
@@ -10684,7 +10685,7 @@
       </c>
       <c r="V142" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[140].INST_decoupling_cap_filler 16811.9 0.0 R0</v>
+        <v>placeInstance FILLER[140].INST_decoupling_cap_filler 16831.9 0.0 R0</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
@@ -10714,7 +10715,7 @@
       </c>
       <c r="I143">
         <f t="shared" si="20"/>
-        <v>16951.900000000001</v>
+        <v>16971.900000000001</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>2</v>
@@ -10724,7 +10725,7 @@
       </c>
       <c r="L143" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_P[52].INST_PAD_DVDD 16951.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[52].INST_PAD_DVDD 16971.9 0.0 R0</v>
       </c>
       <c r="M143" s="7" t="s">
         <v>54</v>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="S143">
         <f t="shared" si="21"/>
-        <v>16931.900000000001</v>
+        <v>16951.900000000001</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>2</v>
@@ -10756,7 +10757,7 @@
       </c>
       <c r="V143" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[141].INST_decoupling_cap_filler 16931.9 0.0 R0</v>
+        <v>placeInstance FILLER[141].INST_decoupling_cap_filler 16951.9 0.0 R0</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -10780,7 +10781,7 @@
       </c>
       <c r="I144">
         <f t="shared" si="20"/>
-        <v>17071.900000000001</v>
+        <v>17091.900000000001</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>2</v>
@@ -10790,7 +10791,7 @@
       </c>
       <c r="L144" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance PAD_OUT_HV 17071.9 0.0 R0</v>
+        <v>placeInstance PAD_OUT_HV 17091.9 0.0 R0</v>
       </c>
       <c r="M144" s="7" t="s">
         <v>54</v>
@@ -10812,7 +10813,7 @@
       </c>
       <c r="S144">
         <f t="shared" si="21"/>
-        <v>17051.900000000001</v>
+        <v>17071.900000000001</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>2</v>
@@ -10822,7 +10823,7 @@
       </c>
       <c r="V144" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[142].INST_decoupling_cap_filler 17051.9 0.0 R0</v>
+        <v>placeInstance FILLER[142].INST_decoupling_cap_filler 17071.9 0.0 R0</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -10852,7 +10853,7 @@
       </c>
       <c r="I145">
         <f t="shared" si="20"/>
-        <v>17191.900000000001</v>
+        <v>17211.900000000001</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>2</v>
@@ -10862,7 +10863,7 @@
       </c>
       <c r="L145" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance DIGITAL_G[52].INST_PAD_DVSS 17191.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[52].INST_PAD_DVSS 17211.9 0.0 R0</v>
       </c>
       <c r="M145" s="7" t="s">
         <v>54</v>
@@ -10884,7 +10885,7 @@
       </c>
       <c r="S145">
         <f t="shared" si="21"/>
-        <v>17171.900000000001</v>
+        <v>17191.900000000001</v>
       </c>
       <c r="T145" s="2" t="s">
         <v>2</v>
@@ -10894,7 +10895,7 @@
       </c>
       <c r="V145" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[143].INST_decoupling_cap_filler 17171.9 0.0 R0</v>
+        <v>placeInstance FILLER[143].INST_decoupling_cap_filler 17191.9 0.0 R0</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
@@ -10918,7 +10919,7 @@
       </c>
       <c r="I146">
         <f t="shared" si="20"/>
-        <v>17311.900000000001</v>
+        <v>17331.900000000001</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>2</v>
@@ -10928,7 +10929,7 @@
       </c>
       <c r="L146" t="str">
         <f t="shared" si="16"/>
-        <v>placeInstance PAD_nTOKEN_HV 17311.9 0.0 R0</v>
+        <v>placeInstance PAD_nTOKEN_HV 17331.9 0.0 R0</v>
       </c>
       <c r="M146" s="7" t="s">
         <v>54</v>
@@ -10950,7 +10951,7 @@
       </c>
       <c r="S146">
         <f t="shared" si="21"/>
-        <v>17291.900000000001</v>
+        <v>17311.900000000001</v>
       </c>
       <c r="T146" s="2" t="s">
         <v>2</v>
@@ -10960,7 +10961,7 @@
       </c>
       <c r="V146" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[144].INST_decoupling_cap_filler 17291.9 0.0 R0</v>
+        <v>placeInstance FILLER[144].INST_decoupling_cap_filler 17311.9 0.0 R0</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
@@ -10990,7 +10991,7 @@
       </c>
       <c r="I147">
         <f t="shared" si="20"/>
-        <v>17431.900000000001</v>
+        <v>17451.900000000001</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>2</v>
@@ -11000,7 +11001,7 @@
       </c>
       <c r="L147" t="str">
         <f t="shared" ref="L147:L153" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
-        <v>placeInstance DIGITAL_P[53].INST_PAD_DVDD 17431.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[53].INST_PAD_DVDD 17451.9 0.0 R0</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>54</v>
@@ -11022,7 +11023,7 @@
       </c>
       <c r="S147">
         <f t="shared" si="21"/>
-        <v>17411.900000000001</v>
+        <v>17431.900000000001</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>2</v>
@@ -11032,7 +11033,7 @@
       </c>
       <c r="V147" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[145].INST_decoupling_cap_filler 17411.9 0.0 R0</v>
+        <v>placeInstance FILLER[145].INST_decoupling_cap_filler 17431.9 0.0 R0</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -11056,7 +11057,7 @@
       </c>
       <c r="I148">
         <f t="shared" si="20"/>
-        <v>17551.900000000001</v>
+        <v>17571.900000000001</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>2</v>
@@ -11066,7 +11067,7 @@
       </c>
       <c r="L148" t="str">
         <f t="shared" si="22"/>
-        <v>placeInstance PAD_nOUT_HV 17551.9 0.0 R0</v>
+        <v>placeInstance PAD_nOUT_HV 17571.9 0.0 R0</v>
       </c>
       <c r="M148" s="7" t="s">
         <v>54</v>
@@ -11088,7 +11089,7 @@
       </c>
       <c r="S148">
         <f t="shared" si="21"/>
-        <v>17531.900000000001</v>
+        <v>17551.900000000001</v>
       </c>
       <c r="T148" s="2" t="s">
         <v>2</v>
@@ -11098,7 +11099,7 @@
       </c>
       <c r="V148" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[146].INST_decoupling_cap_filler 17531.9 0.0 R0</v>
+        <v>placeInstance FILLER[146].INST_decoupling_cap_filler 17551.9 0.0 R0</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
@@ -11128,7 +11129,7 @@
       </c>
       <c r="I149">
         <f t="shared" si="20"/>
-        <v>17671.900000000001</v>
+        <v>17691.900000000001</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>2</v>
@@ -11138,7 +11139,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" si="22"/>
-        <v>placeInstance DIGITAL_G[53].INST_PAD_DVSS 17671.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_G[53].INST_PAD_DVSS 17691.9 0.0 R0</v>
       </c>
       <c r="M149" s="7" t="s">
         <v>54</v>
@@ -11160,7 +11161,7 @@
       </c>
       <c r="S149">
         <f t="shared" si="21"/>
-        <v>17651.900000000001</v>
+        <v>17671.900000000001</v>
       </c>
       <c r="T149" s="2" t="s">
         <v>2</v>
@@ -11170,7 +11171,7 @@
       </c>
       <c r="V149" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[147].INST_decoupling_cap_filler 17651.9 0.0 R0</v>
+        <v>placeInstance FILLER[147].INST_decoupling_cap_filler 17671.9 0.0 R0</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
@@ -11194,7 +11195,7 @@
       </c>
       <c r="I150">
         <f t="shared" si="20"/>
-        <v>17791.900000000001</v>
+        <v>17811.900000000001</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>2</v>
@@ -11204,7 +11205,7 @@
       </c>
       <c r="L150" t="str">
         <f t="shared" si="22"/>
-        <v>placeInstance PAD_HIT_OR3 17791.9 0.0 R0</v>
+        <v>placeInstance PAD_HIT_OR3 17811.9 0.0 R0</v>
       </c>
       <c r="M150" s="7" t="s">
         <v>54</v>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="S150">
         <f t="shared" si="21"/>
-        <v>17771.900000000001</v>
+        <v>17791.900000000001</v>
       </c>
       <c r="T150" s="2" t="s">
         <v>2</v>
@@ -11236,7 +11237,7 @@
       </c>
       <c r="V150" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[148].INST_decoupling_cap_filler 17771.9 0.0 R0</v>
+        <v>placeInstance FILLER[148].INST_decoupling_cap_filler 17791.9 0.0 R0</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
@@ -11266,7 +11267,7 @@
       </c>
       <c r="I151">
         <f t="shared" si="20"/>
-        <v>17911.900000000001</v>
+        <v>17931.900000000001</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>2</v>
@@ -11276,7 +11277,7 @@
       </c>
       <c r="L151" t="str">
         <f t="shared" si="22"/>
-        <v>placeInstance DIGITAL_P[54].INST_PAD_DVDD 17911.9 0.0 R0</v>
+        <v>placeInstance DIGITAL_P[54].INST_PAD_DVDD 17931.9 0.0 R0</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>54</v>
@@ -11298,7 +11299,7 @@
       </c>
       <c r="S151">
         <f t="shared" si="21"/>
-        <v>17891.900000000001</v>
+        <v>17911.900000000001</v>
       </c>
       <c r="T151" s="2" t="s">
         <v>2</v>
@@ -11308,7 +11309,7 @@
       </c>
       <c r="V151" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[149].INST_decoupling_cap_filler 17891.9 0.0 R0</v>
+        <v>placeInstance FILLER[149].INST_decoupling_cap_filler 17911.9 0.0 R0</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
@@ -11332,7 +11333,7 @@
       </c>
       <c r="I152">
         <f t="shared" si="20"/>
-        <v>18031.900000000001</v>
+        <v>18051.900000000001</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>2</v>
@@ -11342,7 +11343,7 @@
       </c>
       <c r="L152" t="str">
         <f t="shared" si="22"/>
-        <v>placeInstance PAD_nHIT_OR3 18031.9 0.0 R0</v>
+        <v>placeInstance PAD_nHIT_OR3 18051.9 0.0 R0</v>
       </c>
       <c r="M152" s="7" t="s">
         <v>54</v>
@@ -11364,7 +11365,7 @@
       </c>
       <c r="S152">
         <f t="shared" si="21"/>
-        <v>18011.900000000001</v>
+        <v>18031.900000000001</v>
       </c>
       <c r="T152" s="2" t="s">
         <v>2</v>
@@ -11374,44 +11375,25 @@
       </c>
       <c r="V152" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[150].INST_decoupling_cap_filler 18011.9 0.0 R0</v>
+        <v>placeInstance FILLER[150].INST_decoupling_cap_filler 18031.9 0.0 R0</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="8"/>
-      <c r="C153" s="11">
-        <v>16</v>
-      </c>
-      <c r="D153" s="10">
-        <v>38</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1</v>
-      </c>
-      <c r="F153" t="s">
-        <v>58</v>
-      </c>
-      <c r="G153">
-        <v>54</v>
-      </c>
-      <c r="H153" t="s">
-        <v>4</v>
-      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
       <c r="I153">
-        <f>I152+120</f>
-        <v>18151.900000000001</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K153" t="s">
-        <v>3</v>
-      </c>
-      <c r="L153" t="str">
-        <f t="shared" si="22"/>
-        <v>placeInstance DIGITAL_G[54].INST_PAD_DVSS 18151.9 0.0 R0</v>
-      </c>
+        <f>I152+100+31.9</f>
+        <v>18183.800000000003</v>
+      </c>
+      <c r="J153" s="9"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
       <c r="M153" s="7" t="s">
         <v>54</v>
       </c>
@@ -11432,7 +11414,7 @@
       </c>
       <c r="S153">
         <f t="shared" si="21"/>
-        <v>18131.900000000001</v>
+        <v>18151.900000000001</v>
       </c>
       <c r="T153" s="2" t="s">
         <v>2</v>
@@ -11442,50 +11424,24 @@
       </c>
       <c r="V153" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[151].INST_decoupling_cap_filler 18131.9 0.0 R0</v>
+        <v>placeInstance FILLER[151].INST_decoupling_cap_filler 18151.9 0.0 R0</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="I154">
-        <f>I153-20+31.9</f>
-        <v>18163.800000000003</v>
-      </c>
       <c r="J154" s="2"/>
-      <c r="M154" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N154" s="8">
-        <v>153</v>
-      </c>
-      <c r="O154" t="s">
-        <v>1</v>
-      </c>
-      <c r="P154" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q154" s="8">
-        <v>152</v>
-      </c>
-      <c r="R154" t="s">
-        <v>56</v>
-      </c>
-      <c r="S154">
-        <f t="shared" si="21"/>
-        <v>18251.900000000001</v>
-      </c>
-      <c r="T154" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U154" t="s">
-        <v>3</v>
-      </c>
-      <c r="V154" t="str">
-        <f t="shared" si="19"/>
-        <v>placeInstance FILLER[152].INST_decoupling_cap_filler 18251.9 0.0 R0</v>
-      </c>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="9"/>
+      <c r="U154" s="8"/>
+      <c r="V154" s="8"/>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>

--- a/source/PADS/pad_positions_bottom.xlsx
+++ b/source/PADS/pad_positions_bottom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="59">
   <si>
     <t xml:space="preserve">].INST_PAD_DVDD </t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V153"/>
+    <sheetView tabSelected="1" topLeftCell="J130" workbookViewId="0">
+      <selection activeCell="O163" sqref="O163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,38 +671,10 @@
         <f t="shared" ref="L2:L50" si="0">CONCATENATE(E2,F2,G2,H2,I2,J2,K2)</f>
         <v>placeInstance DIGITAL_P[0].INST_PAD_DVDD 51.9 0.0 R0</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2">
-        <f>S3-120</f>
-        <v>31.900000000000006</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" t="str">
-        <f t="shared" ref="V2:V34" si="1">CONCATENATE(O2,P2,Q2,R2,S2,T2,U2)</f>
-        <v>placeInstance FILLER[0].INST_decoupling_cap_filler 31.9 0.0 R0</v>
-      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -730,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">I2+120</f>
+        <f t="shared" ref="I3:I66" si="1">I2+120</f>
         <v>171.9</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -747,7 +719,7 @@
         <v>54</v>
       </c>
       <c r="N3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>1</v>
@@ -756,13 +728,13 @@
         <v>55</v>
       </c>
       <c r="Q3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="s">
         <v>56</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="3">I2+100</f>
+        <f t="shared" ref="S3:S66" si="2">I2+100</f>
         <v>151.9</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -772,8 +744,8 @@
         <v>3</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[1].INST_decoupling_cap_filler 151.9 0.0 R0</v>
+        <f t="shared" ref="V2:V34" si="3">CONCATENATE(O3,P3,Q3,R3,S3,T3,U3)</f>
+        <v>placeInstance FILLER[0].INST_decoupling_cap_filler 151.9 0.0 R0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -804,7 +776,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>291.89999999999998</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -821,7 +793,7 @@
         <v>54</v>
       </c>
       <c r="N4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
@@ -830,24 +802,24 @@
         <v>55</v>
       </c>
       <c r="Q4" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" t="s">
         <v>56</v>
       </c>
       <c r="S4">
+        <f t="shared" si="2"/>
+        <v>271.89999999999998</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="str">
         <f t="shared" si="3"/>
-        <v>271.89999999999998</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[2].INST_decoupling_cap_filler 271.9 0.0 R0</v>
+        <v>placeInstance FILLER[1].INST_decoupling_cap_filler 271.9 0.0 R0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -878,7 +850,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>411.9</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -895,7 +867,7 @@
         <v>54</v>
       </c>
       <c r="N5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>1</v>
@@ -904,24 +876,24 @@
         <v>55</v>
       </c>
       <c r="Q5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
       </c>
       <c r="S5">
+        <f t="shared" si="2"/>
+        <v>391.9</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="str">
         <f t="shared" si="3"/>
-        <v>391.9</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[3].INST_decoupling_cap_filler 391.9 0.0 R0</v>
+        <v>placeInstance FILLER[2].INST_decoupling_cap_filler 391.9 0.0 R0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -952,7 +924,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>531.9</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -969,7 +941,7 @@
         <v>54</v>
       </c>
       <c r="N6" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" t="s">
         <v>1</v>
@@ -978,24 +950,24 @@
         <v>55</v>
       </c>
       <c r="Q6" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
         <v>56</v>
       </c>
       <c r="S6">
+        <f t="shared" si="2"/>
+        <v>511.9</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="str">
         <f t="shared" si="3"/>
-        <v>511.9</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[4].INST_decoupling_cap_filler 511.9 0.0 R0</v>
+        <v>placeInstance FILLER[3].INST_decoupling_cap_filler 511.9 0.0 R0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1026,7 +998,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651.9</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1043,7 +1015,7 @@
         <v>54</v>
       </c>
       <c r="N7" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" t="s">
         <v>1</v>
@@ -1052,24 +1024,24 @@
         <v>55</v>
       </c>
       <c r="Q7" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
         <v>56</v>
       </c>
       <c r="S7">
+        <f t="shared" si="2"/>
+        <v>631.9</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="str">
         <f t="shared" si="3"/>
-        <v>631.9</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[5].INST_decoupling_cap_filler 631.9 0.0 R0</v>
+        <v>placeInstance FILLER[4].INST_decoupling_cap_filler 631.9 0.0 R0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1100,7 +1072,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>771.9</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1117,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="N8" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" t="s">
         <v>1</v>
@@ -1126,24 +1098,24 @@
         <v>55</v>
       </c>
       <c r="Q8" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
         <v>56</v>
       </c>
       <c r="S8">
+        <f t="shared" si="2"/>
+        <v>751.9</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="3"/>
-        <v>751.9</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[6].INST_decoupling_cap_filler 751.9 0.0 R0</v>
+        <v>placeInstance FILLER[5].INST_decoupling_cap_filler 751.9 0.0 R0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1174,7 +1146,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>891.9</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1191,7 +1163,7 @@
         <v>54</v>
       </c>
       <c r="N9" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
         <v>1</v>
@@ -1200,24 +1172,24 @@
         <v>55</v>
       </c>
       <c r="Q9" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" t="s">
         <v>56</v>
       </c>
       <c r="S9">
+        <f t="shared" si="2"/>
+        <v>871.9</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="str">
         <f t="shared" si="3"/>
-        <v>871.9</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[7].INST_decoupling_cap_filler 871.9 0.0 R0</v>
+        <v>placeInstance FILLER[6].INST_decoupling_cap_filler 871.9 0.0 R0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1248,7 +1220,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1011.9</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1265,7 +1237,7 @@
         <v>54</v>
       </c>
       <c r="N10" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
         <v>1</v>
@@ -1274,24 +1246,24 @@
         <v>55</v>
       </c>
       <c r="Q10" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R10" t="s">
         <v>56</v>
       </c>
       <c r="S10">
+        <f t="shared" si="2"/>
+        <v>991.9</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="3"/>
-        <v>991.9</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[8].INST_decoupling_cap_filler 991.9 0.0 R0</v>
+        <v>placeInstance FILLER[7].INST_decoupling_cap_filler 991.9 0.0 R0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1322,7 +1294,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1131.9000000000001</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1339,7 +1311,7 @@
         <v>54</v>
       </c>
       <c r="N11" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
         <v>1</v>
@@ -1348,24 +1320,24 @@
         <v>55</v>
       </c>
       <c r="Q11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" t="s">
         <v>56</v>
       </c>
       <c r="S11">
+        <f t="shared" si="2"/>
+        <v>1111.9000000000001</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="3"/>
-        <v>1111.9000000000001</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>3</v>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[9].INST_decoupling_cap_filler 1111.9 0.0 R0</v>
+        <v>placeInstance FILLER[8].INST_decoupling_cap_filler 1111.9 0.0 R0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1396,7 +1368,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1251.9000000000001</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1413,7 +1385,7 @@
         <v>54</v>
       </c>
       <c r="N12" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="s">
         <v>1</v>
@@ -1422,24 +1394,24 @@
         <v>55</v>
       </c>
       <c r="Q12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R12" t="s">
         <v>56</v>
       </c>
       <c r="S12">
+        <f t="shared" si="2"/>
+        <v>1231.9000000000001</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="3"/>
-        <v>1231.9000000000001</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[10].INST_decoupling_cap_filler 1231.9 0.0 R0</v>
+        <v>placeInstance FILLER[9].INST_decoupling_cap_filler 1231.9 0.0 R0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1470,7 +1442,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1371.9</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1487,7 +1459,7 @@
         <v>54</v>
       </c>
       <c r="N13" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O13" t="s">
         <v>1</v>
@@ -1496,24 +1468,24 @@
         <v>55</v>
       </c>
       <c r="Q13" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13" t="s">
         <v>56</v>
       </c>
       <c r="S13">
+        <f t="shared" si="2"/>
+        <v>1351.9</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="3"/>
-        <v>1351.9</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[11].INST_decoupling_cap_filler 1351.9 0.0 R0</v>
+        <v>placeInstance FILLER[10].INST_decoupling_cap_filler 1351.9 0.0 R0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1544,7 +1516,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1491.9</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1561,7 +1533,7 @@
         <v>54</v>
       </c>
       <c r="N14" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14" t="s">
         <v>1</v>
@@ -1570,24 +1542,24 @@
         <v>55</v>
       </c>
       <c r="Q14" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R14" t="s">
         <v>56</v>
       </c>
       <c r="S14">
+        <f t="shared" si="2"/>
+        <v>1471.9</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="3"/>
-        <v>1471.9</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[12].INST_decoupling_cap_filler 1471.9 0.0 R0</v>
+        <v>placeInstance FILLER[11].INST_decoupling_cap_filler 1471.9 0.0 R0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1618,7 +1590,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1611.9</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1635,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="N15" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O15" t="s">
         <v>1</v>
@@ -1644,24 +1616,24 @@
         <v>55</v>
       </c>
       <c r="Q15" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R15" t="s">
         <v>56</v>
       </c>
       <c r="S15">
+        <f t="shared" si="2"/>
+        <v>1591.9</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="3"/>
-        <v>1591.9</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[13].INST_decoupling_cap_filler 1591.9 0.0 R0</v>
+        <v>placeInstance FILLER[12].INST_decoupling_cap_filler 1591.9 0.0 R0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1692,7 +1664,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1731.9</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1709,7 +1681,7 @@
         <v>54</v>
       </c>
       <c r="N16" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" t="s">
         <v>1</v>
@@ -1718,24 +1690,24 @@
         <v>55</v>
       </c>
       <c r="Q16" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" t="s">
         <v>56</v>
       </c>
       <c r="S16">
+        <f t="shared" si="2"/>
+        <v>1711.9</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" t="str">
         <f t="shared" si="3"/>
-        <v>1711.9</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[14].INST_decoupling_cap_filler 1711.9 0.0 R0</v>
+        <v>placeInstance FILLER[13].INST_decoupling_cap_filler 1711.9 0.0 R0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1766,7 +1738,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1851.9</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1783,7 +1755,7 @@
         <v>54</v>
       </c>
       <c r="N17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="s">
         <v>1</v>
@@ -1792,24 +1764,24 @@
         <v>55</v>
       </c>
       <c r="Q17" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" t="s">
         <v>56</v>
       </c>
       <c r="S17">
+        <f t="shared" si="2"/>
+        <v>1831.9</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" t="str">
         <f t="shared" si="3"/>
-        <v>1831.9</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[15].INST_decoupling_cap_filler 1831.9 0.0 R0</v>
+        <v>placeInstance FILLER[14].INST_decoupling_cap_filler 1831.9 0.0 R0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1840,7 +1812,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1971.9</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1857,7 +1829,7 @@
         <v>54</v>
       </c>
       <c r="N18" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O18" t="s">
         <v>1</v>
@@ -1866,24 +1838,24 @@
         <v>55</v>
       </c>
       <c r="Q18" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R18" t="s">
         <v>56</v>
       </c>
       <c r="S18">
+        <f t="shared" si="2"/>
+        <v>1951.9</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" t="str">
         <f t="shared" si="3"/>
-        <v>1951.9</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[16].INST_decoupling_cap_filler 1951.9 0.0 R0</v>
+        <v>placeInstance FILLER[15].INST_decoupling_cap_filler 1951.9 0.0 R0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1914,7 +1886,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2091.9</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1931,7 +1903,7 @@
         <v>54</v>
       </c>
       <c r="N19" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
         <v>1</v>
@@ -1940,24 +1912,24 @@
         <v>55</v>
       </c>
       <c r="Q19" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" t="s">
         <v>56</v>
       </c>
       <c r="S19">
+        <f t="shared" si="2"/>
+        <v>2071.9</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" t="str">
         <f t="shared" si="3"/>
-        <v>2071.9</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[17].INST_decoupling_cap_filler 2071.9 0.0 R0</v>
+        <v>placeInstance FILLER[16].INST_decoupling_cap_filler 2071.9 0.0 R0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1988,7 +1960,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2211.9</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -2005,7 +1977,7 @@
         <v>54</v>
       </c>
       <c r="N20" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20" t="s">
         <v>1</v>
@@ -2014,24 +1986,24 @@
         <v>55</v>
       </c>
       <c r="Q20" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R20" t="s">
         <v>56</v>
       </c>
       <c r="S20">
+        <f t="shared" si="2"/>
+        <v>2191.9</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" t="str">
         <f t="shared" si="3"/>
-        <v>2191.9</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[18].INST_decoupling_cap_filler 2191.9 0.0 R0</v>
+        <v>placeInstance FILLER[17].INST_decoupling_cap_filler 2191.9 0.0 R0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2062,7 +2034,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2331.9</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -2079,7 +2051,7 @@
         <v>54</v>
       </c>
       <c r="N21" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
         <v>1</v>
@@ -2088,24 +2060,24 @@
         <v>55</v>
       </c>
       <c r="Q21" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R21" t="s">
         <v>56</v>
       </c>
       <c r="S21">
+        <f t="shared" si="2"/>
+        <v>2311.9</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" t="str">
         <f t="shared" si="3"/>
-        <v>2311.9</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[19].INST_decoupling_cap_filler 2311.9 0.0 R0</v>
+        <v>placeInstance FILLER[18].INST_decoupling_cap_filler 2311.9 0.0 R0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2136,7 +2108,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2451.9</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -2153,7 +2125,7 @@
         <v>54</v>
       </c>
       <c r="N22" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22" t="s">
         <v>1</v>
@@ -2162,24 +2134,24 @@
         <v>55</v>
       </c>
       <c r="Q22" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" t="s">
         <v>56</v>
       </c>
       <c r="S22">
+        <f t="shared" si="2"/>
+        <v>2431.9</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" t="str">
         <f t="shared" si="3"/>
-        <v>2431.9</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U22" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[20].INST_decoupling_cap_filler 2431.9 0.0 R0</v>
+        <v>placeInstance FILLER[19].INST_decoupling_cap_filler 2431.9 0.0 R0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2210,7 +2182,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2571.9</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -2227,7 +2199,7 @@
         <v>54</v>
       </c>
       <c r="N23" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
         <v>1</v>
@@ -2236,24 +2208,24 @@
         <v>55</v>
       </c>
       <c r="Q23" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23" t="s">
         <v>56</v>
       </c>
       <c r="S23">
+        <f t="shared" si="2"/>
+        <v>2551.9</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="3"/>
-        <v>2551.9</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[21].INST_decoupling_cap_filler 2551.9 0.0 R0</v>
+        <v>placeInstance FILLER[20].INST_decoupling_cap_filler 2551.9 0.0 R0</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2284,7 +2256,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2691.9</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -2301,7 +2273,7 @@
         <v>54</v>
       </c>
       <c r="N24" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24" t="s">
         <v>1</v>
@@ -2310,24 +2282,24 @@
         <v>55</v>
       </c>
       <c r="Q24" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R24" t="s">
         <v>56</v>
       </c>
       <c r="S24">
+        <f t="shared" si="2"/>
+        <v>2671.9</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="str">
         <f t="shared" si="3"/>
-        <v>2671.9</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[22].INST_decoupling_cap_filler 2671.9 0.0 R0</v>
+        <v>placeInstance FILLER[21].INST_decoupling_cap_filler 2671.9 0.0 R0</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2350,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2811.9</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -2367,7 +2339,7 @@
         <v>54</v>
       </c>
       <c r="N25" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
         <v>1</v>
@@ -2376,24 +2348,24 @@
         <v>55</v>
       </c>
       <c r="Q25" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" t="s">
         <v>56</v>
       </c>
       <c r="S25">
+        <f t="shared" si="2"/>
+        <v>2791.9</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="3"/>
-        <v>2791.9</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[23].INST_decoupling_cap_filler 2791.9 0.0 R0</v>
+        <v>placeInstance FILLER[22].INST_decoupling_cap_filler 2791.9 0.0 R0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2422,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2931.9</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2439,7 +2411,7 @@
         <v>54</v>
       </c>
       <c r="N26" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
         <v>1</v>
@@ -2448,24 +2420,24 @@
         <v>55</v>
       </c>
       <c r="Q26" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R26" t="s">
         <v>56</v>
       </c>
       <c r="S26">
+        <f t="shared" si="2"/>
+        <v>2911.9</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="str">
         <f t="shared" si="3"/>
-        <v>2911.9</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[24].INST_decoupling_cap_filler 2911.9 0.0 R0</v>
+        <v>placeInstance FILLER[23].INST_decoupling_cap_filler 2911.9 0.0 R0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2488,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3051.9</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -2505,7 +2477,7 @@
         <v>54</v>
       </c>
       <c r="N27" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s">
         <v>1</v>
@@ -2514,24 +2486,24 @@
         <v>55</v>
       </c>
       <c r="Q27" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R27" t="s">
         <v>56</v>
       </c>
       <c r="S27">
+        <f t="shared" si="2"/>
+        <v>3031.9</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="str">
         <f t="shared" si="3"/>
-        <v>3031.9</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[25].INST_decoupling_cap_filler 3031.9 0.0 R0</v>
+        <v>placeInstance FILLER[24].INST_decoupling_cap_filler 3031.9 0.0 R0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2560,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3171.9</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -2577,7 +2549,7 @@
         <v>54</v>
       </c>
       <c r="N28" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O28" t="s">
         <v>1</v>
@@ -2586,24 +2558,24 @@
         <v>55</v>
       </c>
       <c r="Q28" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
         <v>56</v>
       </c>
       <c r="S28">
+        <f t="shared" si="2"/>
+        <v>3151.9</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" t="str">
         <f t="shared" si="3"/>
-        <v>3151.9</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" t="s">
-        <v>3</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[26].INST_decoupling_cap_filler 3151.9 0.0 R0</v>
+        <v>placeInstance FILLER[25].INST_decoupling_cap_filler 3151.9 0.0 R0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2626,7 +2598,7 @@
         <v>13</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3291.9</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -2643,7 +2615,7 @@
         <v>54</v>
       </c>
       <c r="N29" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29" t="s">
         <v>1</v>
@@ -2652,24 +2624,24 @@
         <v>55</v>
       </c>
       <c r="Q29" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R29" t="s">
         <v>56</v>
       </c>
       <c r="S29">
+        <f t="shared" si="2"/>
+        <v>3271.9</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" t="str">
         <f t="shared" si="3"/>
-        <v>3271.9</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" t="s">
-        <v>3</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[27].INST_decoupling_cap_filler 3271.9 0.0 R0</v>
+        <v>placeInstance FILLER[26].INST_decoupling_cap_filler 3271.9 0.0 R0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2698,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3411.9</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -2715,7 +2687,7 @@
         <v>54</v>
       </c>
       <c r="N30" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O30" t="s">
         <v>1</v>
@@ -2724,24 +2696,24 @@
         <v>55</v>
       </c>
       <c r="Q30" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R30" t="s">
         <v>56</v>
       </c>
       <c r="S30">
+        <f t="shared" si="2"/>
+        <v>3391.9</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" t="str">
         <f t="shared" si="3"/>
-        <v>3391.9</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" t="s">
-        <v>3</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[28].INST_decoupling_cap_filler 3391.9 0.0 R0</v>
+        <v>placeInstance FILLER[27].INST_decoupling_cap_filler 3391.9 0.0 R0</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2764,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3531.9</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -2781,7 +2753,7 @@
         <v>54</v>
       </c>
       <c r="N31" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
         <v>1</v>
@@ -2790,24 +2762,24 @@
         <v>55</v>
       </c>
       <c r="Q31" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R31" t="s">
         <v>56</v>
       </c>
       <c r="S31">
+        <f t="shared" si="2"/>
+        <v>3511.9</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" t="str">
         <f t="shared" si="3"/>
-        <v>3511.9</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" t="s">
-        <v>3</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[29].INST_decoupling_cap_filler 3511.9 0.0 R0</v>
+        <v>placeInstance FILLER[28].INST_decoupling_cap_filler 3511.9 0.0 R0</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2836,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3651.9</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -2853,7 +2825,7 @@
         <v>54</v>
       </c>
       <c r="N32" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O32" t="s">
         <v>1</v>
@@ -2862,24 +2834,24 @@
         <v>55</v>
       </c>
       <c r="Q32" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R32" t="s">
         <v>56</v>
       </c>
       <c r="S32">
+        <f t="shared" si="2"/>
+        <v>3631.9</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" t="str">
         <f t="shared" si="3"/>
-        <v>3631.9</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[30].INST_decoupling_cap_filler 3631.9 0.0 R0</v>
+        <v>placeInstance FILLER[29].INST_decoupling_cap_filler 3631.9 0.0 R0</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -2902,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3771.9</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -2919,7 +2891,7 @@
         <v>54</v>
       </c>
       <c r="N33" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" t="s">
         <v>1</v>
@@ -2928,24 +2900,24 @@
         <v>55</v>
       </c>
       <c r="Q33" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R33" t="s">
         <v>56</v>
       </c>
       <c r="S33">
+        <f t="shared" si="2"/>
+        <v>3751.9</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" t="str">
         <f t="shared" si="3"/>
-        <v>3751.9</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[31].INST_decoupling_cap_filler 3751.9 0.0 R0</v>
+        <v>placeInstance FILLER[30].INST_decoupling_cap_filler 3751.9 0.0 R0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2974,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3891.9</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2991,7 +2963,7 @@
         <v>54</v>
       </c>
       <c r="N34" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O34" t="s">
         <v>1</v>
@@ -3000,24 +2972,24 @@
         <v>55</v>
       </c>
       <c r="Q34" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" t="s">
         <v>56</v>
       </c>
       <c r="S34">
+        <f t="shared" si="2"/>
+        <v>3871.9</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" t="str">
         <f t="shared" si="3"/>
-        <v>3871.9</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U34" t="s">
-        <v>3</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="1"/>
-        <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3871.9 0.0 R0</v>
+        <v>placeInstance FILLER[31].INST_decoupling_cap_filler 3871.9 0.0 R0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -3040,7 +3012,7 @@
         <v>16</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4011.9</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -3057,7 +3029,7 @@
         <v>54</v>
       </c>
       <c r="N35" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O35" t="s">
         <v>1</v>
@@ -3066,13 +3038,13 @@
         <v>55</v>
       </c>
       <c r="Q35" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R35" t="s">
         <v>56</v>
       </c>
       <c r="S35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3991.9</v>
       </c>
       <c r="T35" s="2" t="s">
@@ -3083,7 +3055,7 @@
       </c>
       <c r="V35" t="str">
         <f t="shared" ref="V35:V65" si="6">CONCATENATE(O35,P35,Q35,R35,S35,T35,U35)</f>
-        <v>placeInstance FILLER[33].INST_decoupling_cap_filler 3991.9 0.0 R0</v>
+        <v>placeInstance FILLER[32].INST_decoupling_cap_filler 3991.9 0.0 R0</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -3112,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4131.8999999999996</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -3129,7 +3101,7 @@
         <v>54</v>
       </c>
       <c r="N36" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
         <v>1</v>
@@ -3138,13 +3110,13 @@
         <v>55</v>
       </c>
       <c r="Q36" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R36" t="s">
         <v>56</v>
       </c>
       <c r="S36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4111.8999999999996</v>
       </c>
       <c r="T36" s="2" t="s">
@@ -3155,7 +3127,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[34].INST_decoupling_cap_filler 4111.9 0.0 R0</v>
+        <v>placeInstance FILLER[33].INST_decoupling_cap_filler 4111.9 0.0 R0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3178,7 +3150,7 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4251.8999999999996</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -3195,7 +3167,7 @@
         <v>54</v>
       </c>
       <c r="N37" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O37" t="s">
         <v>1</v>
@@ -3204,13 +3176,13 @@
         <v>55</v>
       </c>
       <c r="Q37" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R37" t="s">
         <v>56</v>
       </c>
       <c r="S37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4231.8999999999996</v>
       </c>
       <c r="T37" s="2" t="s">
@@ -3221,7 +3193,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[35].INST_decoupling_cap_filler 4231.9 0.0 R0</v>
+        <v>placeInstance FILLER[34].INST_decoupling_cap_filler 4231.9 0.0 R0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -3250,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4371.8999999999996</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -3267,7 +3239,7 @@
         <v>54</v>
       </c>
       <c r="N38" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O38" t="s">
         <v>1</v>
@@ -3276,13 +3248,13 @@
         <v>55</v>
       </c>
       <c r="Q38" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R38" t="s">
         <v>56</v>
       </c>
       <c r="S38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4351.8999999999996</v>
       </c>
       <c r="T38" s="2" t="s">
@@ -3293,7 +3265,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[36].INST_decoupling_cap_filler 4351.9 0.0 R0</v>
+        <v>placeInstance FILLER[35].INST_decoupling_cap_filler 4351.9 0.0 R0</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -3316,7 +3288,7 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4491.8999999999996</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -3333,7 +3305,7 @@
         <v>54</v>
       </c>
       <c r="N39" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
         <v>1</v>
@@ -3342,13 +3314,13 @@
         <v>55</v>
       </c>
       <c r="Q39" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R39" t="s">
         <v>56</v>
       </c>
       <c r="S39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4471.8999999999996</v>
       </c>
       <c r="T39" s="2" t="s">
@@ -3359,7 +3331,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[37].INST_decoupling_cap_filler 4471.9 0.0 R0</v>
+        <v>placeInstance FILLER[36].INST_decoupling_cap_filler 4471.9 0.0 R0</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -3388,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4611.8999999999996</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -3405,7 +3377,7 @@
         <v>54</v>
       </c>
       <c r="N40" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O40" t="s">
         <v>1</v>
@@ -3414,13 +3386,13 @@
         <v>55</v>
       </c>
       <c r="Q40" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R40" t="s">
         <v>56</v>
       </c>
       <c r="S40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4591.8999999999996</v>
       </c>
       <c r="T40" s="2" t="s">
@@ -3431,7 +3403,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[38].INST_decoupling_cap_filler 4591.9 0.0 R0</v>
+        <v>placeInstance FILLER[37].INST_decoupling_cap_filler 4591.9 0.0 R0</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -3460,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4731.8999999999996</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -3477,7 +3449,7 @@
         <v>54</v>
       </c>
       <c r="N41" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O41" t="s">
         <v>1</v>
@@ -3486,13 +3458,13 @@
         <v>55</v>
       </c>
       <c r="Q41" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R41" t="s">
         <v>56</v>
       </c>
       <c r="S41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4711.8999999999996</v>
       </c>
       <c r="T41" s="2" t="s">
@@ -3503,7 +3475,7 @@
       </c>
       <c r="V41" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[39].INST_decoupling_cap_filler 4711.9 0.0 R0</v>
+        <v>placeInstance FILLER[38].INST_decoupling_cap_filler 4711.9 0.0 R0</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3534,7 +3506,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4851.8999999999996</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -3551,7 +3523,7 @@
         <v>54</v>
       </c>
       <c r="N42" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O42" t="s">
         <v>1</v>
@@ -3560,13 +3532,13 @@
         <v>55</v>
       </c>
       <c r="Q42" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R42" t="s">
         <v>56</v>
       </c>
       <c r="S42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4831.8999999999996</v>
       </c>
       <c r="T42" s="2" t="s">
@@ -3577,7 +3549,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[40].INST_decoupling_cap_filler 4831.9 0.0 R0</v>
+        <v>placeInstance FILLER[39].INST_decoupling_cap_filler 4831.9 0.0 R0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3608,7 +3580,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4971.8999999999996</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -3625,7 +3597,7 @@
         <v>54</v>
       </c>
       <c r="N43" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O43" t="s">
         <v>1</v>
@@ -3634,13 +3606,13 @@
         <v>55</v>
       </c>
       <c r="Q43" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R43" t="s">
         <v>56</v>
       </c>
       <c r="S43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4951.8999999999996</v>
       </c>
       <c r="T43" s="2" t="s">
@@ -3651,7 +3623,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[41].INST_decoupling_cap_filler 4951.9 0.0 R0</v>
+        <v>placeInstance FILLER[40].INST_decoupling_cap_filler 4951.9 0.0 R0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3682,7 +3654,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5091.8999999999996</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -3699,7 +3671,7 @@
         <v>54</v>
       </c>
       <c r="N44" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O44" t="s">
         <v>1</v>
@@ -3708,13 +3680,13 @@
         <v>55</v>
       </c>
       <c r="Q44" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R44" t="s">
         <v>56</v>
       </c>
       <c r="S44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5071.8999999999996</v>
       </c>
       <c r="T44" s="2" t="s">
@@ -3725,7 +3697,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[42].INST_decoupling_cap_filler 5071.9 0.0 R0</v>
+        <v>placeInstance FILLER[41].INST_decoupling_cap_filler 5071.9 0.0 R0</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3756,7 +3728,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5211.8999999999996</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -3773,7 +3745,7 @@
         <v>54</v>
       </c>
       <c r="N45" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O45" t="s">
         <v>1</v>
@@ -3782,13 +3754,13 @@
         <v>55</v>
       </c>
       <c r="Q45" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R45" t="s">
         <v>56</v>
       </c>
       <c r="S45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5191.8999999999996</v>
       </c>
       <c r="T45" s="2" t="s">
@@ -3799,7 +3771,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[43].INST_decoupling_cap_filler 5191.9 0.0 R0</v>
+        <v>placeInstance FILLER[42].INST_decoupling_cap_filler 5191.9 0.0 R0</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3830,7 +3802,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5331.9</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -3847,7 +3819,7 @@
         <v>54</v>
       </c>
       <c r="N46" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O46" t="s">
         <v>1</v>
@@ -3856,13 +3828,13 @@
         <v>55</v>
       </c>
       <c r="Q46" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R46" t="s">
         <v>56</v>
       </c>
       <c r="S46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5311.9</v>
       </c>
       <c r="T46" s="2" t="s">
@@ -3873,7 +3845,7 @@
       </c>
       <c r="V46" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[44].INST_decoupling_cap_filler 5311.9 0.0 R0</v>
+        <v>placeInstance FILLER[43].INST_decoupling_cap_filler 5311.9 0.0 R0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3904,7 +3876,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5451.9</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -3921,7 +3893,7 @@
         <v>54</v>
       </c>
       <c r="N47" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O47" t="s">
         <v>1</v>
@@ -3930,13 +3902,13 @@
         <v>55</v>
       </c>
       <c r="Q47" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R47" t="s">
         <v>56</v>
       </c>
       <c r="S47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5431.9</v>
       </c>
       <c r="T47" s="2" t="s">
@@ -3947,7 +3919,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[45].INST_decoupling_cap_filler 5431.9 0.0 R0</v>
+        <v>placeInstance FILLER[44].INST_decoupling_cap_filler 5431.9 0.0 R0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -3978,7 +3950,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5571.9</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -3995,7 +3967,7 @@
         <v>54</v>
       </c>
       <c r="N48" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O48" t="s">
         <v>1</v>
@@ -4004,13 +3976,13 @@
         <v>55</v>
       </c>
       <c r="Q48" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s">
         <v>56</v>
       </c>
       <c r="S48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5551.9</v>
       </c>
       <c r="T48" s="2" t="s">
@@ -4021,7 +3993,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[46].INST_decoupling_cap_filler 5551.9 0.0 R0</v>
+        <v>placeInstance FILLER[45].INST_decoupling_cap_filler 5551.9 0.0 R0</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -4052,7 +4024,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5691.9</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -4069,7 +4041,7 @@
         <v>54</v>
       </c>
       <c r="N49" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O49" t="s">
         <v>1</v>
@@ -4078,13 +4050,13 @@
         <v>55</v>
       </c>
       <c r="Q49" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R49" t="s">
         <v>56</v>
       </c>
       <c r="S49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5671.9</v>
       </c>
       <c r="T49" s="2" t="s">
@@ -4095,7 +4067,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[47].INST_decoupling_cap_filler 5671.9 0.0 R0</v>
+        <v>placeInstance FILLER[46].INST_decoupling_cap_filler 5671.9 0.0 R0</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -4126,7 +4098,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5811.9</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -4143,7 +4115,7 @@
         <v>54</v>
       </c>
       <c r="N50" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
         <v>1</v>
@@ -4152,13 +4124,13 @@
         <v>55</v>
       </c>
       <c r="Q50" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R50" t="s">
         <v>56</v>
       </c>
       <c r="S50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5791.9</v>
       </c>
       <c r="T50" s="2" t="s">
@@ -4169,7 +4141,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[48].INST_decoupling_cap_filler 5791.9 0.0 R0</v>
+        <v>placeInstance FILLER[47].INST_decoupling_cap_filler 5791.9 0.0 R0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4200,7 +4172,7 @@
         <v xml:space="preserve">].INST_PAD_DVSS </v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5931.9</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -4217,7 +4189,7 @@
         <v>54</v>
       </c>
       <c r="N51" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O51" t="s">
         <v>1</v>
@@ -4226,13 +4198,13 @@
         <v>55</v>
       </c>
       <c r="Q51" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R51" t="s">
         <v>56</v>
       </c>
       <c r="S51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5911.9</v>
       </c>
       <c r="T51" s="2" t="s">
@@ -4243,7 +4215,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[49].INST_decoupling_cap_filler 5911.9 0.0 R0</v>
+        <v>placeInstance FILLER[48].INST_decoupling_cap_filler 5911.9 0.0 R0</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4274,7 +4246,7 @@
         <v xml:space="preserve">].INST_PAD_DVDD </v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6051.9</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -4291,7 +4263,7 @@
         <v>54</v>
       </c>
       <c r="N52" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O52" t="s">
         <v>1</v>
@@ -4300,13 +4272,13 @@
         <v>55</v>
       </c>
       <c r="Q52" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R52" t="s">
         <v>56</v>
       </c>
       <c r="S52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6031.9</v>
       </c>
       <c r="T52" s="2" t="s">
@@ -4317,7 +4289,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[50].INST_decoupling_cap_filler 6031.9 0.0 R0</v>
+        <v>placeInstance FILLER[49].INST_decoupling_cap_filler 6031.9 0.0 R0</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -4340,7 +4312,7 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6171.9</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -4357,7 +4329,7 @@
         <v>54</v>
       </c>
       <c r="N53" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O53" t="s">
         <v>1</v>
@@ -4366,13 +4338,13 @@
         <v>55</v>
       </c>
       <c r="Q53" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R53" t="s">
         <v>56</v>
       </c>
       <c r="S53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6151.9</v>
       </c>
       <c r="T53" s="2" t="s">
@@ -4383,7 +4355,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[51].INST_decoupling_cap_filler 6151.9 0.0 R0</v>
+        <v>placeInstance FILLER[50].INST_decoupling_cap_filler 6151.9 0.0 R0</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4412,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6291.9</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -4429,7 +4401,7 @@
         <v>54</v>
       </c>
       <c r="N54" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O54" t="s">
         <v>1</v>
@@ -4438,13 +4410,13 @@
         <v>55</v>
       </c>
       <c r="Q54" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R54" t="s">
         <v>56</v>
       </c>
       <c r="S54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6271.9</v>
       </c>
       <c r="T54" s="2" t="s">
@@ -4455,7 +4427,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[52].INST_decoupling_cap_filler 6271.9 0.0 R0</v>
+        <v>placeInstance FILLER[51].INST_decoupling_cap_filler 6271.9 0.0 R0</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -4478,7 +4450,7 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6411.9</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -4495,7 +4467,7 @@
         <v>54</v>
       </c>
       <c r="N55" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O55" t="s">
         <v>1</v>
@@ -4504,13 +4476,13 @@
         <v>55</v>
       </c>
       <c r="Q55" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R55" t="s">
         <v>56</v>
       </c>
       <c r="S55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6391.9</v>
       </c>
       <c r="T55" s="2" t="s">
@@ -4521,7 +4493,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[53].INST_decoupling_cap_filler 6391.9 0.0 R0</v>
+        <v>placeInstance FILLER[52].INST_decoupling_cap_filler 6391.9 0.0 R0</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4550,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6531.9</v>
       </c>
       <c r="J56" s="2" t="s">
@@ -4567,7 +4539,7 @@
         <v>54</v>
       </c>
       <c r="N56" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O56" t="s">
         <v>1</v>
@@ -4576,13 +4548,13 @@
         <v>55</v>
       </c>
       <c r="Q56" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R56" t="s">
         <v>56</v>
       </c>
       <c r="S56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6511.9</v>
       </c>
       <c r="T56" s="2" t="s">
@@ -4593,7 +4565,7 @@
       </c>
       <c r="V56" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[54].INST_decoupling_cap_filler 6511.9 0.0 R0</v>
+        <v>placeInstance FILLER[53].INST_decoupling_cap_filler 6511.9 0.0 R0</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -4616,7 +4588,7 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6651.9</v>
       </c>
       <c r="J57" s="2" t="s">
@@ -4633,7 +4605,7 @@
         <v>54</v>
       </c>
       <c r="N57" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O57" t="s">
         <v>1</v>
@@ -4642,13 +4614,13 @@
         <v>55</v>
       </c>
       <c r="Q57" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R57" t="s">
         <v>56</v>
       </c>
       <c r="S57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6631.9</v>
       </c>
       <c r="T57" s="2" t="s">
@@ -4659,7 +4631,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[55].INST_decoupling_cap_filler 6631.9 0.0 R0</v>
+        <v>placeInstance FILLER[54].INST_decoupling_cap_filler 6631.9 0.0 R0</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -4688,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6771.9</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -4705,7 +4677,7 @@
         <v>54</v>
       </c>
       <c r="N58" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O58" t="s">
         <v>1</v>
@@ -4714,13 +4686,13 @@
         <v>55</v>
       </c>
       <c r="Q58" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R58" t="s">
         <v>56</v>
       </c>
       <c r="S58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6751.9</v>
       </c>
       <c r="T58" s="2" t="s">
@@ -4731,7 +4703,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[56].INST_decoupling_cap_filler 6751.9 0.0 R0</v>
+        <v>placeInstance FILLER[55].INST_decoupling_cap_filler 6751.9 0.0 R0</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4754,7 +4726,7 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6891.9</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -4771,7 +4743,7 @@
         <v>54</v>
       </c>
       <c r="N59" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O59" t="s">
         <v>1</v>
@@ -4780,13 +4752,13 @@
         <v>55</v>
       </c>
       <c r="Q59" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R59" t="s">
         <v>56</v>
       </c>
       <c r="S59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6871.9</v>
       </c>
       <c r="T59" s="2" t="s">
@@ -4797,7 +4769,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[57].INST_decoupling_cap_filler 6871.9 0.0 R0</v>
+        <v>placeInstance FILLER[56].INST_decoupling_cap_filler 6871.9 0.0 R0</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4826,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7011.9</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -4843,7 +4815,7 @@
         <v>54</v>
       </c>
       <c r="N60" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O60" t="s">
         <v>1</v>
@@ -4852,13 +4824,13 @@
         <v>55</v>
       </c>
       <c r="Q60" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
         <v>56</v>
       </c>
       <c r="S60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6991.9</v>
       </c>
       <c r="T60" s="2" t="s">
@@ -4869,7 +4841,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[58].INST_decoupling_cap_filler 6991.9 0.0 R0</v>
+        <v>placeInstance FILLER[57].INST_decoupling_cap_filler 6991.9 0.0 R0</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -4892,7 +4864,7 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7131.9</v>
       </c>
       <c r="J61" s="2" t="s">
@@ -4909,7 +4881,7 @@
         <v>54</v>
       </c>
       <c r="N61" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O61" t="s">
         <v>1</v>
@@ -4918,13 +4890,13 @@
         <v>55</v>
       </c>
       <c r="Q61" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R61" t="s">
         <v>56</v>
       </c>
       <c r="S61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7111.9</v>
       </c>
       <c r="T61" s="2" t="s">
@@ -4935,7 +4907,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[59].INST_decoupling_cap_filler 7111.9 0.0 R0</v>
+        <v>placeInstance FILLER[58].INST_decoupling_cap_filler 7111.9 0.0 R0</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4964,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7251.9</v>
       </c>
       <c r="J62" s="2" t="s">
@@ -4981,7 +4953,7 @@
         <v>54</v>
       </c>
       <c r="N62" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O62" t="s">
         <v>1</v>
@@ -4990,13 +4962,13 @@
         <v>55</v>
       </c>
       <c r="Q62" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R62" t="s">
         <v>56</v>
       </c>
       <c r="S62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7231.9</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -5007,7 +4979,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[60].INST_decoupling_cap_filler 7231.9 0.0 R0</v>
+        <v>placeInstance FILLER[59].INST_decoupling_cap_filler 7231.9 0.0 R0</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -5030,7 +5002,7 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7371.9</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -5047,7 +5019,7 @@
         <v>54</v>
       </c>
       <c r="N63" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O63" t="s">
         <v>1</v>
@@ -5056,13 +5028,13 @@
         <v>55</v>
       </c>
       <c r="Q63" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R63" t="s">
         <v>56</v>
       </c>
       <c r="S63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7351.9</v>
       </c>
       <c r="T63" s="2" t="s">
@@ -5073,7 +5045,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[61].INST_decoupling_cap_filler 7351.9 0.0 R0</v>
+        <v>placeInstance FILLER[60].INST_decoupling_cap_filler 7351.9 0.0 R0</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -5102,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7491.9</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -5119,7 +5091,7 @@
         <v>54</v>
       </c>
       <c r="N64" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O64" t="s">
         <v>1</v>
@@ -5128,13 +5100,13 @@
         <v>55</v>
       </c>
       <c r="Q64" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R64" t="s">
         <v>56</v>
       </c>
       <c r="S64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7471.9</v>
       </c>
       <c r="T64" s="2" t="s">
@@ -5145,7 +5117,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[62].INST_decoupling_cap_filler 7471.9 0.0 R0</v>
+        <v>placeInstance FILLER[61].INST_decoupling_cap_filler 7471.9 0.0 R0</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -5168,7 +5140,7 @@
         <v>22</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7611.9</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -5185,7 +5157,7 @@
         <v>54</v>
       </c>
       <c r="N65" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O65" t="s">
         <v>1</v>
@@ -5194,13 +5166,13 @@
         <v>55</v>
       </c>
       <c r="Q65" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R65" t="s">
         <v>56</v>
       </c>
       <c r="S65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7591.9</v>
       </c>
       <c r="T65" s="2" t="s">
@@ -5211,7 +5183,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="6"/>
-        <v>placeInstance FILLER[63].INST_decoupling_cap_filler 7591.9 0.0 R0</v>
+        <v>placeInstance FILLER[62].INST_decoupling_cap_filler 7591.9 0.0 R0</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -5240,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7731.9</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -5257,7 +5229,7 @@
         <v>54</v>
       </c>
       <c r="N66" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O66" t="s">
         <v>1</v>
@@ -5266,13 +5238,13 @@
         <v>55</v>
       </c>
       <c r="Q66" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R66" t="s">
         <v>56</v>
       </c>
       <c r="S66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7711.9</v>
       </c>
       <c r="T66" s="2" t="s">
@@ -5283,7 +5255,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" ref="V66:V129" si="10">CONCATENATE(O66,P66,Q66,R66,S66,T66,U66)</f>
-        <v>placeInstance FILLER[64].INST_decoupling_cap_filler 7711.9 0.0 R0</v>
+        <v>placeInstance FILLER[63].INST_decoupling_cap_filler 7711.9 0.0 R0</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -5323,7 +5295,7 @@
         <v>54</v>
       </c>
       <c r="N67" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O67" t="s">
         <v>1</v>
@@ -5332,7 +5304,7 @@
         <v>55</v>
       </c>
       <c r="Q67" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R67" t="s">
         <v>56</v>
@@ -5349,7 +5321,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[65].INST_decoupling_cap_filler 7831.9 0.0 R0</v>
+        <v>placeInstance FILLER[64].INST_decoupling_cap_filler 7831.9 0.0 R0</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -5395,7 +5367,7 @@
         <v>54</v>
       </c>
       <c r="N68" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O68" t="s">
         <v>1</v>
@@ -5404,7 +5376,7 @@
         <v>55</v>
       </c>
       <c r="Q68" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R68" t="s">
         <v>56</v>
@@ -5421,7 +5393,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[66].INST_decoupling_cap_filler 7951.9 0.0 R0</v>
+        <v>placeInstance FILLER[65].INST_decoupling_cap_filler 7951.9 0.0 R0</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -5461,7 +5433,7 @@
         <v>54</v>
       </c>
       <c r="N69" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O69" t="s">
         <v>1</v>
@@ -5470,7 +5442,7 @@
         <v>55</v>
       </c>
       <c r="Q69" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R69" t="s">
         <v>56</v>
@@ -5487,7 +5459,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[67].INST_decoupling_cap_filler 8071.9 0.0 R0</v>
+        <v>placeInstance FILLER[66].INST_decoupling_cap_filler 8071.9 0.0 R0</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -5533,7 +5505,7 @@
         <v>54</v>
       </c>
       <c r="N70" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O70" t="s">
         <v>1</v>
@@ -5542,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="Q70" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R70" t="s">
         <v>56</v>
@@ -5559,7 +5531,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[68].INST_decoupling_cap_filler 8191.9 0.0 R0</v>
+        <v>placeInstance FILLER[67].INST_decoupling_cap_filler 8191.9 0.0 R0</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -5599,7 +5571,7 @@
         <v>54</v>
       </c>
       <c r="N71" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O71" t="s">
         <v>1</v>
@@ -5608,7 +5580,7 @@
         <v>55</v>
       </c>
       <c r="Q71" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R71" t="s">
         <v>56</v>
@@ -5625,7 +5597,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[69].INST_decoupling_cap_filler 8311.9 0.0 R0</v>
+        <v>placeInstance FILLER[68].INST_decoupling_cap_filler 8311.9 0.0 R0</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -5671,7 +5643,7 @@
         <v>54</v>
       </c>
       <c r="N72" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O72" t="s">
         <v>1</v>
@@ -5680,7 +5652,7 @@
         <v>55</v>
       </c>
       <c r="Q72" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R72" t="s">
         <v>56</v>
@@ -5697,7 +5669,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[70].INST_decoupling_cap_filler 8431.9 0.0 R0</v>
+        <v>placeInstance FILLER[69].INST_decoupling_cap_filler 8431.9 0.0 R0</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -5737,7 +5709,7 @@
         <v>54</v>
       </c>
       <c r="N73" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O73" t="s">
         <v>1</v>
@@ -5746,7 +5718,7 @@
         <v>55</v>
       </c>
       <c r="Q73" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R73" t="s">
         <v>56</v>
@@ -5763,7 +5735,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[71].INST_decoupling_cap_filler 8551.9 0.0 R0</v>
+        <v>placeInstance FILLER[70].INST_decoupling_cap_filler 8551.9 0.0 R0</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -5809,7 +5781,7 @@
         <v>54</v>
       </c>
       <c r="N74" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O74" t="s">
         <v>1</v>
@@ -5818,7 +5790,7 @@
         <v>55</v>
       </c>
       <c r="Q74" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R74" t="s">
         <v>56</v>
@@ -5835,7 +5807,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[72].INST_decoupling_cap_filler 8671.9 0.0 R0</v>
+        <v>placeInstance FILLER[71].INST_decoupling_cap_filler 8671.9 0.0 R0</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -5875,7 +5847,7 @@
         <v>54</v>
       </c>
       <c r="N75" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O75" t="s">
         <v>1</v>
@@ -5884,7 +5856,7 @@
         <v>55</v>
       </c>
       <c r="Q75" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R75" t="s">
         <v>56</v>
@@ -5901,7 +5873,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[73].INST_decoupling_cap_filler 8791.9 0.0 R0</v>
+        <v>placeInstance FILLER[72].INST_decoupling_cap_filler 8791.9 0.0 R0</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -5947,7 +5919,7 @@
         <v>54</v>
       </c>
       <c r="N76" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O76" t="s">
         <v>1</v>
@@ -5956,7 +5928,7 @@
         <v>55</v>
       </c>
       <c r="Q76" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R76" t="s">
         <v>56</v>
@@ -5973,7 +5945,7 @@
       </c>
       <c r="V76" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[74].INST_decoupling_cap_filler 8911.9 0.0 R0</v>
+        <v>placeInstance FILLER[73].INST_decoupling_cap_filler 8911.9 0.0 R0</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -6013,7 +5985,7 @@
         <v>54</v>
       </c>
       <c r="N77" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O77" t="s">
         <v>1</v>
@@ -6022,7 +5994,7 @@
         <v>55</v>
       </c>
       <c r="Q77" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R77" t="s">
         <v>56</v>
@@ -6039,7 +6011,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[75].INST_decoupling_cap_filler 9031.9 0.0 R0</v>
+        <v>placeInstance FILLER[74].INST_decoupling_cap_filler 9031.9 0.0 R0</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -6085,7 +6057,7 @@
         <v>54</v>
       </c>
       <c r="N78" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O78" t="s">
         <v>1</v>
@@ -6094,7 +6066,7 @@
         <v>55</v>
       </c>
       <c r="Q78" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R78" t="s">
         <v>56</v>
@@ -6111,7 +6083,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[76].INST_decoupling_cap_filler 9151.9 0.0 R0</v>
+        <v>placeInstance FILLER[75].INST_decoupling_cap_filler 9151.9 0.0 R0</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -6151,7 +6123,7 @@
         <v>54</v>
       </c>
       <c r="N79" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O79" t="s">
         <v>1</v>
@@ -6160,7 +6132,7 @@
         <v>55</v>
       </c>
       <c r="Q79" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R79" t="s">
         <v>56</v>
@@ -6177,7 +6149,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[77].INST_decoupling_cap_filler 9271.9 0.0 R0</v>
+        <v>placeInstance FILLER[76].INST_decoupling_cap_filler 9271.9 0.0 R0</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -6223,7 +6195,7 @@
         <v>54</v>
       </c>
       <c r="N80" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O80" t="s">
         <v>1</v>
@@ -6232,7 +6204,7 @@
         <v>55</v>
       </c>
       <c r="Q80" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R80" t="s">
         <v>56</v>
@@ -6249,7 +6221,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[78].INST_decoupling_cap_filler 9391.9 0.0 R0</v>
+        <v>placeInstance FILLER[77].INST_decoupling_cap_filler 9391.9 0.0 R0</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -6289,7 +6261,7 @@
         <v>54</v>
       </c>
       <c r="N81" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O81" t="s">
         <v>1</v>
@@ -6298,7 +6270,7 @@
         <v>55</v>
       </c>
       <c r="Q81" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R81" t="s">
         <v>56</v>
@@ -6315,7 +6287,7 @@
       </c>
       <c r="V81" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[79].INST_decoupling_cap_filler 9511.9 0.0 R0</v>
+        <v>placeInstance FILLER[78].INST_decoupling_cap_filler 9511.9 0.0 R0</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -6361,7 +6333,7 @@
         <v>54</v>
       </c>
       <c r="N82" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O82" t="s">
         <v>1</v>
@@ -6370,7 +6342,7 @@
         <v>55</v>
       </c>
       <c r="Q82" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R82" t="s">
         <v>56</v>
@@ -6387,7 +6359,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[80].INST_decoupling_cap_filler 9631.9 0.0 R0</v>
+        <v>placeInstance FILLER[79].INST_decoupling_cap_filler 9631.9 0.0 R0</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -6427,7 +6399,7 @@
         <v>54</v>
       </c>
       <c r="N83" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O83" t="s">
         <v>1</v>
@@ -6436,7 +6408,7 @@
         <v>55</v>
       </c>
       <c r="Q83" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R83" t="s">
         <v>56</v>
@@ -6453,7 +6425,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[81].INST_decoupling_cap_filler 9751.9 0.0 R0</v>
+        <v>placeInstance FILLER[80].INST_decoupling_cap_filler 9751.9 0.0 R0</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -6499,7 +6471,7 @@
         <v>54</v>
       </c>
       <c r="N84" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O84" t="s">
         <v>1</v>
@@ -6508,7 +6480,7 @@
         <v>55</v>
       </c>
       <c r="Q84" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R84" t="s">
         <v>56</v>
@@ -6525,7 +6497,7 @@
       </c>
       <c r="V84" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[82].INST_decoupling_cap_filler 9871.9 0.0 R0</v>
+        <v>placeInstance FILLER[81].INST_decoupling_cap_filler 9871.9 0.0 R0</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -6565,7 +6537,7 @@
         <v>54</v>
       </c>
       <c r="N85" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O85" t="s">
         <v>1</v>
@@ -6574,7 +6546,7 @@
         <v>55</v>
       </c>
       <c r="Q85" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R85" t="s">
         <v>56</v>
@@ -6591,7 +6563,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[83].INST_decoupling_cap_filler 9991.9 0.0 R0</v>
+        <v>placeInstance FILLER[82].INST_decoupling_cap_filler 9991.9 0.0 R0</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -6637,7 +6609,7 @@
         <v>54</v>
       </c>
       <c r="N86" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O86" t="s">
         <v>1</v>
@@ -6646,7 +6618,7 @@
         <v>55</v>
       </c>
       <c r="Q86" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R86" t="s">
         <v>56</v>
@@ -6663,7 +6635,7 @@
       </c>
       <c r="V86" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[84].INST_decoupling_cap_filler 10111.9 0.0 R0</v>
+        <v>placeInstance FILLER[83].INST_decoupling_cap_filler 10111.9 0.0 R0</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -6703,7 +6675,7 @@
         <v>54</v>
       </c>
       <c r="N87" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O87" t="s">
         <v>1</v>
@@ -6712,7 +6684,7 @@
         <v>55</v>
       </c>
       <c r="Q87" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R87" t="s">
         <v>56</v>
@@ -6729,7 +6701,7 @@
       </c>
       <c r="V87" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[85].INST_decoupling_cap_filler 10231.9 0.0 R0</v>
+        <v>placeInstance FILLER[84].INST_decoupling_cap_filler 10231.9 0.0 R0</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -6775,7 +6747,7 @@
         <v>54</v>
       </c>
       <c r="N88" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O88" t="s">
         <v>1</v>
@@ -6784,7 +6756,7 @@
         <v>55</v>
       </c>
       <c r="Q88" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R88" t="s">
         <v>56</v>
@@ -6801,7 +6773,7 @@
       </c>
       <c r="V88" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[86].INST_decoupling_cap_filler 10351.9 0.0 R0</v>
+        <v>placeInstance FILLER[85].INST_decoupling_cap_filler 10351.9 0.0 R0</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -6847,7 +6819,7 @@
         <v>54</v>
       </c>
       <c r="N89" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O89" t="s">
         <v>1</v>
@@ -6856,7 +6828,7 @@
         <v>55</v>
       </c>
       <c r="Q89" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R89" t="s">
         <v>56</v>
@@ -6873,7 +6845,7 @@
       </c>
       <c r="V89" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[87].INST_decoupling_cap_filler 10471.9 0.0 R0</v>
+        <v>placeInstance FILLER[86].INST_decoupling_cap_filler 10471.9 0.0 R0</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -6921,7 +6893,7 @@
         <v>54</v>
       </c>
       <c r="N90" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O90" t="s">
         <v>1</v>
@@ -6930,7 +6902,7 @@
         <v>55</v>
       </c>
       <c r="Q90" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R90" t="s">
         <v>56</v>
@@ -6947,7 +6919,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[88].INST_decoupling_cap_filler 10591.9 0.0 R0</v>
+        <v>placeInstance FILLER[87].INST_decoupling_cap_filler 10591.9 0.0 R0</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -6995,7 +6967,7 @@
         <v>54</v>
       </c>
       <c r="N91" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O91" t="s">
         <v>1</v>
@@ -7004,7 +6976,7 @@
         <v>55</v>
       </c>
       <c r="Q91" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R91" t="s">
         <v>56</v>
@@ -7021,7 +6993,7 @@
       </c>
       <c r="V91" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[89].INST_decoupling_cap_filler 10711.9 0.0 R0</v>
+        <v>placeInstance FILLER[88].INST_decoupling_cap_filler 10711.9 0.0 R0</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -7069,7 +7041,7 @@
         <v>54</v>
       </c>
       <c r="N92" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O92" t="s">
         <v>1</v>
@@ -7078,7 +7050,7 @@
         <v>55</v>
       </c>
       <c r="Q92" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R92" t="s">
         <v>56</v>
@@ -7095,7 +7067,7 @@
       </c>
       <c r="V92" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[90].INST_decoupling_cap_filler 10831.9 0.0 R0</v>
+        <v>placeInstance FILLER[89].INST_decoupling_cap_filler 10831.9 0.0 R0</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -7143,7 +7115,7 @@
         <v>54</v>
       </c>
       <c r="N93" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" t="s">
         <v>1</v>
@@ -7152,7 +7124,7 @@
         <v>55</v>
       </c>
       <c r="Q93" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R93" t="s">
         <v>56</v>
@@ -7169,7 +7141,7 @@
       </c>
       <c r="V93" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[91].INST_decoupling_cap_filler 10951.9 0.0 R0</v>
+        <v>placeInstance FILLER[90].INST_decoupling_cap_filler 10951.9 0.0 R0</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -7217,7 +7189,7 @@
         <v>54</v>
       </c>
       <c r="N94" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O94" t="s">
         <v>1</v>
@@ -7226,7 +7198,7 @@
         <v>55</v>
       </c>
       <c r="Q94" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R94" t="s">
         <v>56</v>
@@ -7243,7 +7215,7 @@
       </c>
       <c r="V94" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[92].INST_decoupling_cap_filler 11071.9 0.0 R0</v>
+        <v>placeInstance FILLER[91].INST_decoupling_cap_filler 11071.9 0.0 R0</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -7291,7 +7263,7 @@
         <v>54</v>
       </c>
       <c r="N95" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O95" t="s">
         <v>1</v>
@@ -7300,7 +7272,7 @@
         <v>55</v>
       </c>
       <c r="Q95" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R95" t="s">
         <v>56</v>
@@ -7317,7 +7289,7 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[93].INST_decoupling_cap_filler 11191.9 0.0 R0</v>
+        <v>placeInstance FILLER[92].INST_decoupling_cap_filler 11191.9 0.0 R0</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -7365,7 +7337,7 @@
         <v>54</v>
       </c>
       <c r="N96" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O96" t="s">
         <v>1</v>
@@ -7374,7 +7346,7 @@
         <v>55</v>
       </c>
       <c r="Q96" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R96" t="s">
         <v>56</v>
@@ -7391,7 +7363,7 @@
       </c>
       <c r="V96" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[94].INST_decoupling_cap_filler 11311.9 0.0 R0</v>
+        <v>placeInstance FILLER[93].INST_decoupling_cap_filler 11311.9 0.0 R0</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -7439,7 +7411,7 @@
         <v>54</v>
       </c>
       <c r="N97" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O97" t="s">
         <v>1</v>
@@ -7448,7 +7420,7 @@
         <v>55</v>
       </c>
       <c r="Q97" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R97" t="s">
         <v>56</v>
@@ -7465,7 +7437,7 @@
       </c>
       <c r="V97" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[95].INST_decoupling_cap_filler 11431.9 0.0 R0</v>
+        <v>placeInstance FILLER[94].INST_decoupling_cap_filler 11431.9 0.0 R0</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -7513,7 +7485,7 @@
         <v>54</v>
       </c>
       <c r="N98" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O98" t="s">
         <v>1</v>
@@ -7522,7 +7494,7 @@
         <v>55</v>
       </c>
       <c r="Q98" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R98" t="s">
         <v>56</v>
@@ -7539,7 +7511,7 @@
       </c>
       <c r="V98" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[96].INST_decoupling_cap_filler 11551.9 0.0 R0</v>
+        <v>placeInstance FILLER[95].INST_decoupling_cap_filler 11551.9 0.0 R0</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -7587,7 +7559,7 @@
         <v>54</v>
       </c>
       <c r="N99" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O99" t="s">
         <v>1</v>
@@ -7596,7 +7568,7 @@
         <v>55</v>
       </c>
       <c r="Q99" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R99" t="s">
         <v>56</v>
@@ -7613,7 +7585,7 @@
       </c>
       <c r="V99" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[97].INST_decoupling_cap_filler 11671.9 0.0 R0</v>
+        <v>placeInstance FILLER[96].INST_decoupling_cap_filler 11671.9 0.0 R0</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -7661,7 +7633,7 @@
         <v>54</v>
       </c>
       <c r="N100" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O100" t="s">
         <v>1</v>
@@ -7670,7 +7642,7 @@
         <v>55</v>
       </c>
       <c r="Q100" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R100" t="s">
         <v>56</v>
@@ -7687,7 +7659,7 @@
       </c>
       <c r="V100" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[98].INST_decoupling_cap_filler 11791.9 0.0 R0</v>
+        <v>placeInstance FILLER[97].INST_decoupling_cap_filler 11791.9 0.0 R0</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -7727,7 +7699,7 @@
         <v>54</v>
       </c>
       <c r="N101" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O101" t="s">
         <v>1</v>
@@ -7736,7 +7708,7 @@
         <v>55</v>
       </c>
       <c r="Q101" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R101" t="s">
         <v>56</v>
@@ -7753,7 +7725,7 @@
       </c>
       <c r="V101" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[99].INST_decoupling_cap_filler 11911.9 0.0 R0</v>
+        <v>placeInstance FILLER[98].INST_decoupling_cap_filler 11911.9 0.0 R0</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -7799,7 +7771,7 @@
         <v>54</v>
       </c>
       <c r="N102" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O102" t="s">
         <v>1</v>
@@ -7808,7 +7780,7 @@
         <v>55</v>
       </c>
       <c r="Q102" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R102" t="s">
         <v>56</v>
@@ -7825,7 +7797,7 @@
       </c>
       <c r="V102" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[100].INST_decoupling_cap_filler 12031.9 0.0 R0</v>
+        <v>placeInstance FILLER[99].INST_decoupling_cap_filler 12031.9 0.0 R0</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -7865,7 +7837,7 @@
         <v>54</v>
       </c>
       <c r="N103" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O103" t="s">
         <v>1</v>
@@ -7874,7 +7846,7 @@
         <v>55</v>
       </c>
       <c r="Q103" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R103" t="s">
         <v>56</v>
@@ -7891,7 +7863,7 @@
       </c>
       <c r="V103" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[101].INST_decoupling_cap_filler 12151.9 0.0 R0</v>
+        <v>placeInstance FILLER[100].INST_decoupling_cap_filler 12151.9 0.0 R0</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -7937,7 +7909,7 @@
         <v>54</v>
       </c>
       <c r="N104" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O104" t="s">
         <v>1</v>
@@ -7946,7 +7918,7 @@
         <v>55</v>
       </c>
       <c r="Q104" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R104" t="s">
         <v>56</v>
@@ -7963,7 +7935,7 @@
       </c>
       <c r="V104" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[102].INST_decoupling_cap_filler 12271.9 0.0 R0</v>
+        <v>placeInstance FILLER[101].INST_decoupling_cap_filler 12271.9 0.0 R0</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -8003,7 +7975,7 @@
         <v>54</v>
       </c>
       <c r="N105" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O105" t="s">
         <v>1</v>
@@ -8012,7 +7984,7 @@
         <v>55</v>
       </c>
       <c r="Q105" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R105" t="s">
         <v>56</v>
@@ -8029,7 +8001,7 @@
       </c>
       <c r="V105" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[103].INST_decoupling_cap_filler 12391.9 0.0 R0</v>
+        <v>placeInstance FILLER[102].INST_decoupling_cap_filler 12391.9 0.0 R0</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -8075,7 +8047,7 @@
         <v>54</v>
       </c>
       <c r="N106" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O106" t="s">
         <v>1</v>
@@ -8084,7 +8056,7 @@
         <v>55</v>
       </c>
       <c r="Q106" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R106" t="s">
         <v>56</v>
@@ -8101,7 +8073,7 @@
       </c>
       <c r="V106" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[104].INST_decoupling_cap_filler 12511.9 0.0 R0</v>
+        <v>placeInstance FILLER[103].INST_decoupling_cap_filler 12511.9 0.0 R0</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -8141,7 +8113,7 @@
         <v>54</v>
       </c>
       <c r="N107" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O107" t="s">
         <v>1</v>
@@ -8150,7 +8122,7 @@
         <v>55</v>
       </c>
       <c r="Q107" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R107" t="s">
         <v>56</v>
@@ -8167,7 +8139,7 @@
       </c>
       <c r="V107" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[105].INST_decoupling_cap_filler 12631.9 0.0 R0</v>
+        <v>placeInstance FILLER[104].INST_decoupling_cap_filler 12631.9 0.0 R0</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
@@ -8213,7 +8185,7 @@
         <v>54</v>
       </c>
       <c r="N108" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O108" t="s">
         <v>1</v>
@@ -8222,7 +8194,7 @@
         <v>55</v>
       </c>
       <c r="Q108" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R108" t="s">
         <v>56</v>
@@ -8239,7 +8211,7 @@
       </c>
       <c r="V108" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[106].INST_decoupling_cap_filler 12751.9 0.0 R0</v>
+        <v>placeInstance FILLER[105].INST_decoupling_cap_filler 12751.9 0.0 R0</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -8279,7 +8251,7 @@
         <v>54</v>
       </c>
       <c r="N109" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O109" t="s">
         <v>1</v>
@@ -8288,7 +8260,7 @@
         <v>55</v>
       </c>
       <c r="Q109" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R109" t="s">
         <v>56</v>
@@ -8305,7 +8277,7 @@
       </c>
       <c r="V109" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[107].INST_decoupling_cap_filler 12871.9 0.0 R0</v>
+        <v>placeInstance FILLER[106].INST_decoupling_cap_filler 12871.9 0.0 R0</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -8351,7 +8323,7 @@
         <v>54</v>
       </c>
       <c r="N110" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O110" t="s">
         <v>1</v>
@@ -8360,7 +8332,7 @@
         <v>55</v>
       </c>
       <c r="Q110" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R110" t="s">
         <v>56</v>
@@ -8377,7 +8349,7 @@
       </c>
       <c r="V110" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[108].INST_decoupling_cap_filler 12991.9 0.0 R0</v>
+        <v>placeInstance FILLER[107].INST_decoupling_cap_filler 12991.9 0.0 R0</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -8417,7 +8389,7 @@
         <v>54</v>
       </c>
       <c r="N111" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O111" t="s">
         <v>1</v>
@@ -8426,7 +8398,7 @@
         <v>55</v>
       </c>
       <c r="Q111" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R111" t="s">
         <v>56</v>
@@ -8443,7 +8415,7 @@
       </c>
       <c r="V111" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[109].INST_decoupling_cap_filler 13111.9 0.0 R0</v>
+        <v>placeInstance FILLER[108].INST_decoupling_cap_filler 13111.9 0.0 R0</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -8489,7 +8461,7 @@
         <v>54</v>
       </c>
       <c r="N112" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O112" t="s">
         <v>1</v>
@@ -8498,7 +8470,7 @@
         <v>55</v>
       </c>
       <c r="Q112" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R112" t="s">
         <v>56</v>
@@ -8515,7 +8487,7 @@
       </c>
       <c r="V112" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[110].INST_decoupling_cap_filler 13231.9 0.0 R0</v>
+        <v>placeInstance FILLER[109].INST_decoupling_cap_filler 13231.9 0.0 R0</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -8555,7 +8527,7 @@
         <v>54</v>
       </c>
       <c r="N113" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O113" t="s">
         <v>1</v>
@@ -8564,7 +8536,7 @@
         <v>55</v>
       </c>
       <c r="Q113" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R113" t="s">
         <v>56</v>
@@ -8581,7 +8553,7 @@
       </c>
       <c r="V113" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[111].INST_decoupling_cap_filler 13351.9 0.0 R0</v>
+        <v>placeInstance FILLER[110].INST_decoupling_cap_filler 13351.9 0.0 R0</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -8627,7 +8599,7 @@
         <v>54</v>
       </c>
       <c r="N114" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O114" t="s">
         <v>1</v>
@@ -8636,7 +8608,7 @@
         <v>55</v>
       </c>
       <c r="Q114" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R114" t="s">
         <v>56</v>
@@ -8653,7 +8625,7 @@
       </c>
       <c r="V114" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[112].INST_decoupling_cap_filler 13471.9 0.0 R0</v>
+        <v>placeInstance FILLER[111].INST_decoupling_cap_filler 13471.9 0.0 R0</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
@@ -8693,7 +8665,7 @@
         <v>54</v>
       </c>
       <c r="N115" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O115" t="s">
         <v>1</v>
@@ -8702,7 +8674,7 @@
         <v>55</v>
       </c>
       <c r="Q115" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R115" t="s">
         <v>56</v>
@@ -8719,7 +8691,7 @@
       </c>
       <c r="V115" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[113].INST_decoupling_cap_filler 13591.9 0.0 R0</v>
+        <v>placeInstance FILLER[112].INST_decoupling_cap_filler 13591.9 0.0 R0</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -8765,7 +8737,7 @@
         <v>54</v>
       </c>
       <c r="N116" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O116" t="s">
         <v>1</v>
@@ -8774,7 +8746,7 @@
         <v>55</v>
       </c>
       <c r="Q116" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R116" t="s">
         <v>56</v>
@@ -8791,7 +8763,7 @@
       </c>
       <c r="V116" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[114].INST_decoupling_cap_filler 13711.9 0.0 R0</v>
+        <v>placeInstance FILLER[113].INST_decoupling_cap_filler 13711.9 0.0 R0</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
@@ -8837,7 +8809,7 @@
         <v>54</v>
       </c>
       <c r="N117" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O117" t="s">
         <v>1</v>
@@ -8846,7 +8818,7 @@
         <v>55</v>
       </c>
       <c r="Q117" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R117" t="s">
         <v>56</v>
@@ -8863,7 +8835,7 @@
       </c>
       <c r="V117" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[115].INST_decoupling_cap_filler 13831.9 0.0 R0</v>
+        <v>placeInstance FILLER[114].INST_decoupling_cap_filler 13831.9 0.0 R0</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
@@ -8911,7 +8883,7 @@
         <v>54</v>
       </c>
       <c r="N118" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O118" t="s">
         <v>1</v>
@@ -8920,7 +8892,7 @@
         <v>55</v>
       </c>
       <c r="Q118" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R118" t="s">
         <v>56</v>
@@ -8937,7 +8909,7 @@
       </c>
       <c r="V118" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[116].INST_decoupling_cap_filler 13951.9 0.0 R0</v>
+        <v>placeInstance FILLER[115].INST_decoupling_cap_filler 13951.9 0.0 R0</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -8985,7 +8957,7 @@
         <v>54</v>
       </c>
       <c r="N119" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O119" t="s">
         <v>1</v>
@@ -8994,7 +8966,7 @@
         <v>55</v>
       </c>
       <c r="Q119" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R119" t="s">
         <v>56</v>
@@ -9011,7 +8983,7 @@
       </c>
       <c r="V119" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[117].INST_decoupling_cap_filler 14071.9 0.0 R0</v>
+        <v>placeInstance FILLER[116].INST_decoupling_cap_filler 14071.9 0.0 R0</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
@@ -9059,7 +9031,7 @@
         <v>54</v>
       </c>
       <c r="N120" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O120" t="s">
         <v>1</v>
@@ -9068,7 +9040,7 @@
         <v>55</v>
       </c>
       <c r="Q120" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R120" t="s">
         <v>56</v>
@@ -9085,7 +9057,7 @@
       </c>
       <c r="V120" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[118].INST_decoupling_cap_filler 14191.9 0.0 R0</v>
+        <v>placeInstance FILLER[117].INST_decoupling_cap_filler 14191.9 0.0 R0</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
@@ -9133,7 +9105,7 @@
         <v>54</v>
       </c>
       <c r="N121" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O121" t="s">
         <v>1</v>
@@ -9142,7 +9114,7 @@
         <v>55</v>
       </c>
       <c r="Q121" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R121" t="s">
         <v>56</v>
@@ -9159,7 +9131,7 @@
       </c>
       <c r="V121" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[119].INST_decoupling_cap_filler 14311.9 0.0 R0</v>
+        <v>placeInstance FILLER[118].INST_decoupling_cap_filler 14311.9 0.0 R0</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
@@ -9207,7 +9179,7 @@
         <v>54</v>
       </c>
       <c r="N122" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O122" t="s">
         <v>1</v>
@@ -9216,7 +9188,7 @@
         <v>55</v>
       </c>
       <c r="Q122" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R122" t="s">
         <v>56</v>
@@ -9233,7 +9205,7 @@
       </c>
       <c r="V122" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[120].INST_decoupling_cap_filler 14431.9 0.0 R0</v>
+        <v>placeInstance FILLER[119].INST_decoupling_cap_filler 14431.9 0.0 R0</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
@@ -9281,7 +9253,7 @@
         <v>54</v>
       </c>
       <c r="N123" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O123" t="s">
         <v>1</v>
@@ -9290,7 +9262,7 @@
         <v>55</v>
       </c>
       <c r="Q123" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R123" t="s">
         <v>56</v>
@@ -9307,7 +9279,7 @@
       </c>
       <c r="V123" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[121].INST_decoupling_cap_filler 14551.9 0.0 R0</v>
+        <v>placeInstance FILLER[120].INST_decoupling_cap_filler 14551.9 0.0 R0</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
@@ -9355,7 +9327,7 @@
         <v>54</v>
       </c>
       <c r="N124" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O124" t="s">
         <v>1</v>
@@ -9364,7 +9336,7 @@
         <v>55</v>
       </c>
       <c r="Q124" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R124" t="s">
         <v>56</v>
@@ -9381,7 +9353,7 @@
       </c>
       <c r="V124" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[122].INST_decoupling_cap_filler 14671.9 0.0 R0</v>
+        <v>placeInstance FILLER[121].INST_decoupling_cap_filler 14671.9 0.0 R0</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
@@ -9429,7 +9401,7 @@
         <v>54</v>
       </c>
       <c r="N125" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O125" t="s">
         <v>1</v>
@@ -9438,7 +9410,7 @@
         <v>55</v>
       </c>
       <c r="Q125" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R125" t="s">
         <v>56</v>
@@ -9455,7 +9427,7 @@
       </c>
       <c r="V125" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[123].INST_decoupling_cap_filler 14791.9 0.0 R0</v>
+        <v>placeInstance FILLER[122].INST_decoupling_cap_filler 14791.9 0.0 R0</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -9503,7 +9475,7 @@
         <v>54</v>
       </c>
       <c r="N126" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O126" t="s">
         <v>1</v>
@@ -9512,7 +9484,7 @@
         <v>55</v>
       </c>
       <c r="Q126" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R126" t="s">
         <v>56</v>
@@ -9529,7 +9501,7 @@
       </c>
       <c r="V126" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[124].INST_decoupling_cap_filler 14911.9 0.0 R0</v>
+        <v>placeInstance FILLER[123].INST_decoupling_cap_filler 14911.9 0.0 R0</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -9577,7 +9549,7 @@
         <v>54</v>
       </c>
       <c r="N127" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O127" t="s">
         <v>1</v>
@@ -9586,7 +9558,7 @@
         <v>55</v>
       </c>
       <c r="Q127" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R127" t="s">
         <v>56</v>
@@ -9603,7 +9575,7 @@
       </c>
       <c r="V127" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[125].INST_decoupling_cap_filler 15031.9 0.0 R0</v>
+        <v>placeInstance FILLER[124].INST_decoupling_cap_filler 15031.9 0.0 R0</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -9651,7 +9623,7 @@
         <v>54</v>
       </c>
       <c r="N128" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O128" t="s">
         <v>1</v>
@@ -9660,7 +9632,7 @@
         <v>55</v>
       </c>
       <c r="Q128" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R128" t="s">
         <v>56</v>
@@ -9677,7 +9649,7 @@
       </c>
       <c r="V128" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[126].INST_decoupling_cap_filler 15151.9 0.0 R0</v>
+        <v>placeInstance FILLER[125].INST_decoupling_cap_filler 15151.9 0.0 R0</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -9725,7 +9697,7 @@
         <v>54</v>
       </c>
       <c r="N129" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O129" t="s">
         <v>1</v>
@@ -9734,7 +9706,7 @@
         <v>55</v>
       </c>
       <c r="Q129" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R129" t="s">
         <v>56</v>
@@ -9751,7 +9723,7 @@
       </c>
       <c r="V129" t="str">
         <f t="shared" si="10"/>
-        <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15271.9 0.0 R0</v>
+        <v>placeInstance FILLER[126].INST_decoupling_cap_filler 15271.9 0.0 R0</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -9799,7 +9771,7 @@
         <v>54</v>
       </c>
       <c r="N130" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O130" t="s">
         <v>1</v>
@@ -9808,7 +9780,7 @@
         <v>55</v>
       </c>
       <c r="Q130" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R130" t="s">
         <v>56</v>
@@ -9824,8 +9796,8 @@
         <v>3</v>
       </c>
       <c r="V130" t="str">
-        <f t="shared" ref="V130:V154" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
-        <v>placeInstance FILLER[128].INST_decoupling_cap_filler 15391.9 0.0 R0</v>
+        <f t="shared" ref="V130:V153" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
+        <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15391.9 0.0 R0</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
@@ -9873,7 +9845,7 @@
         <v>54</v>
       </c>
       <c r="N131" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O131" t="s">
         <v>1</v>
@@ -9882,13 +9854,13 @@
         <v>55</v>
       </c>
       <c r="Q131" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R131" t="s">
         <v>56</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:S154" si="21">I130+100</f>
+        <f t="shared" ref="S131:S153" si="21">I130+100</f>
         <v>15511.9</v>
       </c>
       <c r="T131" s="2" t="s">
@@ -9899,7 +9871,7 @@
       </c>
       <c r="V131" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[129].INST_decoupling_cap_filler 15511.9 0.0 R0</v>
+        <v>placeInstance FILLER[128].INST_decoupling_cap_filler 15511.9 0.0 R0</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
@@ -9947,7 +9919,7 @@
         <v>54</v>
       </c>
       <c r="N132" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O132" t="s">
         <v>1</v>
@@ -9956,7 +9928,7 @@
         <v>55</v>
       </c>
       <c r="Q132" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R132" t="s">
         <v>56</v>
@@ -9973,7 +9945,7 @@
       </c>
       <c r="V132" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[130].INST_decoupling_cap_filler 15631.9 0.0 R0</v>
+        <v>placeInstance FILLER[129].INST_decoupling_cap_filler 15631.9 0.0 R0</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -10021,7 +9993,7 @@
         <v>54</v>
       </c>
       <c r="N133" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O133" t="s">
         <v>1</v>
@@ -10030,7 +10002,7 @@
         <v>55</v>
       </c>
       <c r="Q133" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R133" t="s">
         <v>56</v>
@@ -10047,7 +10019,7 @@
       </c>
       <c r="V133" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[131].INST_decoupling_cap_filler 15751.9 0.0 R0</v>
+        <v>placeInstance FILLER[130].INST_decoupling_cap_filler 15751.9 0.0 R0</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -10095,7 +10067,7 @@
         <v>54</v>
       </c>
       <c r="N134" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O134" t="s">
         <v>1</v>
@@ -10104,7 +10076,7 @@
         <v>55</v>
       </c>
       <c r="Q134" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R134" t="s">
         <v>56</v>
@@ -10121,7 +10093,7 @@
       </c>
       <c r="V134" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[132].INST_decoupling_cap_filler 15871.9 0.0 R0</v>
+        <v>placeInstance FILLER[131].INST_decoupling_cap_filler 15871.9 0.0 R0</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -10169,7 +10141,7 @@
         <v>54</v>
       </c>
       <c r="N135" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O135" t="s">
         <v>1</v>
@@ -10178,7 +10150,7 @@
         <v>55</v>
       </c>
       <c r="Q135" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R135" t="s">
         <v>56</v>
@@ -10195,7 +10167,7 @@
       </c>
       <c r="V135" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[133].INST_decoupling_cap_filler 15991.9 0.0 R0</v>
+        <v>placeInstance FILLER[132].INST_decoupling_cap_filler 15991.9 0.0 R0</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
@@ -10243,7 +10215,7 @@
         <v>54</v>
       </c>
       <c r="N136" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O136" t="s">
         <v>1</v>
@@ -10252,7 +10224,7 @@
         <v>55</v>
       </c>
       <c r="Q136" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R136" t="s">
         <v>56</v>
@@ -10269,7 +10241,7 @@
       </c>
       <c r="V136" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[134].INST_decoupling_cap_filler 16111.9 0.0 R0</v>
+        <v>placeInstance FILLER[133].INST_decoupling_cap_filler 16111.9 0.0 R0</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
@@ -10317,7 +10289,7 @@
         <v>54</v>
       </c>
       <c r="N137" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O137" t="s">
         <v>1</v>
@@ -10326,7 +10298,7 @@
         <v>55</v>
       </c>
       <c r="Q137" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R137" t="s">
         <v>56</v>
@@ -10343,7 +10315,7 @@
       </c>
       <c r="V137" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[135].INST_decoupling_cap_filler 16231.9 0.0 R0</v>
+        <v>placeInstance FILLER[134].INST_decoupling_cap_filler 16231.9 0.0 R0</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
@@ -10383,7 +10355,7 @@
         <v>54</v>
       </c>
       <c r="N138" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O138" t="s">
         <v>1</v>
@@ -10392,7 +10364,7 @@
         <v>55</v>
       </c>
       <c r="Q138" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R138" t="s">
         <v>56</v>
@@ -10409,7 +10381,7 @@
       </c>
       <c r="V138" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[136].INST_decoupling_cap_filler 16351.9 0.0 R0</v>
+        <v>placeInstance FILLER[135].INST_decoupling_cap_filler 16351.9 0.0 R0</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
@@ -10455,7 +10427,7 @@
         <v>54</v>
       </c>
       <c r="N139" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O139" t="s">
         <v>1</v>
@@ -10464,7 +10436,7 @@
         <v>55</v>
       </c>
       <c r="Q139" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R139" t="s">
         <v>56</v>
@@ -10481,7 +10453,7 @@
       </c>
       <c r="V139" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[137].INST_decoupling_cap_filler 16471.9 0.0 R0</v>
+        <v>placeInstance FILLER[136].INST_decoupling_cap_filler 16471.9 0.0 R0</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
@@ -10521,7 +10493,7 @@
         <v>54</v>
       </c>
       <c r="N140" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O140" t="s">
         <v>1</v>
@@ -10530,7 +10502,7 @@
         <v>55</v>
       </c>
       <c r="Q140" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R140" t="s">
         <v>56</v>
@@ -10547,7 +10519,7 @@
       </c>
       <c r="V140" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[138].INST_decoupling_cap_filler 16591.9 0.0 R0</v>
+        <v>placeInstance FILLER[137].INST_decoupling_cap_filler 16591.9 0.0 R0</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
@@ -10593,7 +10565,7 @@
         <v>54</v>
       </c>
       <c r="N141" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O141" t="s">
         <v>1</v>
@@ -10602,7 +10574,7 @@
         <v>55</v>
       </c>
       <c r="Q141" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R141" t="s">
         <v>56</v>
@@ -10619,7 +10591,7 @@
       </c>
       <c r="V141" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[139].INST_decoupling_cap_filler 16711.9 0.0 R0</v>
+        <v>placeInstance FILLER[138].INST_decoupling_cap_filler 16711.9 0.0 R0</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -10659,7 +10631,7 @@
         <v>54</v>
       </c>
       <c r="N142" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O142" t="s">
         <v>1</v>
@@ -10668,7 +10640,7 @@
         <v>55</v>
       </c>
       <c r="Q142" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R142" t="s">
         <v>56</v>
@@ -10685,7 +10657,7 @@
       </c>
       <c r="V142" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[140].INST_decoupling_cap_filler 16831.9 0.0 R0</v>
+        <v>placeInstance FILLER[139].INST_decoupling_cap_filler 16831.9 0.0 R0</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
@@ -10731,7 +10703,7 @@
         <v>54</v>
       </c>
       <c r="N143" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O143" t="s">
         <v>1</v>
@@ -10740,7 +10712,7 @@
         <v>55</v>
       </c>
       <c r="Q143" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R143" t="s">
         <v>56</v>
@@ -10757,7 +10729,7 @@
       </c>
       <c r="V143" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[141].INST_decoupling_cap_filler 16951.9 0.0 R0</v>
+        <v>placeInstance FILLER[140].INST_decoupling_cap_filler 16951.9 0.0 R0</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -10797,7 +10769,7 @@
         <v>54</v>
       </c>
       <c r="N144" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O144" t="s">
         <v>1</v>
@@ -10806,7 +10778,7 @@
         <v>55</v>
       </c>
       <c r="Q144" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R144" t="s">
         <v>56</v>
@@ -10823,7 +10795,7 @@
       </c>
       <c r="V144" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[142].INST_decoupling_cap_filler 17071.9 0.0 R0</v>
+        <v>placeInstance FILLER[141].INST_decoupling_cap_filler 17071.9 0.0 R0</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -10869,7 +10841,7 @@
         <v>54</v>
       </c>
       <c r="N145" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O145" t="s">
         <v>1</v>
@@ -10878,7 +10850,7 @@
         <v>55</v>
       </c>
       <c r="Q145" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R145" t="s">
         <v>56</v>
@@ -10895,7 +10867,7 @@
       </c>
       <c r="V145" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[143].INST_decoupling_cap_filler 17191.9 0.0 R0</v>
+        <v>placeInstance FILLER[142].INST_decoupling_cap_filler 17191.9 0.0 R0</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
@@ -10935,7 +10907,7 @@
         <v>54</v>
       </c>
       <c r="N146" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O146" t="s">
         <v>1</v>
@@ -10944,7 +10916,7 @@
         <v>55</v>
       </c>
       <c r="Q146" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R146" t="s">
         <v>56</v>
@@ -10961,7 +10933,7 @@
       </c>
       <c r="V146" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[144].INST_decoupling_cap_filler 17311.9 0.0 R0</v>
+        <v>placeInstance FILLER[143].INST_decoupling_cap_filler 17311.9 0.0 R0</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
@@ -11000,14 +10972,14 @@
         <v>3</v>
       </c>
       <c r="L147" t="str">
-        <f t="shared" ref="L147:L153" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
+        <f t="shared" ref="L147:L152" si="22">CONCATENATE(E147,F147,G147,H147,I147,J147,K147)</f>
         <v>placeInstance DIGITAL_P[53].INST_PAD_DVDD 17451.9 0.0 R0</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O147" t="s">
         <v>1</v>
@@ -11016,7 +10988,7 @@
         <v>55</v>
       </c>
       <c r="Q147" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R147" t="s">
         <v>56</v>
@@ -11033,7 +11005,7 @@
       </c>
       <c r="V147" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[145].INST_decoupling_cap_filler 17431.9 0.0 R0</v>
+        <v>placeInstance FILLER[144].INST_decoupling_cap_filler 17431.9 0.0 R0</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -11073,7 +11045,7 @@
         <v>54</v>
       </c>
       <c r="N148" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O148" t="s">
         <v>1</v>
@@ -11082,7 +11054,7 @@
         <v>55</v>
       </c>
       <c r="Q148" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R148" t="s">
         <v>56</v>
@@ -11099,7 +11071,7 @@
       </c>
       <c r="V148" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[146].INST_decoupling_cap_filler 17551.9 0.0 R0</v>
+        <v>placeInstance FILLER[145].INST_decoupling_cap_filler 17551.9 0.0 R0</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
@@ -11145,7 +11117,7 @@
         <v>54</v>
       </c>
       <c r="N149" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O149" t="s">
         <v>1</v>
@@ -11154,7 +11126,7 @@
         <v>55</v>
       </c>
       <c r="Q149" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R149" t="s">
         <v>56</v>
@@ -11171,7 +11143,7 @@
       </c>
       <c r="V149" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[147].INST_decoupling_cap_filler 17671.9 0.0 R0</v>
+        <v>placeInstance FILLER[146].INST_decoupling_cap_filler 17671.9 0.0 R0</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
@@ -11211,7 +11183,7 @@
         <v>54</v>
       </c>
       <c r="N150" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O150" t="s">
         <v>1</v>
@@ -11220,7 +11192,7 @@
         <v>55</v>
       </c>
       <c r="Q150" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R150" t="s">
         <v>56</v>
@@ -11237,7 +11209,7 @@
       </c>
       <c r="V150" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[148].INST_decoupling_cap_filler 17791.9 0.0 R0</v>
+        <v>placeInstance FILLER[147].INST_decoupling_cap_filler 17791.9 0.0 R0</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
@@ -11283,7 +11255,7 @@
         <v>54</v>
       </c>
       <c r="N151" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O151" t="s">
         <v>1</v>
@@ -11292,7 +11264,7 @@
         <v>55</v>
       </c>
       <c r="Q151" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R151" t="s">
         <v>56</v>
@@ -11309,7 +11281,7 @@
       </c>
       <c r="V151" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[149].INST_decoupling_cap_filler 17911.9 0.0 R0</v>
+        <v>placeInstance FILLER[148].INST_decoupling_cap_filler 17911.9 0.0 R0</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
@@ -11349,7 +11321,7 @@
         <v>54</v>
       </c>
       <c r="N152" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O152" t="s">
         <v>1</v>
@@ -11358,7 +11330,7 @@
         <v>55</v>
       </c>
       <c r="Q152" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R152" t="s">
         <v>56</v>
@@ -11375,7 +11347,7 @@
       </c>
       <c r="V152" t="str">
         <f t="shared" si="19"/>
-        <v>placeInstance FILLER[150].INST_decoupling_cap_filler 18031.9 0.0 R0</v>
+        <v>placeInstance FILLER[149].INST_decoupling_cap_filler 18031.9 0.0 R0</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
@@ -11394,38 +11366,16 @@
       <c r="J153" s="9"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
-      <c r="M153" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N153" s="8">
-        <v>152</v>
-      </c>
-      <c r="O153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P153" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q153" s="8">
-        <v>151</v>
-      </c>
-      <c r="R153" t="s">
-        <v>56</v>
-      </c>
-      <c r="S153">
-        <f t="shared" si="21"/>
-        <v>18151.900000000001</v>
-      </c>
-      <c r="T153" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U153" t="s">
-        <v>3</v>
-      </c>
-      <c r="V153" t="str">
-        <f t="shared" si="19"/>
-        <v>placeInstance FILLER[151].INST_decoupling_cap_filler 18151.9 0.0 R0</v>
-      </c>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="8"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="9"/>
+      <c r="U153" s="8"/>
+      <c r="V153" s="8"/>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>

--- a/source/PADS/pad_positions_bottom.xlsx
+++ b/source/PADS/pad_positions_bottom.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J130" workbookViewId="0">
-      <selection activeCell="O163" sqref="O163"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V2:V34" si="3">CONCATENATE(O3,P3,Q3,R3,S3,T3,U3)</f>
+        <f t="shared" ref="V3:V34" si="3">CONCATENATE(O3,P3,Q3,R3,S3,T3,U3)</f>
         <v>placeInstance FILLER[0].INST_decoupling_cap_filler 151.9 0.0 R0</v>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
         <v>3</v>
       </c>
       <c r="V130" t="str">
-        <f t="shared" ref="V130:V153" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
+        <f t="shared" ref="V130:V152" si="19">CONCATENATE(O130,P130,Q130,R130,S130,T130,U130)</f>
         <v>placeInstance FILLER[127].INST_decoupling_cap_filler 15391.9 0.0 R0</v>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
         <v>56</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:S153" si="21">I130+100</f>
+        <f t="shared" ref="S131:S152" si="21">I130+100</f>
         <v>15511.9</v>
       </c>
       <c r="T131" s="2" t="s">
@@ -11356,7 +11356,10 @@
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
+      <c r="F153" s="8">
+        <f>COUNTIF(F2:F152, "*DIGITAL*")</f>
+        <v>109</v>
+      </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153">
@@ -11381,6 +11384,10 @@
       <c r="A154" s="13"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
+      <c r="F154" s="8">
+        <f>COUNTIF(F2:F152, "*PAD*")</f>
+        <v>42</v>
+      </c>
       <c r="J154" s="2"/>
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
